--- a/s60_signal/position-02338-000338.xlsx
+++ b/s60_signal/position-02338-000338.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5892" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5871" uniqueCount="488">
   <si>
     <t>trade_time</t>
   </si>
@@ -754,10 +754,10 @@
     <t>2021-06-22</t>
   </si>
   <si>
-    <t>2021-02-04</t>
+    <t>2021-03-23</t>
   </si>
   <si>
-    <t>2021-03-23</t>
+    <t>2021-02-04</t>
   </si>
   <si>
     <t>2020-12-08</t>
@@ -1180,7 +1180,7 @@
     <t>2021-06-28</t>
   </si>
   <si>
-    <t>2021-07-09</t>
+    <t>2021-07-12</t>
   </si>
   <si>
     <t>2021-02-10</t>
@@ -1478,9 +1478,6 @@
   </si>
   <si>
     <t>2021-06-24</t>
-  </si>
-  <si>
-    <t>2021-06-29</t>
   </si>
 </sst>
 </file>
@@ -1838,7 +1835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1960"/>
+  <dimension ref="A1:P1953"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -94405,7 +94402,7 @@
         <v>388</v>
       </c>
       <c r="E1852">
-        <v>3.068371483379664</v>
+        <v>2.931900577784912</v>
       </c>
       <c r="F1852">
         <v>-1</v>
@@ -94414,10 +94411,10 @@
         <v>0.03078371162515738</v>
       </c>
       <c r="H1852">
-        <v>0.03091162851662033</v>
+        <v>0.03158809942221509</v>
       </c>
       <c r="I1852">
-        <v>0.4479168914629508</v>
+        <v>0.5843877970577029</v>
       </c>
       <c r="J1852">
         <v>0.846814386655738</v>
@@ -94429,10 +94426,10 @@
         <v>17.15</v>
       </c>
       <c r="M1852">
-        <v>16.44</v>
+        <v>16.92</v>
       </c>
       <c r="N1852">
-        <v>16.99</v>
+        <v>17.26</v>
       </c>
       <c r="O1852">
         <v>1</v>
@@ -94455,7 +94452,7 @@
         <v>388</v>
       </c>
       <c r="E1853">
-        <v>3.068371483379664</v>
+        <v>2.931900577784912</v>
       </c>
       <c r="F1853">
         <v>-1</v>
@@ -94464,10 +94461,10 @@
         <v>0.03059983904969115</v>
       </c>
       <c r="H1853">
-        <v>0.03091162851662033</v>
+        <v>0.03158809942221509</v>
       </c>
       <c r="I1853">
-        <v>0.3317894669291839</v>
+        <v>0.468260372523936</v>
       </c>
       <c r="J1853">
         <v>0.846814386655738</v>
@@ -94479,10 +94476,10 @@
         <v>17</v>
       </c>
       <c r="M1853">
-        <v>16.44</v>
+        <v>16.92</v>
       </c>
       <c r="N1853">
-        <v>16.99</v>
+        <v>17.26</v>
       </c>
       <c r="O1853">
         <v>1</v>
@@ -94746,10 +94743,10 @@
         <v>5</v>
       </c>
       <c r="B1859" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C1859">
-        <v>2.05079765654617</v>
+        <v>2.027894933314958</v>
       </c>
       <c r="D1859" t="s">
         <v>383</v>
@@ -94761,22 +94758,22 @@
         <v>1</v>
       </c>
       <c r="G1859">
-        <v>0.03764920234345383</v>
+        <v>0.03559210506668504</v>
       </c>
       <c r="H1859">
         <v>0.03551355642830065</v>
       </c>
       <c r="I1859">
-        <v>0.9156459151531813</v>
+        <v>0.9385486383843933</v>
       </c>
       <c r="J1859">
         <v>0.847581063973992</v>
       </c>
       <c r="K1859">
-        <v>21</v>
+        <v>19.8</v>
       </c>
       <c r="L1859">
-        <v>19.85</v>
+        <v>18.81</v>
       </c>
       <c r="M1859">
         <v>19.2</v>
@@ -94796,10 +94793,10 @@
         <v>6</v>
       </c>
       <c r="B1860" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C1860">
-        <v>2.027894933314958</v>
+        <v>1.730313869340964</v>
       </c>
       <c r="D1860" t="s">
         <v>383</v>
@@ -94811,22 +94808,22 @@
         <v>1</v>
       </c>
       <c r="G1860">
-        <v>0.03559210506668504</v>
+        <v>0.03698968613065904</v>
       </c>
       <c r="H1860">
         <v>0.03551355642830065</v>
       </c>
       <c r="I1860">
-        <v>0.9385486383843933</v>
+        <v>1.236129702358387</v>
       </c>
       <c r="J1860">
         <v>0.847581063973992</v>
       </c>
       <c r="K1860">
-        <v>19.8</v>
+        <v>20.8</v>
       </c>
       <c r="L1860">
-        <v>18.81</v>
+        <v>19.36</v>
       </c>
       <c r="M1860">
         <v>19.2</v>
@@ -94846,43 +94843,43 @@
         <v>7</v>
       </c>
       <c r="B1861" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C1861">
-        <v>1.730313869340964</v>
+        <v>3.430154338031731</v>
       </c>
       <c r="D1861" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E1861">
-        <v>2.966443571699351</v>
+        <v>2.406847593249937</v>
       </c>
       <c r="F1861">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1861">
-        <v>0.03698968613065904</v>
+        <v>0.03156984566196827</v>
       </c>
       <c r="H1861">
-        <v>0.03551355642830065</v>
+        <v>0.03173315240675006</v>
       </c>
       <c r="I1861">
-        <v>1.236129702358387</v>
+        <v>1.023306744781793</v>
       </c>
       <c r="J1861">
         <v>0.847581063973992</v>
       </c>
       <c r="K1861">
-        <v>20.8</v>
+        <v>16.6</v>
       </c>
       <c r="L1861">
-        <v>19.36</v>
+        <v>17.5</v>
       </c>
       <c r="M1861">
-        <v>19.2</v>
+        <v>17.3</v>
       </c>
       <c r="N1861">
-        <v>19.24</v>
+        <v>17.07</v>
       </c>
       <c r="O1861">
         <v>1</v>
@@ -94896,43 +94893,43 @@
         <v>8</v>
       </c>
       <c r="B1862" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C1862">
-        <v>3.430154338031731</v>
+        <v>3.503944870018726</v>
       </c>
       <c r="D1862" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E1862">
-        <v>2.406847593249937</v>
+        <v>2.918928397560055</v>
       </c>
       <c r="F1862">
         <v>-1</v>
       </c>
       <c r="G1862">
-        <v>0.03156984566196827</v>
+        <v>0.03079605512998127</v>
       </c>
       <c r="H1862">
-        <v>0.03173315240675006</v>
+        <v>0.03160107160243995</v>
       </c>
       <c r="I1862">
-        <v>1.023306744781793</v>
+        <v>0.5850164724586708</v>
       </c>
       <c r="J1862">
         <v>0.847581063973992</v>
       </c>
       <c r="K1862">
-        <v>16.6</v>
+        <v>16.1</v>
       </c>
       <c r="L1862">
-        <v>17.5</v>
+        <v>17.15</v>
       </c>
       <c r="M1862">
-        <v>17.3</v>
+        <v>16.92</v>
       </c>
       <c r="N1862">
-        <v>17.07</v>
+        <v>17.26</v>
       </c>
       <c r="O1862">
         <v>1</v>
@@ -94946,43 +94943,43 @@
         <v>9</v>
       </c>
       <c r="B1863" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C1863">
-        <v>3.503944870018726</v>
+        <v>3.387848112577689</v>
       </c>
       <c r="D1863" t="s">
         <v>388</v>
       </c>
       <c r="E1863">
-        <v>3.055767308267569</v>
+        <v>2.918928397560055</v>
       </c>
       <c r="F1863">
         <v>-1</v>
       </c>
       <c r="G1863">
-        <v>0.03079605512998127</v>
+        <v>0.03061215188742231</v>
       </c>
       <c r="H1863">
-        <v>0.03092423269173243</v>
+        <v>0.03160107160243995</v>
       </c>
       <c r="I1863">
-        <v>0.448177561751157</v>
+        <v>0.4689197150176341</v>
       </c>
       <c r="J1863">
         <v>0.847581063973992</v>
       </c>
       <c r="K1863">
-        <v>16.1</v>
+        <v>16.06</v>
       </c>
       <c r="L1863">
-        <v>17.15</v>
+        <v>17</v>
       </c>
       <c r="M1863">
-        <v>16.44</v>
+        <v>16.92</v>
       </c>
       <c r="N1863">
-        <v>16.99</v>
+        <v>17.26</v>
       </c>
       <c r="O1863">
         <v>1</v>
@@ -94993,96 +94990,96 @@
     </row>
     <row r="1864" spans="1:16">
       <c r="A1864" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1864" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C1864">
-        <v>3.387848112577689</v>
+        <v>3.226450894980122</v>
       </c>
       <c r="D1864" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E1864">
-        <v>3.055767308267569</v>
+        <v>2.36019849346598</v>
       </c>
       <c r="F1864">
         <v>-1</v>
       </c>
       <c r="G1864">
-        <v>0.03061215188742231</v>
+        <v>0.03017354910501988</v>
       </c>
       <c r="H1864">
-        <v>0.03092423269173243</v>
+        <v>0.03131980150653402</v>
       </c>
       <c r="I1864">
-        <v>0.3320808043101202</v>
+        <v>0.8662524015141422</v>
       </c>
       <c r="J1864">
-        <v>0.847581063973992</v>
+        <v>0.8527562724696125</v>
       </c>
       <c r="K1864">
-        <v>16.06</v>
+        <v>15.8</v>
       </c>
       <c r="L1864">
-        <v>17</v>
+        <v>16.7</v>
       </c>
       <c r="M1864">
-        <v>16.44</v>
+        <v>16.98</v>
       </c>
       <c r="N1864">
-        <v>16.99</v>
+        <v>16.84</v>
       </c>
       <c r="O1864">
         <v>1</v>
       </c>
       <c r="P1864" t="s">
-        <v>190</v>
+        <v>365</v>
       </c>
     </row>
     <row r="1865" spans="1:16">
       <c r="A1865" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1865" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C1865">
-        <v>3.226450894980122</v>
+        <v>1.927253618915373</v>
       </c>
       <c r="D1865" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E1865">
-        <v>2.36019849346598</v>
+        <v>3.055536988073273</v>
       </c>
       <c r="F1865">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1865">
-        <v>0.03017354910501988</v>
+        <v>0.03085274638108463</v>
       </c>
       <c r="H1865">
-        <v>0.03131980150653402</v>
+        <v>0.03242446301192672</v>
       </c>
       <c r="I1865">
-        <v>0.8662524015141422</v>
+        <v>1.1282833691579</v>
       </c>
       <c r="J1865">
         <v>0.8527562724696125</v>
       </c>
       <c r="K1865">
-        <v>15.8</v>
+        <v>16.96</v>
       </c>
       <c r="L1865">
-        <v>16.7</v>
+        <v>16.39</v>
       </c>
       <c r="M1865">
-        <v>16.98</v>
+        <v>17.22</v>
       </c>
       <c r="N1865">
-        <v>16.84</v>
+        <v>17.74</v>
       </c>
       <c r="O1865">
         <v>1</v>
@@ -95093,46 +95090,46 @@
     </row>
     <row r="1866" spans="1:16">
       <c r="A1866" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1866" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C1866">
-        <v>1.927253618915373</v>
+        <v>1.611881360445874</v>
       </c>
       <c r="D1866" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="E1866">
-        <v>3.055536988073273</v>
+        <v>3.375188887409408</v>
       </c>
       <c r="F1866">
         <v>1</v>
       </c>
       <c r="G1866">
-        <v>0.03085274638108463</v>
+        <v>0.04066811863955412</v>
       </c>
       <c r="H1866">
-        <v>0.03242446301192672</v>
+        <v>0.04038481111259059</v>
       </c>
       <c r="I1866">
-        <v>1.1282833691579</v>
+        <v>1.763307526963533</v>
       </c>
       <c r="J1866">
         <v>0.8527562724696125</v>
       </c>
       <c r="K1866">
-        <v>16.96</v>
+        <v>22.9</v>
       </c>
       <c r="L1866">
-        <v>16.39</v>
+        <v>21.14</v>
       </c>
       <c r="M1866">
-        <v>17.22</v>
+        <v>21.7</v>
       </c>
       <c r="N1866">
-        <v>17.74</v>
+        <v>21.88</v>
       </c>
       <c r="O1866">
         <v>1</v>
@@ -95143,46 +95140,46 @@
     </row>
     <row r="1867" spans="1:16">
       <c r="A1867" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1867" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C1867">
-        <v>1.611881360445874</v>
+        <v>3.609557883624053</v>
       </c>
       <c r="D1867" t="s">
-        <v>381</v>
+        <v>250</v>
       </c>
       <c r="E1867">
-        <v>3.375188887409408</v>
+        <v>4.279006629130127</v>
       </c>
       <c r="F1867">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1867">
-        <v>0.04066811863955412</v>
+        <v>0.04565044211637594</v>
       </c>
       <c r="H1867">
-        <v>0.04038481111259059</v>
+        <v>0.04666099337086987</v>
       </c>
       <c r="I1867">
-        <v>1.763307526963533</v>
+        <v>-0.6694487455060738</v>
       </c>
       <c r="J1867">
         <v>0.8527562724696125</v>
       </c>
       <c r="K1867">
-        <v>22.9</v>
+        <v>24.65</v>
       </c>
       <c r="L1867">
-        <v>21.14</v>
+        <v>24.63</v>
       </c>
       <c r="M1867">
-        <v>21.7</v>
+        <v>24.85</v>
       </c>
       <c r="N1867">
-        <v>21.88</v>
+        <v>25.47</v>
       </c>
       <c r="O1867">
         <v>1</v>
@@ -95193,46 +95190,46 @@
     </row>
     <row r="1868" spans="1:16">
       <c r="A1868" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1868" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C1868">
-        <v>3.609557883624053</v>
+        <v>1.691448564798083</v>
       </c>
       <c r="D1868" t="s">
-        <v>250</v>
+        <v>383</v>
       </c>
       <c r="E1868">
-        <v>4.279006629130127</v>
+        <v>2.867079568583438</v>
       </c>
       <c r="F1868">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1868">
-        <v>0.04565044211637594</v>
+        <v>0.03946855143520192</v>
       </c>
       <c r="H1868">
-        <v>0.04666099337086987</v>
+        <v>0.03561292043141655</v>
       </c>
       <c r="I1868">
-        <v>-0.6694487455060738</v>
+        <v>1.175631003785355</v>
       </c>
       <c r="J1868">
         <v>0.8527562724696125</v>
       </c>
       <c r="K1868">
-        <v>24.65</v>
+        <v>22.15</v>
       </c>
       <c r="L1868">
-        <v>24.63</v>
+        <v>20.58</v>
       </c>
       <c r="M1868">
-        <v>24.85</v>
+        <v>19.2</v>
       </c>
       <c r="N1868">
-        <v>25.47</v>
+        <v>19.24</v>
       </c>
       <c r="O1868">
         <v>1</v>
@@ -95243,13 +95240,13 @@
     </row>
     <row r="1869" spans="1:16">
       <c r="A1869" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1869" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C1869">
-        <v>1.691448564798083</v>
+        <v>1.970582973502502</v>
       </c>
       <c r="D1869" t="s">
         <v>383</v>
@@ -95261,22 +95258,22 @@
         <v>1</v>
       </c>
       <c r="G1869">
-        <v>0.03946855143520192</v>
+        <v>0.03718941702649749</v>
       </c>
       <c r="H1869">
         <v>0.03561292043141655</v>
       </c>
       <c r="I1869">
-        <v>1.175631003785355</v>
+        <v>0.8964965950809365</v>
       </c>
       <c r="J1869">
         <v>0.8527562724696125</v>
       </c>
       <c r="K1869">
-        <v>22.15</v>
+        <v>20.65</v>
       </c>
       <c r="L1869">
-        <v>20.58</v>
+        <v>19.58</v>
       </c>
       <c r="M1869">
         <v>19.2</v>
@@ -95293,13 +95290,13 @@
     </row>
     <row r="1870" spans="1:16">
       <c r="A1870" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1870" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C1870">
-        <v>1.925425805101671</v>
+        <v>1.622669532632059</v>
       </c>
       <c r="D1870" t="s">
         <v>383</v>
@@ -95311,22 +95308,22 @@
         <v>1</v>
       </c>
       <c r="G1870">
-        <v>0.03569457419489833</v>
+        <v>0.03709733046736794</v>
       </c>
       <c r="H1870">
         <v>0.03561292043141655</v>
       </c>
       <c r="I1870">
-        <v>0.9416537634817672</v>
+        <v>1.244410035951379</v>
       </c>
       <c r="J1870">
         <v>0.8527562724696125</v>
       </c>
       <c r="K1870">
-        <v>19.8</v>
+        <v>20.8</v>
       </c>
       <c r="L1870">
-        <v>18.81</v>
+        <v>19.36</v>
       </c>
       <c r="M1870">
         <v>19.2</v>
@@ -95343,46 +95340,46 @@
     </row>
     <row r="1871" spans="1:16">
       <c r="A1871" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1871" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C1871">
-        <v>1.622669532632059</v>
+        <v>3.344245877004431</v>
       </c>
       <c r="D1871" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E1871">
-        <v>2.867079568583438</v>
+        <v>2.317316486275704</v>
       </c>
       <c r="F1871">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1871">
-        <v>0.03709733046736794</v>
+        <v>0.03165575412299557</v>
       </c>
       <c r="H1871">
-        <v>0.03561292043141655</v>
+        <v>0.0318226835137243</v>
       </c>
       <c r="I1871">
-        <v>1.244410035951379</v>
+        <v>1.026929390728727</v>
       </c>
       <c r="J1871">
         <v>0.8527562724696125</v>
       </c>
       <c r="K1871">
-        <v>20.8</v>
+        <v>16.6</v>
       </c>
       <c r="L1871">
-        <v>19.36</v>
+        <v>17.5</v>
       </c>
       <c r="M1871">
-        <v>19.2</v>
+        <v>17.3</v>
       </c>
       <c r="N1871">
-        <v>19.24</v>
+        <v>17.07</v>
       </c>
       <c r="O1871">
         <v>1</v>
@@ -95393,46 +95390,46 @@
     </row>
     <row r="1872" spans="1:16">
       <c r="A1872" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1872" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C1872">
-        <v>3.344245877004431</v>
+        <v>3.420624013239236</v>
       </c>
       <c r="D1872" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E1872">
-        <v>2.317316486275704</v>
+        <v>2.831363869814156</v>
       </c>
       <c r="F1872">
         <v>-1</v>
       </c>
       <c r="G1872">
-        <v>0.03165575412299557</v>
+        <v>0.03087937598676076</v>
       </c>
       <c r="H1872">
-        <v>0.0318226835137243</v>
+        <v>0.03168863613018585</v>
       </c>
       <c r="I1872">
-        <v>1.026929390728727</v>
+        <v>0.5892601434250793</v>
       </c>
       <c r="J1872">
         <v>0.8527562724696125</v>
       </c>
       <c r="K1872">
-        <v>16.6</v>
+        <v>16.1</v>
       </c>
       <c r="L1872">
-        <v>17.5</v>
+        <v>17.15</v>
       </c>
       <c r="M1872">
-        <v>17.3</v>
+        <v>16.92</v>
       </c>
       <c r="N1872">
-        <v>17.07</v>
+        <v>17.26</v>
       </c>
       <c r="O1872">
         <v>1</v>
@@ -95443,46 +95440,46 @@
     </row>
     <row r="1873" spans="1:16">
       <c r="A1873" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1873" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C1873">
-        <v>3.420624013239236</v>
+        <v>3.304734264138025</v>
       </c>
       <c r="D1873" t="s">
         <v>388</v>
       </c>
       <c r="E1873">
-        <v>2.970686880599567</v>
+        <v>2.831363869814156</v>
       </c>
       <c r="F1873">
         <v>-1</v>
       </c>
       <c r="G1873">
-        <v>0.03087937598676076</v>
+        <v>0.03069526573586197</v>
       </c>
       <c r="H1873">
-        <v>0.03100931311940043</v>
+        <v>0.03168863613018585</v>
       </c>
       <c r="I1873">
-        <v>0.4499371326396684</v>
+        <v>0.4733703943238687</v>
       </c>
       <c r="J1873">
         <v>0.8527562724696125</v>
       </c>
       <c r="K1873">
-        <v>16.1</v>
+        <v>16.06</v>
       </c>
       <c r="L1873">
-        <v>17.15</v>
+        <v>17</v>
       </c>
       <c r="M1873">
-        <v>16.44</v>
+        <v>16.92</v>
       </c>
       <c r="N1873">
-        <v>16.99</v>
+        <v>17.26</v>
       </c>
       <c r="O1873">
         <v>1</v>
@@ -95493,96 +95490,96 @@
     </row>
     <row r="1874" spans="1:16">
       <c r="A1874" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B1874" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="C1874">
-        <v>3.304734264138025</v>
+        <v>3.195733418063805</v>
       </c>
       <c r="D1874" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E1874">
-        <v>2.970686880599567</v>
+        <v>2.327186926501481</v>
       </c>
       <c r="F1874">
         <v>-1</v>
       </c>
       <c r="G1874">
-        <v>0.03069526573586197</v>
+        <v>0.0302042665819362</v>
       </c>
       <c r="H1874">
-        <v>0.03100931311940043</v>
+        <v>0.03135281307349852</v>
       </c>
       <c r="I1874">
-        <v>0.3340473835384579</v>
+        <v>0.8685464915623236</v>
       </c>
       <c r="J1874">
-        <v>0.8527562724696125</v>
+        <v>0.8547004165782401</v>
       </c>
       <c r="K1874">
-        <v>16.06</v>
+        <v>15.8</v>
       </c>
       <c r="L1874">
-        <v>17</v>
+        <v>16.7</v>
       </c>
       <c r="M1874">
-        <v>16.44</v>
+        <v>16.98</v>
       </c>
       <c r="N1874">
-        <v>16.99</v>
+        <v>16.84</v>
       </c>
       <c r="O1874">
         <v>1</v>
       </c>
       <c r="P1874" t="s">
-        <v>365</v>
+        <v>196</v>
       </c>
     </row>
     <row r="1875" spans="1:16">
       <c r="A1875" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1875" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C1875">
-        <v>3.195733418063805</v>
+        <v>1.894280934833047</v>
       </c>
       <c r="D1875" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E1875">
-        <v>2.327186926501481</v>
+        <v>3.022058826522704</v>
       </c>
       <c r="F1875">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1875">
-        <v>0.0302042665819362</v>
+        <v>0.03088571906516695</v>
       </c>
       <c r="H1875">
-        <v>0.03135281307349852</v>
+        <v>0.03245794117347729</v>
       </c>
       <c r="I1875">
-        <v>0.8685464915623236</v>
+        <v>1.127777891689657</v>
       </c>
       <c r="J1875">
         <v>0.8547004165782401</v>
       </c>
       <c r="K1875">
-        <v>15.8</v>
+        <v>16.96</v>
       </c>
       <c r="L1875">
-        <v>16.7</v>
+        <v>16.39</v>
       </c>
       <c r="M1875">
-        <v>16.98</v>
+        <v>17.22</v>
       </c>
       <c r="N1875">
-        <v>16.84</v>
+        <v>17.74</v>
       </c>
       <c r="O1875">
         <v>1</v>
@@ -95593,46 +95590,46 @@
     </row>
     <row r="1876" spans="1:16">
       <c r="A1876" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1876" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C1876">
-        <v>1.894280934833047</v>
+        <v>1.567360460358302</v>
       </c>
       <c r="D1876" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="E1876">
-        <v>3.022058826522704</v>
+        <v>3.333000960252189</v>
       </c>
       <c r="F1876">
         <v>1</v>
       </c>
       <c r="G1876">
-        <v>0.03088571906516695</v>
+        <v>0.0407126395396417</v>
       </c>
       <c r="H1876">
-        <v>0.03245794117347729</v>
+        <v>0.04042699903974781</v>
       </c>
       <c r="I1876">
-        <v>1.127777891689657</v>
+        <v>1.765640499893887</v>
       </c>
       <c r="J1876">
         <v>0.8547004165782401</v>
       </c>
       <c r="K1876">
-        <v>16.96</v>
+        <v>22.9</v>
       </c>
       <c r="L1876">
-        <v>16.39</v>
+        <v>21.14</v>
       </c>
       <c r="M1876">
-        <v>17.22</v>
+        <v>21.7</v>
       </c>
       <c r="N1876">
-        <v>17.74</v>
+        <v>21.88</v>
       </c>
       <c r="O1876">
         <v>1</v>
@@ -95643,46 +95640,46 @@
     </row>
     <row r="1877" spans="1:16">
       <c r="A1877" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1877" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="C1877">
-        <v>1.567360460358302</v>
+        <v>3.298044856319851</v>
       </c>
       <c r="D1877" t="s">
-        <v>381</v>
+        <v>250</v>
       </c>
       <c r="E1877">
-        <v>3.333000960252189</v>
+        <v>4.230694648030731</v>
       </c>
       <c r="F1877">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1877">
-        <v>0.0407126395396417</v>
+        <v>0.04492195514368015</v>
       </c>
       <c r="H1877">
-        <v>0.04042699903974781</v>
+        <v>0.04670930535196927</v>
       </c>
       <c r="I1877">
-        <v>1.765640499893887</v>
+        <v>-0.9326497917108796</v>
       </c>
       <c r="J1877">
         <v>0.8547004165782401</v>
       </c>
       <c r="K1877">
-        <v>22.9</v>
+        <v>24.35</v>
       </c>
       <c r="L1877">
-        <v>21.14</v>
+        <v>24.11</v>
       </c>
       <c r="M1877">
-        <v>21.7</v>
+        <v>24.85</v>
       </c>
       <c r="N1877">
-        <v>21.88</v>
+        <v>25.47</v>
       </c>
       <c r="O1877">
         <v>1</v>
@@ -95693,13 +95690,13 @@
     </row>
     <row r="1878" spans="1:16">
       <c r="A1878" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1878" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C1878">
-        <v>3.298044856319851</v>
+        <v>3.561634731346381</v>
       </c>
       <c r="D1878" t="s">
         <v>250</v>
@@ -95711,22 +95708,22 @@
         <v>-1</v>
       </c>
       <c r="G1878">
-        <v>0.04492195514368015</v>
+        <v>0.04569836526865362</v>
       </c>
       <c r="H1878">
         <v>0.04670930535196927</v>
       </c>
       <c r="I1878">
-        <v>-0.9326497917108796</v>
+        <v>-0.6690599166843505</v>
       </c>
       <c r="J1878">
         <v>0.8547004165782401</v>
       </c>
       <c r="K1878">
-        <v>24.35</v>
+        <v>24.65</v>
       </c>
       <c r="L1878">
-        <v>24.11</v>
+        <v>24.63</v>
       </c>
       <c r="M1878">
         <v>24.85</v>
@@ -95743,46 +95740,46 @@
     </row>
     <row r="1879" spans="1:16">
       <c r="A1879" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1879" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C1879">
-        <v>3.561634731346381</v>
+        <v>1.648385772791979</v>
       </c>
       <c r="D1879" t="s">
-        <v>250</v>
+        <v>383</v>
       </c>
       <c r="E1879">
-        <v>4.230694648030731</v>
+        <v>2.829752001697788</v>
       </c>
       <c r="F1879">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1879">
-        <v>0.04569836526865362</v>
+        <v>0.03951161422720802</v>
       </c>
       <c r="H1879">
-        <v>0.04670930535196927</v>
+        <v>0.03565024799830221</v>
       </c>
       <c r="I1879">
-        <v>-0.6690599166843505</v>
+        <v>1.181366228905809</v>
       </c>
       <c r="J1879">
         <v>0.8547004165782401</v>
       </c>
       <c r="K1879">
-        <v>24.65</v>
+        <v>22.15</v>
       </c>
       <c r="L1879">
-        <v>24.63</v>
+        <v>20.58</v>
       </c>
       <c r="M1879">
-        <v>24.85</v>
+        <v>19.2</v>
       </c>
       <c r="N1879">
-        <v>25.47</v>
+        <v>19.24</v>
       </c>
       <c r="O1879">
         <v>1</v>
@@ -95793,13 +95790,13 @@
     </row>
     <row r="1880" spans="1:16">
       <c r="A1880" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1880" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C1880">
-        <v>1.648385772791979</v>
+        <v>1.930436397659342</v>
       </c>
       <c r="D1880" t="s">
         <v>383</v>
@@ -95811,22 +95808,22 @@
         <v>1</v>
       </c>
       <c r="G1880">
-        <v>0.03951161422720802</v>
+        <v>0.03722956360234066</v>
       </c>
       <c r="H1880">
         <v>0.03565024799830221</v>
       </c>
       <c r="I1880">
-        <v>1.181366228905809</v>
+        <v>0.8993156040384456</v>
       </c>
       <c r="J1880">
         <v>0.8547004165782401</v>
       </c>
       <c r="K1880">
-        <v>22.15</v>
+        <v>20.65</v>
       </c>
       <c r="L1880">
-        <v>20.58</v>
+        <v>19.58</v>
       </c>
       <c r="M1880">
         <v>19.2</v>
@@ -95843,13 +95840,13 @@
     </row>
     <row r="1881" spans="1:16">
       <c r="A1881" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1881" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C1881">
-        <v>1.930436397659342</v>
+        <v>1.582231335172605</v>
       </c>
       <c r="D1881" t="s">
         <v>383</v>
@@ -95861,22 +95858,22 @@
         <v>1</v>
       </c>
       <c r="G1881">
-        <v>0.03722956360234066</v>
+        <v>0.03713776866482739</v>
       </c>
       <c r="H1881">
         <v>0.03565024799830221</v>
       </c>
       <c r="I1881">
-        <v>0.8993156040384456</v>
+        <v>1.247520666525183</v>
       </c>
       <c r="J1881">
         <v>0.8547004165782401</v>
       </c>
       <c r="K1881">
-        <v>20.65</v>
+        <v>20.8</v>
       </c>
       <c r="L1881">
-        <v>19.58</v>
+        <v>19.36</v>
       </c>
       <c r="M1881">
         <v>19.2</v>
@@ -95893,46 +95890,46 @@
     </row>
     <row r="1882" spans="1:16">
       <c r="A1882" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1882" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C1882">
-        <v>1.582231335172605</v>
+        <v>3.311973084801213</v>
       </c>
       <c r="D1882" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E1882">
-        <v>2.829752001697788</v>
+        <v>2.283682793196446</v>
       </c>
       <c r="F1882">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1882">
-        <v>0.03713776866482739</v>
+        <v>0.03168802691519879</v>
       </c>
       <c r="H1882">
-        <v>0.03565024799830221</v>
+        <v>0.03185631720680356</v>
       </c>
       <c r="I1882">
-        <v>1.247520666525183</v>
+        <v>1.028290291604767</v>
       </c>
       <c r="J1882">
         <v>0.8547004165782401</v>
       </c>
       <c r="K1882">
-        <v>20.8</v>
+        <v>16.6</v>
       </c>
       <c r="L1882">
-        <v>19.36</v>
+        <v>17.5</v>
       </c>
       <c r="M1882">
-        <v>19.2</v>
+        <v>17.3</v>
       </c>
       <c r="N1882">
-        <v>19.24</v>
+        <v>17.07</v>
       </c>
       <c r="O1882">
         <v>1</v>
@@ -95943,46 +95940,46 @@
     </row>
     <row r="1883" spans="1:16">
       <c r="A1883" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1883" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C1883">
-        <v>3.311973084801213</v>
+        <v>3.389323293090332</v>
       </c>
       <c r="D1883" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E1883">
-        <v>2.283682793196446</v>
+        <v>2.798468951496178</v>
       </c>
       <c r="F1883">
         <v>-1</v>
       </c>
       <c r="G1883">
-        <v>0.03168802691519879</v>
+        <v>0.03091067670690967</v>
       </c>
       <c r="H1883">
-        <v>0.03185631720680356</v>
+        <v>0.03172153104850383</v>
       </c>
       <c r="I1883">
-        <v>1.028290291604767</v>
+        <v>0.5908543415941541</v>
       </c>
       <c r="J1883">
         <v>0.8547004165782401</v>
       </c>
       <c r="K1883">
-        <v>16.6</v>
+        <v>16.1</v>
       </c>
       <c r="L1883">
-        <v>17.5</v>
+        <v>17.15</v>
       </c>
       <c r="M1883">
-        <v>17.3</v>
+        <v>16.92</v>
       </c>
       <c r="N1883">
-        <v>17.07</v>
+        <v>17.26</v>
       </c>
       <c r="O1883">
         <v>1</v>
@@ -95993,46 +95990,46 @@
     </row>
     <row r="1884" spans="1:16">
       <c r="A1884" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1884" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C1884">
-        <v>3.389323293090332</v>
+        <v>3.273511309753465</v>
       </c>
       <c r="D1884" t="s">
         <v>388</v>
       </c>
       <c r="E1884">
-        <v>2.938725151453729</v>
+        <v>2.798468951496178</v>
       </c>
       <c r="F1884">
         <v>-1</v>
       </c>
       <c r="G1884">
-        <v>0.03091067670690967</v>
+        <v>0.03072648869024653</v>
       </c>
       <c r="H1884">
-        <v>0.03104127484854627</v>
+        <v>0.03172153104850383</v>
       </c>
       <c r="I1884">
-        <v>0.4505981416366023</v>
+        <v>0.4750423582572871</v>
       </c>
       <c r="J1884">
         <v>0.8547004165782401</v>
       </c>
       <c r="K1884">
-        <v>16.1</v>
+        <v>16.06</v>
       </c>
       <c r="L1884">
-        <v>17.15</v>
+        <v>17</v>
       </c>
       <c r="M1884">
-        <v>16.44</v>
+        <v>16.92</v>
       </c>
       <c r="N1884">
-        <v>16.99</v>
+        <v>17.26</v>
       </c>
       <c r="O1884">
         <v>1</v>
@@ -96043,63 +96040,63 @@
     </row>
     <row r="1885" spans="1:16">
       <c r="A1885" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1885" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="C1885">
-        <v>3.273511309753465</v>
+        <v>1.77267599025908</v>
       </c>
       <c r="D1885" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="E1885">
-        <v>2.938725151453729</v>
+        <v>0.7446877071594393</v>
       </c>
       <c r="F1885">
         <v>-1</v>
       </c>
       <c r="G1885">
-        <v>0.03072648869024653</v>
+        <v>0.03160732400974092</v>
       </c>
       <c r="H1885">
-        <v>0.03104127484854627</v>
+        <v>0.03031531229284056</v>
       </c>
       <c r="I1885">
-        <v>0.3347861582997353</v>
+        <v>1.02798828309964</v>
       </c>
       <c r="J1885">
-        <v>0.8547004165782401</v>
+        <v>0.9429408350025867</v>
       </c>
       <c r="K1885">
-        <v>16.06</v>
+        <v>15.82</v>
       </c>
       <c r="L1885">
-        <v>17</v>
+        <v>16.69</v>
       </c>
       <c r="M1885">
-        <v>16.44</v>
+        <v>15.68</v>
       </c>
       <c r="N1885">
-        <v>16.99</v>
+        <v>15.53</v>
       </c>
       <c r="O1885">
         <v>1</v>
       </c>
       <c r="P1885" t="s">
-        <v>196</v>
+        <v>471</v>
       </c>
     </row>
     <row r="1886" spans="1:16">
       <c r="A1886" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1886" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C1886">
-        <v>1.77267599025908</v>
+        <v>1.666911489257522</v>
       </c>
       <c r="D1886" t="s">
         <v>375</v>
@@ -96111,22 +96108,22 @@
         <v>-1</v>
       </c>
       <c r="G1886">
-        <v>0.03160732400974092</v>
+        <v>0.03263308851074247</v>
       </c>
       <c r="H1886">
         <v>0.03031531229284056</v>
       </c>
       <c r="I1886">
-        <v>1.02798828309964</v>
+        <v>0.922223782098083</v>
       </c>
       <c r="J1886">
         <v>0.9429408350025867</v>
       </c>
       <c r="K1886">
-        <v>15.82</v>
+        <v>16.42</v>
       </c>
       <c r="L1886">
-        <v>16.69</v>
+        <v>17.15</v>
       </c>
       <c r="M1886">
         <v>15.68</v>
@@ -96143,13 +96140,13 @@
     </row>
     <row r="1887" spans="1:16">
       <c r="A1887" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1887" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="C1887">
-        <v>1.666911489257522</v>
+        <v>1.679252440359232</v>
       </c>
       <c r="D1887" t="s">
         <v>375</v>
@@ -96161,22 +96158,22 @@
         <v>-1</v>
       </c>
       <c r="G1887">
-        <v>0.03263308851074247</v>
+        <v>0.03140074755964076</v>
       </c>
       <c r="H1887">
         <v>0.03031531229284056</v>
       </c>
       <c r="I1887">
-        <v>0.922223782098083</v>
+        <v>0.9345647331997924</v>
       </c>
       <c r="J1887">
         <v>0.9429408350025867</v>
       </c>
       <c r="K1887">
-        <v>16.42</v>
+        <v>15.76</v>
       </c>
       <c r="L1887">
-        <v>17.15</v>
+        <v>16.54</v>
       </c>
       <c r="M1887">
         <v>15.68</v>
@@ -96193,13 +96190,13 @@
     </row>
     <row r="1888" spans="1:16">
       <c r="A1888" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1888" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C1888">
-        <v>1.679252440359232</v>
+        <v>1.654146407760372</v>
       </c>
       <c r="D1888" t="s">
         <v>375</v>
@@ -96211,22 +96208,22 @@
         <v>-1</v>
       </c>
       <c r="G1888">
-        <v>0.03140074755964076</v>
+        <v>0.03054585359223963</v>
       </c>
       <c r="H1888">
         <v>0.03031531229284056</v>
       </c>
       <c r="I1888">
-        <v>0.9345647331997924</v>
+        <v>0.9094587006009327</v>
       </c>
       <c r="J1888">
         <v>0.9429408350025867</v>
       </c>
       <c r="K1888">
-        <v>15.76</v>
+        <v>15.32</v>
       </c>
       <c r="L1888">
-        <v>16.54</v>
+        <v>16.1</v>
       </c>
       <c r="M1888">
         <v>15.68</v>
@@ -96243,13 +96240,13 @@
     </row>
     <row r="1889" spans="1:16">
       <c r="A1889" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1889" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C1889">
-        <v>1.654146407760372</v>
+        <v>1.837028658261147</v>
       </c>
       <c r="D1889" t="s">
         <v>375</v>
@@ -96261,22 +96258,22 @@
         <v>-1</v>
       </c>
       <c r="G1889">
-        <v>0.03054585359223963</v>
+        <v>0.03016297134173885</v>
       </c>
       <c r="H1889">
         <v>0.03031531229284056</v>
       </c>
       <c r="I1889">
-        <v>0.9094587006009327</v>
+        <v>1.092340951101708</v>
       </c>
       <c r="J1889">
         <v>0.9429408350025867</v>
       </c>
       <c r="K1889">
-        <v>15.32</v>
+        <v>15.02</v>
       </c>
       <c r="L1889">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="M1889">
         <v>15.68</v>
@@ -96293,13 +96290,13 @@
     </row>
     <row r="1890" spans="1:16">
       <c r="A1890" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1890" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C1890">
-        <v>1.837028658261147</v>
+        <v>1.773275874159959</v>
       </c>
       <c r="D1890" t="s">
         <v>375</v>
@@ -96311,22 +96308,22 @@
         <v>-1</v>
       </c>
       <c r="G1890">
-        <v>0.03016297134173885</v>
+        <v>0.03096672412584004</v>
       </c>
       <c r="H1890">
         <v>0.03031531229284056</v>
       </c>
       <c r="I1890">
-        <v>1.092340951101708</v>
+        <v>1.028588167000519</v>
       </c>
       <c r="J1890">
         <v>0.9429408350025867</v>
       </c>
       <c r="K1890">
-        <v>15.02</v>
+        <v>15.48</v>
       </c>
       <c r="L1890">
-        <v>16</v>
+        <v>16.37</v>
       </c>
       <c r="M1890">
         <v>15.68</v>
@@ -96343,46 +96340,46 @@
     </row>
     <row r="1891" spans="1:16">
       <c r="A1891" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1891" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C1891">
-        <v>1.773275874159959</v>
+        <v>-0.4533451215592343</v>
       </c>
       <c r="D1891" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="E1891">
-        <v>0.7446877071594393</v>
+        <v>1.418183880443866</v>
       </c>
       <c r="F1891">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1891">
-        <v>0.03096672412584004</v>
+        <v>0.04273334512155924</v>
       </c>
       <c r="H1891">
-        <v>0.03031531229284056</v>
+        <v>0.04234181611955613</v>
       </c>
       <c r="I1891">
-        <v>1.028588167000519</v>
+        <v>1.871529002003101</v>
       </c>
       <c r="J1891">
         <v>0.9429408350025867</v>
       </c>
       <c r="K1891">
-        <v>15.48</v>
+        <v>22.9</v>
       </c>
       <c r="L1891">
-        <v>16.37</v>
+        <v>21.14</v>
       </c>
       <c r="M1891">
-        <v>15.68</v>
+        <v>21.7</v>
       </c>
       <c r="N1891">
-        <v>15.53</v>
+        <v>21.88</v>
       </c>
       <c r="O1891">
         <v>1</v>
@@ -96393,46 +96390,46 @@
     </row>
     <row r="1892" spans="1:16">
       <c r="A1892" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1892" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C1892">
-        <v>-0.4533451215592343</v>
+        <v>2.037920250185717</v>
       </c>
       <c r="D1892" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="E1892">
-        <v>1.418183880443866</v>
+        <v>2.362243625936888</v>
       </c>
       <c r="F1892">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1892">
-        <v>0.04273334512155924</v>
+        <v>0.04890207974981428</v>
       </c>
       <c r="H1892">
-        <v>0.04234181611955613</v>
+        <v>0.04837775637406311</v>
       </c>
       <c r="I1892">
-        <v>1.871529002003101</v>
+        <v>-0.3243233757511703</v>
       </c>
       <c r="J1892">
         <v>0.9429408350025867</v>
       </c>
       <c r="K1892">
-        <v>22.9</v>
+        <v>24.85</v>
       </c>
       <c r="L1892">
-        <v>21.14</v>
+        <v>25.47</v>
       </c>
       <c r="M1892">
-        <v>21.7</v>
+        <v>24.4</v>
       </c>
       <c r="N1892">
-        <v>21.88</v>
+        <v>25.37</v>
       </c>
       <c r="O1892">
         <v>1</v>
@@ -96443,46 +96440,46 @@
     </row>
     <row r="1893" spans="1:16">
       <c r="A1893" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1893" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C1893">
-        <v>2.037920250185717</v>
+        <v>0.1468306319461981</v>
       </c>
       <c r="D1893" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E1893">
-        <v>2.362243625936888</v>
+        <v>1.135535967950332</v>
       </c>
       <c r="F1893">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1893">
-        <v>0.04890207974981428</v>
+        <v>0.03937316936805381</v>
       </c>
       <c r="H1893">
-        <v>0.04837775637406311</v>
+        <v>0.03734446403204966</v>
       </c>
       <c r="I1893">
-        <v>-0.3243233757511703</v>
+        <v>0.9887053360041342</v>
       </c>
       <c r="J1893">
         <v>0.9429408350025867</v>
       </c>
       <c r="K1893">
-        <v>24.85</v>
+        <v>20.8</v>
       </c>
       <c r="L1893">
-        <v>25.47</v>
+        <v>19.76</v>
       </c>
       <c r="M1893">
-        <v>24.4</v>
+        <v>19.2</v>
       </c>
       <c r="N1893">
-        <v>25.37</v>
+        <v>19.24</v>
       </c>
       <c r="O1893">
         <v>1</v>
@@ -96493,13 +96490,13 @@
     </row>
     <row r="1894" spans="1:16">
       <c r="A1894" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1894" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C1894">
-        <v>0.1468306319461981</v>
+        <v>0.108271757196583</v>
       </c>
       <c r="D1894" t="s">
         <v>383</v>
@@ -96511,22 +96508,22 @@
         <v>1</v>
       </c>
       <c r="G1894">
-        <v>0.03937316936805381</v>
+        <v>0.03905172824280342</v>
       </c>
       <c r="H1894">
         <v>0.03734446403204966</v>
       </c>
       <c r="I1894">
-        <v>0.9887053360041342</v>
+        <v>1.027264210753749</v>
       </c>
       <c r="J1894">
         <v>0.9429408350025867</v>
       </c>
       <c r="K1894">
-        <v>20.8</v>
+        <v>20.65</v>
       </c>
       <c r="L1894">
-        <v>19.76</v>
+        <v>19.58</v>
       </c>
       <c r="M1894">
         <v>19.2</v>
@@ -96543,13 +96540,13 @@
     </row>
     <row r="1895" spans="1:16">
       <c r="A1895" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1895" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C1895">
-        <v>0.108271757196583</v>
+        <v>-0.2531693680538041</v>
       </c>
       <c r="D1895" t="s">
         <v>383</v>
@@ -96561,22 +96558,22 @@
         <v>1</v>
       </c>
       <c r="G1895">
-        <v>0.03905172824280342</v>
+        <v>0.0389731693680538</v>
       </c>
       <c r="H1895">
         <v>0.03734446403204966</v>
       </c>
       <c r="I1895">
-        <v>1.027264210753749</v>
+        <v>1.388705336004136</v>
       </c>
       <c r="J1895">
         <v>0.9429408350025867</v>
       </c>
       <c r="K1895">
-        <v>20.65</v>
+        <v>20.8</v>
       </c>
       <c r="L1895">
-        <v>19.58</v>
+        <v>19.36</v>
       </c>
       <c r="M1895">
         <v>19.2</v>
@@ -96593,46 +96590,46 @@
     </row>
     <row r="1896" spans="1:16">
       <c r="A1896" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1896" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C1896">
-        <v>-0.2531693680538041</v>
+        <v>1.847182138957059</v>
       </c>
       <c r="D1896" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E1896">
-        <v>1.135535967950332</v>
+        <v>0.7571235544552479</v>
       </c>
       <c r="F1896">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1896">
-        <v>0.0389731693680538</v>
+        <v>0.03315281786104294</v>
       </c>
       <c r="H1896">
-        <v>0.03734446403204966</v>
+        <v>0.03338287644554475</v>
       </c>
       <c r="I1896">
-        <v>1.388705336004136</v>
+        <v>1.090058584501811</v>
       </c>
       <c r="J1896">
         <v>0.9429408350025867</v>
       </c>
       <c r="K1896">
-        <v>20.8</v>
+        <v>16.6</v>
       </c>
       <c r="L1896">
-        <v>19.36</v>
+        <v>17.5</v>
       </c>
       <c r="M1896">
-        <v>19.2</v>
+        <v>17.3</v>
       </c>
       <c r="N1896">
-        <v>19.24</v>
+        <v>17.07</v>
       </c>
       <c r="O1896">
         <v>1</v>
@@ -96643,46 +96640,46 @@
     </row>
     <row r="1897" spans="1:16">
       <c r="A1897" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1897" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="C1897">
-        <v>1.847182138957059</v>
+        <v>1.665229006558508</v>
       </c>
       <c r="D1897" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E1897">
-        <v>0.7571235544552479</v>
+        <v>1.305441071756233</v>
       </c>
       <c r="F1897">
         <v>-1</v>
       </c>
       <c r="G1897">
-        <v>0.03315281786104294</v>
+        <v>0.03191477099344149</v>
       </c>
       <c r="H1897">
-        <v>0.03338287644554475</v>
+        <v>0.03321455892824377</v>
       </c>
       <c r="I1897">
-        <v>1.090058584501811</v>
+        <v>0.3597879348022754</v>
       </c>
       <c r="J1897">
         <v>0.9429408350025867</v>
       </c>
       <c r="K1897">
-        <v>16.6</v>
+        <v>16.04</v>
       </c>
       <c r="L1897">
-        <v>17.5</v>
+        <v>16.79</v>
       </c>
       <c r="M1897">
-        <v>17.3</v>
+        <v>16.92</v>
       </c>
       <c r="N1897">
-        <v>17.07</v>
+        <v>17.26</v>
       </c>
       <c r="O1897">
         <v>1</v>
@@ -96693,63 +96690,63 @@
     </row>
     <row r="1898" spans="1:16">
       <c r="A1898" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1898" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="C1898">
-        <v>1.665229006558508</v>
+        <v>1.642678160331277</v>
       </c>
       <c r="D1898" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="E1898">
-        <v>1.488052672557471</v>
+        <v>0.6158403005053366</v>
       </c>
       <c r="F1898">
         <v>-1</v>
       </c>
       <c r="G1898">
-        <v>0.03191477099344149</v>
+        <v>0.03173732183966872</v>
       </c>
       <c r="H1898">
-        <v>0.03249194732744252</v>
+        <v>0.03044415969949466</v>
       </c>
       <c r="I1898">
-        <v>0.1771763340010377</v>
+        <v>1.026837859825941</v>
       </c>
       <c r="J1898">
-        <v>0.9429408350025867</v>
+        <v>0.951158144100425</v>
       </c>
       <c r="K1898">
-        <v>16.04</v>
+        <v>15.82</v>
       </c>
       <c r="L1898">
-        <v>16.79</v>
+        <v>16.69</v>
       </c>
       <c r="M1898">
-        <v>16.44</v>
+        <v>15.68</v>
       </c>
       <c r="N1898">
-        <v>16.99</v>
+        <v>15.53</v>
       </c>
       <c r="O1898">
         <v>1</v>
       </c>
       <c r="P1898" t="s">
-        <v>471</v>
+        <v>380</v>
       </c>
     </row>
     <row r="1899" spans="1:16">
       <c r="A1899" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1899" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C1899">
-        <v>1.642678160331277</v>
+        <v>1.531983273871019</v>
       </c>
       <c r="D1899" t="s">
         <v>375</v>
@@ -96761,22 +96758,22 @@
         <v>-1</v>
       </c>
       <c r="G1899">
-        <v>0.03173732183966872</v>
+        <v>0.03276801672612898</v>
       </c>
       <c r="H1899">
         <v>0.03044415969949466</v>
       </c>
       <c r="I1899">
-        <v>1.026837859825941</v>
+        <v>0.9161429733656821</v>
       </c>
       <c r="J1899">
         <v>0.951158144100425</v>
       </c>
       <c r="K1899">
-        <v>15.82</v>
+        <v>16.42</v>
       </c>
       <c r="L1899">
-        <v>16.69</v>
+        <v>17.15</v>
       </c>
       <c r="M1899">
         <v>15.68</v>
@@ -96793,13 +96790,13 @@
     </row>
     <row r="1900" spans="1:16">
       <c r="A1900" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1900" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="C1900">
-        <v>1.531983273871019</v>
+        <v>1.549747648977302</v>
       </c>
       <c r="D1900" t="s">
         <v>375</v>
@@ -96811,22 +96808,22 @@
         <v>-1</v>
       </c>
       <c r="G1900">
-        <v>0.03276801672612898</v>
+        <v>0.0315302523510227</v>
       </c>
       <c r="H1900">
         <v>0.03044415969949466</v>
       </c>
       <c r="I1900">
-        <v>0.9161429733656821</v>
+        <v>0.9339073484719655</v>
       </c>
       <c r="J1900">
         <v>0.951158144100425</v>
       </c>
       <c r="K1900">
-        <v>16.42</v>
+        <v>15.76</v>
       </c>
       <c r="L1900">
-        <v>17.15</v>
+        <v>16.54</v>
       </c>
       <c r="M1900">
         <v>15.68</v>
@@ -96843,13 +96840,13 @@
     </row>
     <row r="1901" spans="1:16">
       <c r="A1901" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1901" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C1901">
-        <v>1.549747648977302</v>
+        <v>1.52825723238149</v>
       </c>
       <c r="D1901" t="s">
         <v>375</v>
@@ -96861,22 +96858,22 @@
         <v>-1</v>
       </c>
       <c r="G1901">
-        <v>0.0315302523510227</v>
+        <v>0.03067174276761851</v>
       </c>
       <c r="H1901">
         <v>0.03044415969949466</v>
       </c>
       <c r="I1901">
-        <v>0.9339073484719655</v>
+        <v>0.9124169318761535</v>
       </c>
       <c r="J1901">
         <v>0.951158144100425</v>
       </c>
       <c r="K1901">
-        <v>15.76</v>
+        <v>15.32</v>
       </c>
       <c r="L1901">
-        <v>16.54</v>
+        <v>16.1</v>
       </c>
       <c r="M1901">
         <v>15.68</v>
@@ -96893,13 +96890,13 @@
     </row>
     <row r="1902" spans="1:16">
       <c r="A1902" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1902" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C1902">
-        <v>1.52825723238149</v>
+        <v>1.713604675611617</v>
       </c>
       <c r="D1902" t="s">
         <v>375</v>
@@ -96911,22 +96908,22 @@
         <v>-1</v>
       </c>
       <c r="G1902">
-        <v>0.03067174276761851</v>
+        <v>0.03028639532438838</v>
       </c>
       <c r="H1902">
         <v>0.03044415969949466</v>
       </c>
       <c r="I1902">
-        <v>0.9124169318761535</v>
+        <v>1.09776437510628</v>
       </c>
       <c r="J1902">
         <v>0.951158144100425</v>
       </c>
       <c r="K1902">
-        <v>15.32</v>
+        <v>15.02</v>
       </c>
       <c r="L1902">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="M1902">
         <v>15.68</v>
@@ -96943,13 +96940,13 @@
     </row>
     <row r="1903" spans="1:16">
       <c r="A1903" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1903" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C1903">
-        <v>1.713604675611617</v>
+        <v>1.646071929325421</v>
       </c>
       <c r="D1903" t="s">
         <v>375</v>
@@ -96961,22 +96958,22 @@
         <v>-1</v>
       </c>
       <c r="G1903">
-        <v>0.03028639532438838</v>
+        <v>0.03109392807067458</v>
       </c>
       <c r="H1903">
         <v>0.03044415969949466</v>
       </c>
       <c r="I1903">
-        <v>1.09776437510628</v>
+        <v>1.030231628820085</v>
       </c>
       <c r="J1903">
         <v>0.951158144100425</v>
       </c>
       <c r="K1903">
-        <v>15.02</v>
+        <v>15.48</v>
       </c>
       <c r="L1903">
-        <v>16</v>
+        <v>16.37</v>
       </c>
       <c r="M1903">
         <v>15.68</v>
@@ -96993,46 +96990,46 @@
     </row>
     <row r="1904" spans="1:16">
       <c r="A1904" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1904" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C1904">
-        <v>1.646071929325421</v>
+        <v>-0.6415214998997314</v>
       </c>
       <c r="D1904" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="E1904">
-        <v>0.6158403005053366</v>
+        <v>1.239868273020779</v>
       </c>
       <c r="F1904">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1904">
-        <v>0.03109392807067458</v>
+        <v>0.04292152149989974</v>
       </c>
       <c r="H1904">
-        <v>0.03044415969949466</v>
+        <v>0.04252013172697922</v>
       </c>
       <c r="I1904">
-        <v>1.030231628820085</v>
+        <v>1.88138977292051</v>
       </c>
       <c r="J1904">
         <v>0.951158144100425</v>
       </c>
       <c r="K1904">
-        <v>15.48</v>
+        <v>22.9</v>
       </c>
       <c r="L1904">
-        <v>16.37</v>
+        <v>21.14</v>
       </c>
       <c r="M1904">
-        <v>15.68</v>
+        <v>21.7</v>
       </c>
       <c r="N1904">
-        <v>15.53</v>
+        <v>21.88</v>
       </c>
       <c r="O1904">
         <v>1</v>
@@ -97043,46 +97040,46 @@
     </row>
     <row r="1905" spans="1:16">
       <c r="A1905" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1905" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C1905">
-        <v>-0.6415214998997314</v>
+        <v>1.833720119104438</v>
       </c>
       <c r="D1905" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="E1905">
-        <v>1.239868273020779</v>
+        <v>0.4815096551295426</v>
       </c>
       <c r="F1905">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1905">
-        <v>0.04292152149989974</v>
+        <v>0.04910627988089556</v>
       </c>
       <c r="H1905">
-        <v>0.04252013172697922</v>
+        <v>0.04727849034487046</v>
       </c>
       <c r="I1905">
-        <v>1.88138977292051</v>
+        <v>1.352210463974895</v>
       </c>
       <c r="J1905">
         <v>0.951158144100425</v>
       </c>
       <c r="K1905">
-        <v>22.9</v>
+        <v>24.85</v>
       </c>
       <c r="L1905">
-        <v>21.14</v>
+        <v>25.47</v>
       </c>
       <c r="M1905">
-        <v>21.7</v>
+        <v>24.6</v>
       </c>
       <c r="N1905">
-        <v>21.88</v>
+        <v>23.88</v>
       </c>
       <c r="O1905">
         <v>1</v>
@@ -97093,46 +97090,46 @@
     </row>
     <row r="1906" spans="1:16">
       <c r="A1906" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1906" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C1906">
-        <v>1.833720119104438</v>
+        <v>-0.02408939728884008</v>
       </c>
       <c r="D1906" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E1906">
-        <v>0.4815096551295426</v>
+        <v>0.977763633271838</v>
       </c>
       <c r="F1906">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1906">
-        <v>0.04910627988089556</v>
+        <v>0.03954408939728885</v>
       </c>
       <c r="H1906">
-        <v>0.04727849034487046</v>
+        <v>0.03750223636672816</v>
       </c>
       <c r="I1906">
-        <v>1.352210463974895</v>
+        <v>1.001853030560678</v>
       </c>
       <c r="J1906">
         <v>0.951158144100425</v>
       </c>
       <c r="K1906">
-        <v>24.85</v>
+        <v>20.8</v>
       </c>
       <c r="L1906">
-        <v>25.47</v>
+        <v>19.76</v>
       </c>
       <c r="M1906">
-        <v>24.6</v>
+        <v>19.2</v>
       </c>
       <c r="N1906">
-        <v>23.88</v>
+        <v>19.24</v>
       </c>
       <c r="O1906">
         <v>1</v>
@@ -97143,13 +97140,13 @@
     </row>
     <row r="1907" spans="1:16">
       <c r="A1907" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1907" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C1907">
-        <v>-0.02408939728884008</v>
+        <v>-0.06141567567377493</v>
       </c>
       <c r="D1907" t="s">
         <v>383</v>
@@ -97161,22 +97158,22 @@
         <v>1</v>
       </c>
       <c r="G1907">
-        <v>0.03954408939728885</v>
+        <v>0.03922141567567377</v>
       </c>
       <c r="H1907">
         <v>0.03750223636672816</v>
       </c>
       <c r="I1907">
-        <v>1.001853030560678</v>
+        <v>1.039179308945613</v>
       </c>
       <c r="J1907">
         <v>0.951158144100425</v>
       </c>
       <c r="K1907">
-        <v>20.8</v>
+        <v>20.65</v>
       </c>
       <c r="L1907">
-        <v>19.76</v>
+        <v>19.58</v>
       </c>
       <c r="M1907">
         <v>19.2</v>
@@ -97193,13 +97190,13 @@
     </row>
     <row r="1908" spans="1:16">
       <c r="A1908" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1908" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C1908">
-        <v>-0.06141567567377493</v>
+        <v>-0.4240893972888422</v>
       </c>
       <c r="D1908" t="s">
         <v>383</v>
@@ -97211,22 +97208,22 @@
         <v>1</v>
       </c>
       <c r="G1908">
-        <v>0.03922141567567377</v>
+        <v>0.03914408939728884</v>
       </c>
       <c r="H1908">
         <v>0.03750223636672816</v>
       </c>
       <c r="I1908">
-        <v>1.039179308945613</v>
+        <v>1.40185303056068</v>
       </c>
       <c r="J1908">
         <v>0.951158144100425</v>
       </c>
       <c r="K1908">
-        <v>20.65</v>
+        <v>20.8</v>
       </c>
       <c r="L1908">
-        <v>19.58</v>
+        <v>19.36</v>
       </c>
       <c r="M1908">
         <v>19.2</v>
@@ -97243,46 +97240,46 @@
     </row>
     <row r="1909" spans="1:16">
       <c r="A1909" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1909" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C1909">
-        <v>-0.4240893972888422</v>
+        <v>1.710774807932944</v>
       </c>
       <c r="D1909" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E1909">
-        <v>0.977763633271838</v>
+        <v>0.6149641070626473</v>
       </c>
       <c r="F1909">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1909">
-        <v>0.03914408939728884</v>
+        <v>0.03328922519206706</v>
       </c>
       <c r="H1909">
-        <v>0.03750223636672816</v>
+        <v>0.03352503589293735</v>
       </c>
       <c r="I1909">
-        <v>1.40185303056068</v>
+        <v>1.095810700870297</v>
       </c>
       <c r="J1909">
         <v>0.951158144100425</v>
       </c>
       <c r="K1909">
-        <v>20.8</v>
+        <v>16.6</v>
       </c>
       <c r="L1909">
-        <v>19.36</v>
+        <v>17.5</v>
       </c>
       <c r="M1909">
-        <v>19.2</v>
+        <v>17.3</v>
       </c>
       <c r="N1909">
-        <v>19.24</v>
+        <v>17.07</v>
       </c>
       <c r="O1909">
         <v>1</v>
@@ -97293,46 +97290,46 @@
     </row>
     <row r="1910" spans="1:16">
       <c r="A1910" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1910" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="C1910">
-        <v>1.710774807932944</v>
+        <v>1.533423368629183</v>
       </c>
       <c r="D1910" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E1910">
-        <v>0.6149641070626473</v>
+        <v>1.166404201820811</v>
       </c>
       <c r="F1910">
         <v>-1</v>
       </c>
       <c r="G1910">
-        <v>0.03328922519206706</v>
+        <v>0.03204657663137081</v>
       </c>
       <c r="H1910">
-        <v>0.03352503589293735</v>
+        <v>0.0333535957981792</v>
       </c>
       <c r="I1910">
-        <v>1.095810700870297</v>
+        <v>0.3670191668083724</v>
       </c>
       <c r="J1910">
         <v>0.951158144100425</v>
       </c>
       <c r="K1910">
-        <v>16.6</v>
+        <v>16.04</v>
       </c>
       <c r="L1910">
-        <v>17.5</v>
+        <v>16.79</v>
       </c>
       <c r="M1910">
-        <v>17.3</v>
+        <v>16.92</v>
       </c>
       <c r="N1910">
-        <v>17.07</v>
+        <v>17.26</v>
       </c>
       <c r="O1910">
         <v>1</v>
@@ -97343,96 +97340,96 @@
     </row>
     <row r="1911" spans="1:16">
       <c r="A1911" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1911" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C1911">
-        <v>1.533423368629183</v>
+        <v>2.895910618110747</v>
       </c>
       <c r="D1911" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E1911">
-        <v>1.352960110989011</v>
+        <v>2.300456677341392</v>
       </c>
       <c r="F1911">
         <v>-1</v>
       </c>
       <c r="G1911">
-        <v>0.03204657663137081</v>
+        <v>0.03210408938188925</v>
       </c>
       <c r="H1911">
-        <v>0.03262703988901099</v>
+        <v>0.0325995433226586</v>
       </c>
       <c r="I1911">
-        <v>0.1804632576401719</v>
+        <v>0.5954539407693549</v>
       </c>
       <c r="J1911">
-        <v>0.951158144100425</v>
+        <v>0.879764420595738</v>
       </c>
       <c r="K1911">
-        <v>16.04</v>
+        <v>16.6</v>
       </c>
       <c r="L1911">
-        <v>16.79</v>
+        <v>17.5</v>
       </c>
       <c r="M1911">
-        <v>16.44</v>
+        <v>17.22</v>
       </c>
       <c r="N1911">
-        <v>16.99</v>
+        <v>17.45</v>
       </c>
       <c r="O1911">
         <v>1</v>
       </c>
       <c r="P1911" t="s">
-        <v>380</v>
+        <v>472</v>
       </c>
     </row>
     <row r="1912" spans="1:16">
       <c r="A1912" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1912" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C1912">
-        <v>2.895910618110747</v>
+        <v>2.045002736572032</v>
       </c>
       <c r="D1912" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E1912">
-        <v>2.300456677341392</v>
+        <v>2.57640956146054</v>
       </c>
       <c r="F1912">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1912">
-        <v>0.03210408938188925</v>
+        <v>0.03343499726342797</v>
       </c>
       <c r="H1912">
-        <v>0.0325995433226586</v>
+        <v>0.03252359043853946</v>
       </c>
       <c r="I1912">
-        <v>0.5954539407693549</v>
+        <v>0.5314068248885082</v>
       </c>
       <c r="J1912">
         <v>0.879764420595738</v>
       </c>
       <c r="K1912">
-        <v>16.6</v>
+        <v>17.84</v>
       </c>
       <c r="L1912">
-        <v>17.5</v>
+        <v>17.74</v>
       </c>
       <c r="M1912">
-        <v>17.22</v>
+        <v>17.02</v>
       </c>
       <c r="N1912">
-        <v>17.45</v>
+        <v>17.55</v>
       </c>
       <c r="O1912">
         <v>1</v>
@@ -97443,46 +97440,46 @@
     </row>
     <row r="1913" spans="1:16">
       <c r="A1913" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1913" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C1913">
-        <v>2.045002736572032</v>
+        <v>2.985792828408615</v>
       </c>
       <c r="D1913" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E1913">
-        <v>2.57640956146054</v>
+        <v>2.383242542577136</v>
       </c>
       <c r="F1913">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1913">
-        <v>0.03343499726342797</v>
+        <v>0.03131420717159138</v>
       </c>
       <c r="H1913">
-        <v>0.03252359043853946</v>
+        <v>0.03257675745742287</v>
       </c>
       <c r="I1913">
-        <v>0.5314068248885082</v>
+        <v>0.6025502858314784</v>
       </c>
       <c r="J1913">
         <v>0.879764420595738</v>
       </c>
       <c r="K1913">
-        <v>17.84</v>
+        <v>16.1</v>
       </c>
       <c r="L1913">
-        <v>17.74</v>
+        <v>17.15</v>
       </c>
       <c r="M1913">
-        <v>17.02</v>
+        <v>17.16</v>
       </c>
       <c r="N1913">
-        <v>17.55</v>
+        <v>17.48</v>
       </c>
       <c r="O1913">
         <v>1</v>
@@ -97493,96 +97490,96 @@
     </row>
     <row r="1914" spans="1:16">
       <c r="A1914" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1914" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C1914">
-        <v>2.985792828408615</v>
+        <v>2.930787875067525</v>
       </c>
       <c r="D1914" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E1914">
-        <v>2.383242542577136</v>
+        <v>2.336636578835108</v>
       </c>
       <c r="F1914">
         <v>-1</v>
       </c>
       <c r="G1914">
-        <v>0.03131420717159138</v>
+        <v>0.03206921212493248</v>
       </c>
       <c r="H1914">
-        <v>0.03257675745742287</v>
+        <v>0.03256336342116489</v>
       </c>
       <c r="I1914">
-        <v>0.6025502858314784</v>
+        <v>0.5941512962324165</v>
       </c>
       <c r="J1914">
-        <v>0.879764420595738</v>
+        <v>0.8776633810200286</v>
       </c>
       <c r="K1914">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="L1914">
-        <v>17.15</v>
+        <v>17.5</v>
       </c>
       <c r="M1914">
-        <v>17.16</v>
+        <v>17.22</v>
       </c>
       <c r="N1914">
-        <v>17.48</v>
+        <v>17.45</v>
       </c>
       <c r="O1914">
         <v>1</v>
       </c>
       <c r="P1914" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="1915" spans="1:16">
       <c r="A1915" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1915" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C1915">
-        <v>2.930787875067525</v>
+        <v>2.082485282602688</v>
       </c>
       <c r="D1915" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E1915">
-        <v>2.336636578835108</v>
+        <v>2.612169255039115</v>
       </c>
       <c r="F1915">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1915">
-        <v>0.03206921212493248</v>
+        <v>0.0333975147173973</v>
       </c>
       <c r="H1915">
-        <v>0.03256336342116489</v>
+        <v>0.03248783074496089</v>
       </c>
       <c r="I1915">
-        <v>0.5941512962324165</v>
+        <v>0.5296839724364268</v>
       </c>
       <c r="J1915">
         <v>0.8776633810200286</v>
       </c>
       <c r="K1915">
-        <v>16.6</v>
+        <v>17.84</v>
       </c>
       <c r="L1915">
-        <v>17.5</v>
+        <v>17.74</v>
       </c>
       <c r="M1915">
-        <v>17.22</v>
+        <v>17.02</v>
       </c>
       <c r="N1915">
-        <v>17.45</v>
+        <v>17.55</v>
       </c>
       <c r="O1915">
         <v>1</v>
@@ -97593,46 +97590,46 @@
     </row>
     <row r="1916" spans="1:16">
       <c r="A1916" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1916" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C1916">
-        <v>2.082485282602688</v>
+        <v>3.019619565577537</v>
       </c>
       <c r="D1916" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E1916">
-        <v>2.612169255039115</v>
+        <v>2.419296381696309</v>
       </c>
       <c r="F1916">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1916">
-        <v>0.0333975147173973</v>
+        <v>0.03128038043442246</v>
       </c>
       <c r="H1916">
-        <v>0.03248783074496089</v>
+        <v>0.0325407036183037</v>
       </c>
       <c r="I1916">
-        <v>0.5296839724364268</v>
+        <v>0.600323183881228</v>
       </c>
       <c r="J1916">
         <v>0.8776633810200286</v>
       </c>
       <c r="K1916">
-        <v>17.84</v>
+        <v>16.1</v>
       </c>
       <c r="L1916">
-        <v>17.74</v>
+        <v>17.15</v>
       </c>
       <c r="M1916">
-        <v>17.02</v>
+        <v>17.16</v>
       </c>
       <c r="N1916">
-        <v>17.55</v>
+        <v>17.48</v>
       </c>
       <c r="O1916">
         <v>1</v>
@@ -97643,52 +97640,52 @@
     </row>
     <row r="1917" spans="1:16">
       <c r="A1917" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1917" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="C1917">
-        <v>3.019619565577537</v>
+        <v>2.29339439374928</v>
       </c>
       <c r="D1917" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E1917">
-        <v>2.419296381696309</v>
+        <v>2.813384113319101</v>
       </c>
       <c r="F1917">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1917">
-        <v>0.03128038043442246</v>
+        <v>0.03318660560625072</v>
       </c>
       <c r="H1917">
-        <v>0.0325407036183037</v>
+        <v>0.0322866158866809</v>
       </c>
       <c r="I1917">
-        <v>0.600323183881228</v>
+        <v>0.5199897195698213</v>
       </c>
       <c r="J1917">
-        <v>0.8776633810200286</v>
+        <v>0.8658411214266098</v>
       </c>
       <c r="K1917">
-        <v>16.1</v>
+        <v>17.84</v>
       </c>
       <c r="L1917">
-        <v>17.15</v>
+        <v>17.74</v>
       </c>
       <c r="M1917">
-        <v>17.16</v>
+        <v>17.02</v>
       </c>
       <c r="N1917">
-        <v>17.48</v>
+        <v>17.55</v>
       </c>
       <c r="O1917">
         <v>1</v>
       </c>
       <c r="P1917" t="s">
-        <v>473</v>
+        <v>384</v>
       </c>
     </row>
     <row r="1918" spans="1:16">
@@ -97699,28 +97696,28 @@
         <v>253</v>
       </c>
       <c r="C1918">
-        <v>2.29339439374928</v>
+        <v>2.317276192711919</v>
       </c>
       <c r="D1918" t="s">
         <v>392</v>
       </c>
       <c r="E1918">
-        <v>2.813384113319101</v>
+        <v>2.836168206275611</v>
       </c>
       <c r="F1918">
         <v>1</v>
       </c>
       <c r="G1918">
-        <v>0.03318660560625072</v>
+        <v>0.03316272380728807</v>
       </c>
       <c r="H1918">
-        <v>0.0322866158866809</v>
+        <v>0.03226383179372439</v>
       </c>
       <c r="I1918">
-        <v>0.5199897195698213</v>
+        <v>0.5188920135636916</v>
       </c>
       <c r="J1918">
-        <v>0.8658411214266098</v>
+        <v>0.8645024555654753</v>
       </c>
       <c r="K1918">
         <v>17.84</v>
@@ -97738,7 +97735,7 @@
         <v>1</v>
       </c>
       <c r="P1918" t="s">
-        <v>384</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1919" spans="1:16">
@@ -97746,49 +97743,49 @@
         <v>1</v>
       </c>
       <c r="B1919" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C1919">
-        <v>3.209957945031579</v>
+        <v>2.423648795611323</v>
       </c>
       <c r="D1919" t="s">
-        <v>386</v>
+        <v>252</v>
       </c>
       <c r="E1919">
-        <v>2.622166356319376</v>
+        <v>2.923380612729776</v>
       </c>
       <c r="F1919">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1919">
-        <v>0.03109004205496842</v>
+        <v>0.03143635120438868</v>
       </c>
       <c r="H1919">
-        <v>0.03233783364368063</v>
+        <v>0.03065661938727022</v>
       </c>
       <c r="I1919">
-        <v>0.5877915887122036</v>
+        <v>0.4997318171184535</v>
       </c>
       <c r="J1919">
-        <v>0.8658411214266098</v>
+        <v>0.8645024555654753</v>
       </c>
       <c r="K1919">
-        <v>16.1</v>
+        <v>16.78</v>
       </c>
       <c r="L1919">
-        <v>17.15</v>
+        <v>16.93</v>
       </c>
       <c r="M1919">
-        <v>17.16</v>
+        <v>16.04</v>
       </c>
       <c r="N1919">
-        <v>17.48</v>
+        <v>16.79</v>
       </c>
       <c r="O1919">
         <v>1</v>
       </c>
       <c r="P1919" t="s">
-        <v>384</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1920" spans="1:16">
@@ -97796,37 +97793,37 @@
         <v>0</v>
       </c>
       <c r="B1920" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C1920">
-        <v>2.317276192711919</v>
+        <v>2.489563045038631</v>
       </c>
       <c r="D1920" t="s">
         <v>392</v>
       </c>
       <c r="E1920">
-        <v>2.836168206275611</v>
+        <v>2.867706508707315</v>
       </c>
       <c r="F1920">
         <v>1</v>
       </c>
       <c r="G1920">
-        <v>0.03316272380728807</v>
+        <v>0.03351043695496137</v>
       </c>
       <c r="H1920">
-        <v>0.03226383179372439</v>
+        <v>0.03223229349129269</v>
       </c>
       <c r="I1920">
-        <v>0.5188920135636916</v>
+        <v>0.3781434636686836</v>
       </c>
       <c r="J1920">
-        <v>0.8645024555654753</v>
+        <v>0.8626494413215444</v>
       </c>
       <c r="K1920">
-        <v>17.84</v>
+        <v>17.98</v>
       </c>
       <c r="L1920">
-        <v>17.74</v>
+        <v>18</v>
       </c>
       <c r="M1920">
         <v>17.02</v>
@@ -97838,7 +97835,7 @@
         <v>1</v>
       </c>
       <c r="P1920" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1921" spans="1:16">
@@ -97849,28 +97846,28 @@
         <v>254</v>
       </c>
       <c r="C1921">
-        <v>2.423648795611323</v>
+        <v>2.454742374624484</v>
       </c>
       <c r="D1921" t="s">
         <v>252</v>
       </c>
       <c r="E1921">
-        <v>2.923380612729776</v>
+        <v>2.953102961202427</v>
       </c>
       <c r="F1921">
         <v>1</v>
       </c>
       <c r="G1921">
-        <v>0.03143635120438868</v>
+        <v>0.03140525762537551</v>
       </c>
       <c r="H1921">
-        <v>0.03065661938727022</v>
+        <v>0.03062689703879757</v>
       </c>
       <c r="I1921">
-        <v>0.4997318171184535</v>
+        <v>0.4983605865779435</v>
       </c>
       <c r="J1921">
-        <v>0.8645024555654753</v>
+        <v>0.8626494413215444</v>
       </c>
       <c r="K1921">
         <v>16.78</v>
@@ -97888,7 +97885,7 @@
         <v>1</v>
       </c>
       <c r="P1921" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="1922" spans="1:16">
@@ -97899,28 +97896,28 @@
         <v>255</v>
       </c>
       <c r="C1922">
-        <v>2.489563045038631</v>
+        <v>2.532435106884185</v>
       </c>
       <c r="D1922" t="s">
         <v>392</v>
       </c>
       <c r="E1922">
-        <v>2.867706508707315</v>
+        <v>2.908289517195152</v>
       </c>
       <c r="F1922">
         <v>1</v>
       </c>
       <c r="G1922">
-        <v>0.03351043695496137</v>
+        <v>0.03346756489311582</v>
       </c>
       <c r="H1922">
-        <v>0.03223229349129269</v>
+        <v>0.03219171048280485</v>
       </c>
       <c r="I1922">
-        <v>0.3781434636686836</v>
+        <v>0.3758544103109678</v>
       </c>
       <c r="J1922">
-        <v>0.8626494413215444</v>
+        <v>0.8602650107405904</v>
       </c>
       <c r="K1922">
         <v>17.98</v>
@@ -97938,57 +97935,57 @@
         <v>1</v>
       </c>
       <c r="P1922" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1923" spans="1:16">
       <c r="A1923" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1923" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C1923">
-        <v>2.454742374624484</v>
+        <v>2.571187348615313</v>
       </c>
       <c r="D1923" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E1923">
-        <v>2.953102961202427</v>
+        <v>2.431322708525983</v>
       </c>
       <c r="F1923">
         <v>1</v>
       </c>
       <c r="G1923">
-        <v>0.03140525762537551</v>
+        <v>0.03342881265138469</v>
       </c>
       <c r="H1923">
-        <v>0.03062689703879757</v>
+        <v>0.03304867729147402</v>
       </c>
       <c r="I1923">
-        <v>0.4983605865779435</v>
+        <v>-0.1398646400893302</v>
       </c>
       <c r="J1923">
-        <v>0.8626494413215444</v>
+        <v>0.8581097136476467</v>
       </c>
       <c r="K1923">
-        <v>16.78</v>
+        <v>17.98</v>
       </c>
       <c r="L1923">
-        <v>16.93</v>
+        <v>18</v>
       </c>
       <c r="M1923">
-        <v>16.04</v>
+        <v>17.84</v>
       </c>
       <c r="N1923">
-        <v>16.79</v>
+        <v>17.74</v>
       </c>
       <c r="O1923">
         <v>1</v>
       </c>
       <c r="P1923" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="1924" spans="1:16">
@@ -97999,28 +97996,28 @@
         <v>255</v>
       </c>
       <c r="C1924">
-        <v>2.532435106884185</v>
+        <v>2.606587905471129</v>
       </c>
       <c r="D1924" t="s">
-        <v>392</v>
+        <v>253</v>
       </c>
       <c r="E1924">
-        <v>2.908289517195152</v>
+        <v>2.466447621446326</v>
       </c>
       <c r="F1924">
         <v>1</v>
       </c>
       <c r="G1924">
-        <v>0.03346756489311582</v>
+        <v>0.03339341209452887</v>
       </c>
       <c r="H1924">
-        <v>0.03219171048280485</v>
+        <v>0.03301355237855367</v>
       </c>
       <c r="I1924">
-        <v>0.3758544103109678</v>
+        <v>-0.1401402840248025</v>
       </c>
       <c r="J1924">
-        <v>0.8602650107405904</v>
+        <v>0.8561408283942642</v>
       </c>
       <c r="K1924">
         <v>17.98</v>
@@ -98029,16 +98026,16 @@
         <v>18</v>
       </c>
       <c r="M1924">
-        <v>17.02</v>
+        <v>17.84</v>
       </c>
       <c r="N1924">
-        <v>17.55</v>
+        <v>17.74</v>
       </c>
       <c r="O1924">
         <v>1</v>
       </c>
       <c r="P1924" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="1925" spans="1:16">
@@ -98049,28 +98046,28 @@
         <v>255</v>
       </c>
       <c r="C1925">
-        <v>2.571187348615313</v>
+        <v>2.643647492073137</v>
       </c>
       <c r="D1925" t="s">
         <v>253</v>
       </c>
       <c r="E1925">
-        <v>2.431322708525983</v>
+        <v>2.503218646194926</v>
       </c>
       <c r="F1925">
         <v>1</v>
       </c>
       <c r="G1925">
-        <v>0.03342881265138469</v>
+        <v>0.03335635250792687</v>
       </c>
       <c r="H1925">
-        <v>0.03304867729147402</v>
+        <v>0.03297678135380507</v>
       </c>
       <c r="I1925">
-        <v>-0.1398646400893302</v>
+        <v>-0.1404288458782119</v>
       </c>
       <c r="J1925">
-        <v>0.8581097136476467</v>
+        <v>0.8540796722984907</v>
       </c>
       <c r="K1925">
         <v>17.98</v>
@@ -98088,7 +98085,7 @@
         <v>1</v>
       </c>
       <c r="P1925" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1926" spans="1:16">
@@ -98099,28 +98096,28 @@
         <v>255</v>
       </c>
       <c r="C1926">
-        <v>2.606587905471129</v>
+        <v>2.675699438811932</v>
       </c>
       <c r="D1926" t="s">
         <v>253</v>
       </c>
       <c r="E1926">
-        <v>2.466447621446326</v>
+        <v>2.535021022714396</v>
       </c>
       <c r="F1926">
         <v>1</v>
       </c>
       <c r="G1926">
-        <v>0.03339341209452887</v>
+        <v>0.03332430056118807</v>
       </c>
       <c r="H1926">
-        <v>0.03301355237855367</v>
+        <v>0.0329449789772856</v>
       </c>
       <c r="I1926">
-        <v>-0.1401402840248025</v>
+        <v>-0.1406784160975363</v>
       </c>
       <c r="J1926">
-        <v>0.8561408283942642</v>
+        <v>0.8522970278747535</v>
       </c>
       <c r="K1926">
         <v>17.98</v>
@@ -98138,57 +98135,57 @@
         <v>1</v>
       </c>
       <c r="P1926" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1927" spans="1:16">
       <c r="A1927" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1927" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C1927">
-        <v>2.643647492073137</v>
+        <v>3.312109732331461</v>
       </c>
       <c r="D1927" t="s">
-        <v>253</v>
+        <v>386</v>
       </c>
       <c r="E1927">
-        <v>2.503218646194926</v>
+        <v>2.85458300166923</v>
       </c>
       <c r="F1927">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1927">
-        <v>0.03335635250792687</v>
+        <v>0.03068789026766854</v>
       </c>
       <c r="H1927">
-        <v>0.03297678135380507</v>
+        <v>0.03210541699833077</v>
       </c>
       <c r="I1927">
-        <v>-0.1404288458782119</v>
+        <v>0.4575267306622308</v>
       </c>
       <c r="J1927">
-        <v>0.8540796722984907</v>
+        <v>0.8522970278747535</v>
       </c>
       <c r="K1927">
-        <v>17.98</v>
+        <v>16.06</v>
       </c>
       <c r="L1927">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M1927">
-        <v>17.84</v>
+        <v>17.16</v>
       </c>
       <c r="N1927">
-        <v>17.74</v>
+        <v>17.48</v>
       </c>
       <c r="O1927">
         <v>1</v>
       </c>
       <c r="P1927" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1928" spans="1:16">
@@ -98196,81 +98193,81 @@
         <v>0</v>
       </c>
       <c r="B1928" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1928">
+        <v>3.321772389625004</v>
+      </c>
+      <c r="D1928" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1928">
+        <v>2.864907484804798</v>
+      </c>
+      <c r="F1928">
+        <v>-1</v>
+      </c>
+      <c r="G1928">
+        <v>0.030678227610375</v>
+      </c>
+      <c r="H1928">
+        <v>0.0320950925151952</v>
+      </c>
+      <c r="I1928">
+        <v>0.4568649048202058</v>
+      </c>
+      <c r="J1928">
+        <v>0.8516953680183684</v>
+      </c>
+      <c r="K1928">
+        <v>16.06</v>
+      </c>
+      <c r="L1928">
+        <v>17</v>
+      </c>
+      <c r="M1928">
+        <v>17.16</v>
+      </c>
+      <c r="N1928">
+        <v>17.48</v>
+      </c>
+      <c r="O1928">
+        <v>1</v>
+      </c>
+      <c r="P1928" t="s">
         <v>255</v>
-      </c>
-      <c r="C1928">
-        <v>2.675699438811932</v>
-      </c>
-      <c r="D1928" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1928">
-        <v>2.535021022714396</v>
-      </c>
-      <c r="F1928">
-        <v>1</v>
-      </c>
-      <c r="G1928">
-        <v>0.03332430056118807</v>
-      </c>
-      <c r="H1928">
-        <v>0.0329449789772856</v>
-      </c>
-      <c r="I1928">
-        <v>-0.1406784160975363</v>
-      </c>
-      <c r="J1928">
-        <v>0.8522970278747535</v>
-      </c>
-      <c r="K1928">
-        <v>17.98</v>
-      </c>
-      <c r="L1928">
-        <v>18</v>
-      </c>
-      <c r="M1928">
-        <v>17.84</v>
-      </c>
-      <c r="N1928">
-        <v>17.74</v>
-      </c>
-      <c r="O1928">
-        <v>1</v>
-      </c>
-      <c r="P1928" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="1929" spans="1:16">
       <c r="A1929" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1929" t="s">
         <v>245</v>
       </c>
       <c r="C1929">
-        <v>3.312109732331461</v>
+        <v>3.32892643904218</v>
       </c>
       <c r="D1929" t="s">
         <v>386</v>
       </c>
       <c r="E1929">
-        <v>2.85458300166923</v>
+        <v>2.872551537606713</v>
       </c>
       <c r="F1929">
         <v>-1</v>
       </c>
       <c r="G1929">
-        <v>0.03068789026766854</v>
+        <v>0.03067107356095782</v>
       </c>
       <c r="H1929">
-        <v>0.03210541699833077</v>
+        <v>0.03208744846239329</v>
       </c>
       <c r="I1929">
-        <v>0.4575267306622308</v>
+        <v>0.456374901435467</v>
       </c>
       <c r="J1929">
-        <v>0.8522970278747535</v>
+        <v>0.8512499103958793</v>
       </c>
       <c r="K1929">
         <v>16.06</v>
@@ -98288,7 +98285,7 @@
         <v>1</v>
       </c>
       <c r="P1929" t="s">
-        <v>480</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1930" spans="1:16">
@@ -98299,28 +98296,28 @@
         <v>245</v>
       </c>
       <c r="C1930">
-        <v>3.321772389625004</v>
+        <v>3.337811361606265</v>
       </c>
       <c r="D1930" t="s">
         <v>386</v>
       </c>
       <c r="E1930">
-        <v>2.864907484804798</v>
+        <v>2.882045016510801</v>
       </c>
       <c r="F1930">
         <v>-1</v>
       </c>
       <c r="G1930">
-        <v>0.030678227610375</v>
+        <v>0.03066218863839374</v>
       </c>
       <c r="H1930">
-        <v>0.0320950925151952</v>
+        <v>0.0320779549834892</v>
       </c>
       <c r="I1930">
-        <v>0.4568649048202058</v>
+        <v>0.4557663450954639</v>
       </c>
       <c r="J1930">
-        <v>0.8516953680183684</v>
+        <v>0.8506966773595104</v>
       </c>
       <c r="K1930">
         <v>16.06</v>
@@ -98338,7 +98335,7 @@
         <v>1</v>
       </c>
       <c r="P1930" t="s">
-        <v>255</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1931" spans="1:16">
@@ -98349,28 +98346,28 @@
         <v>245</v>
       </c>
       <c r="C1931">
-        <v>3.32892643904218</v>
+        <v>3.355845109295386</v>
       </c>
       <c r="D1931" t="s">
         <v>386</v>
       </c>
       <c r="E1931">
-        <v>2.872551537606713</v>
+        <v>2.901313952397809</v>
       </c>
       <c r="F1931">
         <v>-1</v>
       </c>
       <c r="G1931">
-        <v>0.03067107356095782</v>
+        <v>0.03064415489070461</v>
       </c>
       <c r="H1931">
-        <v>0.03208744846239329</v>
+        <v>0.0320586860476022</v>
       </c>
       <c r="I1931">
-        <v>0.456374901435467</v>
+        <v>0.4545311568975769</v>
       </c>
       <c r="J1931">
-        <v>0.8512499103958793</v>
+        <v>0.8495737789977967</v>
       </c>
       <c r="K1931">
         <v>16.06</v>
@@ -98388,7 +98385,7 @@
         <v>1</v>
       </c>
       <c r="P1931" t="s">
-        <v>253</v>
+        <v>392</v>
       </c>
     </row>
     <row r="1932" spans="1:16">
@@ -98399,28 +98396,28 @@
         <v>245</v>
       </c>
       <c r="C1932">
-        <v>3.337811361606265</v>
+        <v>3.378770661552498</v>
       </c>
       <c r="D1932" t="s">
         <v>386</v>
       </c>
       <c r="E1932">
-        <v>2.882045016510801</v>
+        <v>2.925809747960201</v>
       </c>
       <c r="F1932">
         <v>-1</v>
       </c>
       <c r="G1932">
-        <v>0.03066218863839374</v>
+        <v>0.0306212293384475</v>
       </c>
       <c r="H1932">
-        <v>0.0320779549834892</v>
+        <v>0.0320341902520398</v>
       </c>
       <c r="I1932">
-        <v>0.4557663450954639</v>
+        <v>0.4529609135922961</v>
       </c>
       <c r="J1932">
-        <v>0.8506966773595104</v>
+        <v>0.8481462850839043</v>
       </c>
       <c r="K1932">
         <v>16.06</v>
@@ -98438,7 +98435,7 @@
         <v>1</v>
       </c>
       <c r="P1932" t="s">
-        <v>481</v>
+        <v>236</v>
       </c>
     </row>
     <row r="1933" spans="1:16">
@@ -98449,28 +98446,28 @@
         <v>245</v>
       </c>
       <c r="C1933">
-        <v>3.355845109295386</v>
+        <v>3.405875950480503</v>
       </c>
       <c r="D1933" t="s">
         <v>386</v>
       </c>
       <c r="E1933">
-        <v>2.901313952397809</v>
+        <v>2.954771563527112</v>
       </c>
       <c r="F1933">
         <v>-1</v>
       </c>
       <c r="G1933">
-        <v>0.03064415489070461</v>
+        <v>0.0305941240495195</v>
       </c>
       <c r="H1933">
-        <v>0.0320586860476022</v>
+        <v>0.03200522843647289</v>
       </c>
       <c r="I1933">
-        <v>0.4545311568975769</v>
+        <v>0.4511043869533911</v>
       </c>
       <c r="J1933">
-        <v>0.8495737789977967</v>
+        <v>0.8464585335939911</v>
       </c>
       <c r="K1933">
         <v>16.06</v>
@@ -98488,7 +98485,7 @@
         <v>1</v>
       </c>
       <c r="P1933" t="s">
-        <v>392</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1934" spans="1:16">
@@ -98499,28 +98496,28 @@
         <v>245</v>
       </c>
       <c r="C1934">
-        <v>3.378770661552498</v>
+        <v>3.425749785398612</v>
       </c>
       <c r="D1934" t="s">
         <v>386</v>
       </c>
       <c r="E1934">
-        <v>2.925809747960201</v>
+        <v>2.976006620014953</v>
       </c>
       <c r="F1934">
         <v>-1</v>
       </c>
       <c r="G1934">
-        <v>0.0306212293384475</v>
+        <v>0.03057425021460139</v>
       </c>
       <c r="H1934">
-        <v>0.0320341902520398</v>
+        <v>0.03198399337998505</v>
       </c>
       <c r="I1934">
-        <v>0.4529609135922961</v>
+        <v>0.4497431653836585</v>
       </c>
       <c r="J1934">
-        <v>0.8481462850839043</v>
+        <v>0.8452210594396881</v>
       </c>
       <c r="K1934">
         <v>16.06</v>
@@ -98538,7 +98535,7 @@
         <v>1</v>
       </c>
       <c r="P1934" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="1935" spans="1:16">
@@ -98549,28 +98546,28 @@
         <v>245</v>
       </c>
       <c r="C1935">
-        <v>3.405875950480503</v>
+        <v>3.457779672958759</v>
       </c>
       <c r="D1935" t="s">
         <v>386</v>
       </c>
       <c r="E1935">
-        <v>2.954771563527112</v>
+        <v>3.01023033549018</v>
       </c>
       <c r="F1935">
         <v>-1</v>
       </c>
       <c r="G1935">
-        <v>0.0305941240495195</v>
+        <v>0.03054222032704124</v>
       </c>
       <c r="H1935">
-        <v>0.03200522843647289</v>
+        <v>0.03194976966450983</v>
       </c>
       <c r="I1935">
-        <v>0.4511043869533911</v>
+        <v>0.4475493374685797</v>
       </c>
       <c r="J1935">
-        <v>0.8464585335939911</v>
+        <v>0.8432266704259802</v>
       </c>
       <c r="K1935">
         <v>16.06</v>
@@ -98588,7 +98585,7 @@
         <v>1</v>
       </c>
       <c r="P1935" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="1936" spans="1:16">
@@ -98599,28 +98596,28 @@
         <v>245</v>
       </c>
       <c r="C1936">
-        <v>3.425749785398612</v>
+        <v>3.487782368081334</v>
       </c>
       <c r="D1936" t="s">
         <v>386</v>
       </c>
       <c r="E1936">
-        <v>2.976006620014953</v>
+        <v>3.042288009730738</v>
       </c>
       <c r="F1936">
         <v>-1</v>
       </c>
       <c r="G1936">
-        <v>0.03057425021460139</v>
+        <v>0.03051221763191867</v>
       </c>
       <c r="H1936">
-        <v>0.03198399337998505</v>
+        <v>0.03191771199026926</v>
       </c>
       <c r="I1936">
-        <v>0.4497431653836585</v>
+        <v>0.4454943583505955</v>
       </c>
       <c r="J1936">
-        <v>0.8452210594396881</v>
+        <v>0.8413585075914488</v>
       </c>
       <c r="K1936">
         <v>16.06</v>
@@ -98638,7 +98635,7 @@
         <v>1</v>
       </c>
       <c r="P1936" t="s">
-        <v>237</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1937" spans="1:16">
@@ -98649,28 +98646,28 @@
         <v>245</v>
       </c>
       <c r="C1937">
-        <v>3.457779672958759</v>
+        <v>3.518018180634598</v>
       </c>
       <c r="D1937" t="s">
         <v>386</v>
       </c>
       <c r="E1937">
-        <v>3.01023033549018</v>
+        <v>3.074594768349296</v>
       </c>
       <c r="F1937">
         <v>-1</v>
       </c>
       <c r="G1937">
-        <v>0.03054222032704124</v>
+        <v>0.0304819818193654</v>
       </c>
       <c r="H1937">
-        <v>0.03194976966450983</v>
+        <v>0.0318854052316507</v>
       </c>
       <c r="I1937">
-        <v>0.4475493374685797</v>
+        <v>0.443423412285302</v>
       </c>
       <c r="J1937">
-        <v>0.8432266704259802</v>
+        <v>0.8394758293502741</v>
       </c>
       <c r="K1937">
         <v>16.06</v>
@@ -98688,7 +98685,7 @@
         <v>1</v>
       </c>
       <c r="P1937" t="s">
-        <v>483</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1938" spans="1:16">
@@ -98699,28 +98696,28 @@
         <v>245</v>
       </c>
       <c r="C1938">
-        <v>3.487782368081334</v>
+        <v>3.538742775840452</v>
       </c>
       <c r="D1938" t="s">
         <v>386</v>
       </c>
       <c r="E1938">
-        <v>3.042288009730738</v>
+        <v>3.096738856377469</v>
       </c>
       <c r="F1938">
         <v>-1</v>
       </c>
       <c r="G1938">
-        <v>0.03051221763191867</v>
+        <v>0.03046125722415955</v>
       </c>
       <c r="H1938">
-        <v>0.03191771199026926</v>
+        <v>0.03186326114362253</v>
       </c>
       <c r="I1938">
-        <v>0.4454943583505955</v>
+        <v>0.4420039194629837</v>
       </c>
       <c r="J1938">
-        <v>0.8413585075914488</v>
+        <v>0.8381853813299843</v>
       </c>
       <c r="K1938">
         <v>16.06</v>
@@ -98738,57 +98735,57 @@
         <v>1</v>
       </c>
       <c r="P1938" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1939" spans="1:16">
       <c r="A1939" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1939" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C1939">
-        <v>3.518018180634598</v>
+        <v>3.116122669922261</v>
       </c>
       <c r="D1939" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E1939">
-        <v>3.074594768349296</v>
+        <v>3.077903347896665</v>
       </c>
       <c r="F1939">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1939">
-        <v>0.0304819818193654</v>
+        <v>0.03094387733007774</v>
       </c>
       <c r="H1939">
-        <v>0.0318854052316507</v>
+        <v>0.03144209665210334</v>
       </c>
       <c r="I1939">
-        <v>0.443423412285302</v>
+        <v>-0.0382193220255953</v>
       </c>
       <c r="J1939">
-        <v>0.8394758293502741</v>
+        <v>0.8381853813299843</v>
       </c>
       <c r="K1939">
-        <v>16.06</v>
+        <v>16.6</v>
       </c>
       <c r="L1939">
-        <v>17</v>
+        <v>17.03</v>
       </c>
       <c r="M1939">
-        <v>17.16</v>
+        <v>16.92</v>
       </c>
       <c r="N1939">
-        <v>17.48</v>
+        <v>17.26</v>
       </c>
       <c r="O1939">
         <v>1</v>
       </c>
       <c r="P1939" t="s">
-        <v>254</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1940" spans="1:16">
@@ -98799,28 +98796,28 @@
         <v>245</v>
       </c>
       <c r="C1940">
-        <v>3.538742775840452</v>
+        <v>3.566106779784686</v>
       </c>
       <c r="D1940" t="s">
         <v>386</v>
       </c>
       <c r="E1940">
-        <v>3.096738856377469</v>
+        <v>3.125977107167197</v>
       </c>
       <c r="F1940">
         <v>-1</v>
       </c>
       <c r="G1940">
-        <v>0.03046125722415955</v>
+        <v>0.03043389322021531</v>
       </c>
       <c r="H1940">
-        <v>0.03186326114362253</v>
+        <v>0.0318340228928328</v>
       </c>
       <c r="I1940">
-        <v>0.4420039194629837</v>
+        <v>0.4401296726174895</v>
       </c>
       <c r="J1940">
-        <v>0.8381853813299843</v>
+        <v>0.8364815205613522</v>
       </c>
       <c r="K1940">
         <v>16.06</v>
@@ -98838,7 +98835,7 @@
         <v>1</v>
       </c>
       <c r="P1940" t="s">
-        <v>485</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1941" spans="1:16">
@@ -98849,28 +98846,28 @@
         <v>256</v>
       </c>
       <c r="C1941">
-        <v>3.116122669922261</v>
+        <v>3.144406758681553</v>
       </c>
       <c r="D1941" t="s">
         <v>388</v>
       </c>
       <c r="E1941">
-        <v>3.210232330935055</v>
+        <v>3.106732672101922</v>
       </c>
       <c r="F1941">
         <v>1</v>
       </c>
       <c r="G1941">
-        <v>0.03094387733007774</v>
+        <v>0.03091559324131845</v>
       </c>
       <c r="H1941">
-        <v>0.03076976766906494</v>
+        <v>0.03141326732789809</v>
       </c>
       <c r="I1941">
-        <v>0.09410966101279428</v>
+        <v>-0.03767408657963145</v>
       </c>
       <c r="J1941">
-        <v>0.8381853813299843</v>
+        <v>0.8364815205613522</v>
       </c>
       <c r="K1941">
         <v>16.6</v>
@@ -98879,16 +98876,16 @@
         <v>17.03</v>
       </c>
       <c r="M1941">
-        <v>16.44</v>
+        <v>16.92</v>
       </c>
       <c r="N1941">
-        <v>16.99</v>
+        <v>17.26</v>
       </c>
       <c r="O1941">
         <v>1</v>
       </c>
       <c r="P1941" t="s">
-        <v>485</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1942" spans="1:16">
@@ -98899,28 +98896,28 @@
         <v>245</v>
       </c>
       <c r="C1942">
-        <v>3.566106779784686</v>
+        <v>3.600255874267948</v>
       </c>
       <c r="D1942" t="s">
         <v>386</v>
       </c>
       <c r="E1942">
-        <v>3.125977107167197</v>
+        <v>3.162465180724656</v>
       </c>
       <c r="F1942">
         <v>-1</v>
       </c>
       <c r="G1942">
-        <v>0.03043389322021531</v>
+        <v>0.03039974412573205</v>
       </c>
       <c r="H1942">
-        <v>0.0318340228928328</v>
+        <v>0.03179753481927534</v>
       </c>
       <c r="I1942">
-        <v>0.4401296726174895</v>
+        <v>0.4377906935432918</v>
       </c>
       <c r="J1942">
-        <v>0.8364815205613522</v>
+        <v>0.8343551759484467</v>
       </c>
       <c r="K1942">
         <v>16.06</v>
@@ -98938,7 +98935,7 @@
         <v>1</v>
       </c>
       <c r="P1942" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="1943" spans="1:16">
@@ -98949,28 +98946,28 @@
         <v>256</v>
       </c>
       <c r="C1943">
-        <v>3.144406758681553</v>
+        <v>3.179704079255785</v>
       </c>
       <c r="D1943" t="s">
         <v>388</v>
       </c>
       <c r="E1943">
-        <v>3.238243801971368</v>
+        <v>3.142710422952282</v>
       </c>
       <c r="F1943">
         <v>1</v>
       </c>
       <c r="G1943">
-        <v>0.03091559324131845</v>
+        <v>0.03088029592074422</v>
       </c>
       <c r="H1943">
-        <v>0.03074175619802863</v>
+        <v>0.03137728957704772</v>
       </c>
       <c r="I1943">
-        <v>0.09383704328981501</v>
+        <v>-0.03699365630350293</v>
       </c>
       <c r="J1943">
-        <v>0.8364815205613522</v>
+        <v>0.8343551759484467</v>
       </c>
       <c r="K1943">
         <v>16.6</v>
@@ -98979,16 +98976,16 @@
         <v>17.03</v>
       </c>
       <c r="M1943">
-        <v>16.44</v>
+        <v>16.92</v>
       </c>
       <c r="N1943">
-        <v>16.99</v>
+        <v>17.26</v>
       </c>
       <c r="O1943">
         <v>1</v>
       </c>
       <c r="P1943" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="1944" spans="1:16">
@@ -98996,49 +98993,49 @@
         <v>0</v>
       </c>
       <c r="B1944" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C1944">
-        <v>3.600255874267948</v>
+        <v>3.510508650911319</v>
       </c>
       <c r="D1944" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E1944">
-        <v>3.162465180724656</v>
+        <v>3.213123685762197</v>
       </c>
       <c r="F1944">
         <v>-1</v>
       </c>
       <c r="G1944">
-        <v>0.03039974412573205</v>
+        <v>0.03222949134908868</v>
       </c>
       <c r="H1944">
-        <v>0.03179753481927534</v>
+        <v>0.0310668763142378</v>
       </c>
       <c r="I1944">
-        <v>0.4377906935432918</v>
+        <v>0.2973849651491225</v>
       </c>
       <c r="J1944">
-        <v>0.8343551759484467</v>
+        <v>0.8319519900978378</v>
       </c>
       <c r="K1944">
-        <v>16.06</v>
+        <v>17.26</v>
       </c>
       <c r="L1944">
-        <v>17</v>
+        <v>17.87</v>
       </c>
       <c r="M1944">
-        <v>17.16</v>
+        <v>16.74</v>
       </c>
       <c r="N1944">
-        <v>17.48</v>
+        <v>17.14</v>
       </c>
       <c r="O1944">
         <v>1</v>
       </c>
       <c r="P1944" t="s">
-        <v>239</v>
+        <v>385</v>
       </c>
     </row>
     <row r="1945" spans="1:16">
@@ -99049,28 +99046,28 @@
         <v>256</v>
       </c>
       <c r="C1945">
-        <v>3.179704079255785</v>
+        <v>3.219596964375892</v>
       </c>
       <c r="D1945" t="s">
         <v>388</v>
       </c>
       <c r="E1945">
-        <v>3.273200907407535</v>
+        <v>3.183372327544584</v>
       </c>
       <c r="F1945">
         <v>1</v>
       </c>
       <c r="G1945">
-        <v>0.03088029592074422</v>
+        <v>0.03084040303562411</v>
       </c>
       <c r="H1945">
-        <v>0.03070679909259246</v>
+        <v>0.03133662767245542</v>
       </c>
       <c r="I1945">
-        <v>0.09349682815174987</v>
+        <v>-0.03622463683130839</v>
       </c>
       <c r="J1945">
-        <v>0.8343551759484467</v>
+        <v>0.8319519900978378</v>
       </c>
       <c r="K1945">
         <v>16.6</v>
@@ -99079,16 +99076,16 @@
         <v>17.03</v>
       </c>
       <c r="M1945">
-        <v>16.44</v>
+        <v>16.92</v>
       </c>
       <c r="N1945">
-        <v>16.99</v>
+        <v>17.26</v>
       </c>
       <c r="O1945">
         <v>1</v>
       </c>
       <c r="P1945" t="s">
-        <v>239</v>
+        <v>385</v>
       </c>
     </row>
     <row r="1946" spans="1:16">
@@ -99099,28 +99096,28 @@
         <v>257</v>
       </c>
       <c r="C1946">
-        <v>3.510508650911319</v>
+        <v>3.544663022046812</v>
       </c>
       <c r="D1946" t="s">
         <v>393</v>
       </c>
       <c r="E1946">
-        <v>3.213123685762197</v>
+        <v>3.246249072367535</v>
       </c>
       <c r="F1946">
         <v>-1</v>
       </c>
       <c r="G1946">
-        <v>0.03222949134908868</v>
+        <v>0.03219533697795319</v>
       </c>
       <c r="H1946">
-        <v>0.0310668763142378</v>
+        <v>0.03103375092763247</v>
       </c>
       <c r="I1946">
-        <v>0.2973849651491225</v>
+        <v>0.2984139496792775</v>
       </c>
       <c r="J1946">
-        <v>0.8319519900978378</v>
+        <v>0.8299731736936957</v>
       </c>
       <c r="K1946">
         <v>17.26</v>
@@ -99138,7 +99135,7 @@
         <v>1</v>
       </c>
       <c r="P1946" t="s">
-        <v>385</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1947" spans="1:16">
@@ -99149,28 +99146,28 @@
         <v>256</v>
       </c>
       <c r="C1947">
-        <v>3.219596964375892</v>
+        <v>3.252445316684652</v>
       </c>
       <c r="D1947" t="s">
         <v>388</v>
       </c>
       <c r="E1947">
-        <v>3.312709282791543</v>
+        <v>3.216853901102668</v>
       </c>
       <c r="F1947">
         <v>1</v>
       </c>
       <c r="G1947">
-        <v>0.03084040303562411</v>
+        <v>0.03080755468331535</v>
       </c>
       <c r="H1947">
-        <v>0.03066729071720845</v>
+        <v>0.03130314609889734</v>
       </c>
       <c r="I1947">
-        <v>0.09311231841565082</v>
+        <v>-0.0355914155819832</v>
       </c>
       <c r="J1947">
-        <v>0.8319519900978378</v>
+        <v>0.8299731736936957</v>
       </c>
       <c r="K1947">
         <v>16.6</v>
@@ -99179,16 +99176,16 @@
         <v>17.03</v>
       </c>
       <c r="M1947">
-        <v>16.44</v>
+        <v>16.92</v>
       </c>
       <c r="N1947">
-        <v>16.99</v>
+        <v>17.26</v>
       </c>
       <c r="O1947">
         <v>1</v>
       </c>
       <c r="P1947" t="s">
-        <v>385</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1948" spans="1:16">
@@ -99199,28 +99196,28 @@
         <v>257</v>
       </c>
       <c r="C1948">
-        <v>3.544663022046812</v>
+        <v>3.588152949314306</v>
       </c>
       <c r="D1948" t="s">
         <v>393</v>
       </c>
       <c r="E1948">
-        <v>3.246249072367535</v>
+        <v>3.288428758489079</v>
       </c>
       <c r="F1948">
         <v>-1</v>
       </c>
       <c r="G1948">
-        <v>0.03219533697795319</v>
+        <v>0.0321518470506857</v>
       </c>
       <c r="H1948">
-        <v>0.03103375092763247</v>
+        <v>0.03099157124151092</v>
       </c>
       <c r="I1948">
-        <v>0.2984139496792775</v>
+        <v>0.2997241908252271</v>
       </c>
       <c r="J1948">
-        <v>0.8299731736936957</v>
+        <v>0.8274534791822534</v>
       </c>
       <c r="K1948">
         <v>17.26</v>
@@ -99238,7 +99235,7 @@
         <v>1</v>
       </c>
       <c r="P1948" t="s">
-        <v>245</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1949" spans="1:16">
@@ -99249,28 +99246,28 @@
         <v>256</v>
       </c>
       <c r="C1949">
-        <v>3.252445316684652</v>
+        <v>3.294272245574593</v>
       </c>
       <c r="D1949" t="s">
         <v>388</v>
       </c>
       <c r="E1949">
-        <v>3.345241024475639</v>
+        <v>3.259487132236272</v>
       </c>
       <c r="F1949">
         <v>1</v>
       </c>
       <c r="G1949">
-        <v>0.03080755468331535</v>
+        <v>0.03076572775442541</v>
       </c>
       <c r="H1949">
-        <v>0.03063475897552436</v>
+        <v>0.03126051286776373</v>
       </c>
       <c r="I1949">
-        <v>0.09279570779098734</v>
+        <v>-0.03478511333832124</v>
       </c>
       <c r="J1949">
-        <v>0.8299731736936957</v>
+        <v>0.8274534791822534</v>
       </c>
       <c r="K1949">
         <v>16.6</v>
@@ -99279,16 +99276,16 @@
         <v>17.03</v>
       </c>
       <c r="M1949">
-        <v>16.44</v>
+        <v>16.92</v>
       </c>
       <c r="N1949">
-        <v>16.99</v>
+        <v>17.26</v>
       </c>
       <c r="O1949">
         <v>1</v>
       </c>
       <c r="P1949" t="s">
-        <v>245</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1950" spans="1:16">
@@ -99299,28 +99296,28 @@
         <v>257</v>
       </c>
       <c r="C1950">
-        <v>3.588152949314306</v>
+        <v>3.620035784723255</v>
       </c>
       <c r="D1950" t="s">
         <v>393</v>
       </c>
       <c r="E1950">
-        <v>3.288428758489079</v>
+        <v>3.319351044974931</v>
       </c>
       <c r="F1950">
         <v>-1</v>
       </c>
       <c r="G1950">
-        <v>0.0321518470506857</v>
+        <v>0.03211996421527675</v>
       </c>
       <c r="H1950">
-        <v>0.03099157124151092</v>
+        <v>0.03096064895502507</v>
       </c>
       <c r="I1950">
-        <v>0.2997241908252271</v>
+        <v>0.3006847397483234</v>
       </c>
       <c r="J1950">
-        <v>0.8274534791822534</v>
+        <v>0.8256062697147593</v>
       </c>
       <c r="K1950">
         <v>17.26</v>
@@ -99338,7 +99335,7 @@
         <v>1</v>
       </c>
       <c r="P1950" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="1951" spans="1:16">
@@ -99349,28 +99346,28 @@
         <v>256</v>
       </c>
       <c r="C1951">
-        <v>3.294272245574593</v>
+        <v>3.324935922734996</v>
       </c>
       <c r="D1951" t="s">
         <v>388</v>
       </c>
       <c r="E1951">
-        <v>3.38666480224375</v>
+        <v>3.290741916426274</v>
       </c>
       <c r="F1951">
         <v>1</v>
       </c>
       <c r="G1951">
-        <v>0.03076572775442541</v>
+        <v>0.03073506407726501</v>
       </c>
       <c r="H1951">
-        <v>0.03059333519775625</v>
+        <v>0.03122925808357373</v>
       </c>
       <c r="I1951">
-        <v>0.09239255666915724</v>
+        <v>-0.03419400630872182</v>
       </c>
       <c r="J1951">
-        <v>0.8274534791822534</v>
+        <v>0.8256062697147593</v>
       </c>
       <c r="K1951">
         <v>16.6</v>
@@ -99379,16 +99376,16 @@
         <v>17.03</v>
       </c>
       <c r="M1951">
-        <v>16.44</v>
+        <v>16.92</v>
       </c>
       <c r="N1951">
-        <v>16.99</v>
+        <v>17.26</v>
       </c>
       <c r="O1951">
         <v>1</v>
       </c>
       <c r="P1951" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="1952" spans="1:16">
@@ -99399,28 +99396,28 @@
         <v>257</v>
       </c>
       <c r="C1952">
-        <v>3.620035784723255</v>
+        <v>3.6816515085562</v>
       </c>
       <c r="D1952" t="s">
         <v>393</v>
       </c>
       <c r="E1952">
-        <v>3.319351044974931</v>
+        <v>3.379110443408507</v>
       </c>
       <c r="F1952">
         <v>-1</v>
       </c>
       <c r="G1952">
-        <v>0.03211996421527675</v>
+        <v>0.0320583484914438</v>
       </c>
       <c r="H1952">
-        <v>0.03096064895502507</v>
+        <v>0.0309008895565915</v>
       </c>
       <c r="I1952">
-        <v>0.3006847397483234</v>
+        <v>0.3025410651476932</v>
       </c>
       <c r="J1952">
-        <v>0.8256062697147593</v>
+        <v>0.8220364131775086</v>
       </c>
       <c r="K1952">
         <v>17.26</v>
@@ -99438,7 +99435,7 @@
         <v>1</v>
       </c>
       <c r="P1952" t="s">
-        <v>487</v>
+        <v>387</v>
       </c>
     </row>
     <row r="1953" spans="1:16">
@@ -99449,28 +99446,28 @@
         <v>256</v>
       </c>
       <c r="C1953">
-        <v>3.324935922734996</v>
+        <v>3.384195541253357</v>
       </c>
       <c r="D1953" t="s">
         <v>388</v>
       </c>
       <c r="E1953">
-        <v>3.417032925889355</v>
+        <v>3.351143889036553</v>
       </c>
       <c r="F1953">
         <v>1</v>
       </c>
       <c r="G1953">
-        <v>0.03073506407726501</v>
+        <v>0.03067580445874665</v>
       </c>
       <c r="H1953">
-        <v>0.03056296707411064</v>
+        <v>0.03116885611096345</v>
       </c>
       <c r="I1953">
-        <v>0.09209700315435931</v>
+        <v>-0.03305165221680362</v>
       </c>
       <c r="J1953">
-        <v>0.8256062697147593</v>
+        <v>0.8220364131775086</v>
       </c>
       <c r="K1953">
         <v>16.6</v>
@@ -99479,366 +99476,16 @@
         <v>17.03</v>
       </c>
       <c r="M1953">
-        <v>16.44</v>
+        <v>16.92</v>
       </c>
       <c r="N1953">
-        <v>16.99</v>
+        <v>17.26</v>
       </c>
       <c r="O1953">
         <v>1</v>
       </c>
       <c r="P1953" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="1954" spans="1:16">
-      <c r="A1954" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1954" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1954">
-        <v>3.652195927548645</v>
-      </c>
-      <c r="D1954" t="s">
-        <v>393</v>
-      </c>
-      <c r="E1954">
-        <v>3.35054228430848</v>
-      </c>
-      <c r="F1954">
-        <v>-1</v>
-      </c>
-      <c r="G1954">
-        <v>0.03208780407245135</v>
-      </c>
-      <c r="H1954">
-        <v>0.03092945771569152</v>
-      </c>
-      <c r="I1954">
-        <v>0.3016536432401651</v>
-      </c>
-      <c r="J1954">
-        <v>0.8237429937689081</v>
-      </c>
-      <c r="K1954">
-        <v>17.26</v>
-      </c>
-      <c r="L1954">
-        <v>17.87</v>
-      </c>
-      <c r="M1954">
-        <v>16.74</v>
-      </c>
-      <c r="N1954">
-        <v>17.14</v>
-      </c>
-      <c r="O1954">
-        <v>1</v>
-      </c>
-      <c r="P1954" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="1955" spans="1:16">
-      <c r="A1955" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1955" t="s">
-        <v>256</v>
-      </c>
-      <c r="C1955">
-        <v>3.355866303436125</v>
-      </c>
-      <c r="D1955" t="s">
-        <v>388</v>
-      </c>
-      <c r="E1955">
-        <v>3.447665182439147</v>
-      </c>
-      <c r="F1955">
-        <v>1</v>
-      </c>
-      <c r="G1955">
-        <v>0.03070413369656388</v>
-      </c>
-      <c r="H1955">
-        <v>0.03053233481756085</v>
-      </c>
-      <c r="I1955">
-        <v>0.09179887900302219</v>
-      </c>
-      <c r="J1955">
-        <v>0.8237429937689081</v>
-      </c>
-      <c r="K1955">
-        <v>16.6</v>
-      </c>
-      <c r="L1955">
-        <v>17.03</v>
-      </c>
-      <c r="M1955">
-        <v>16.44</v>
-      </c>
-      <c r="N1955">
-        <v>16.99</v>
-      </c>
-      <c r="O1955">
-        <v>1</v>
-      </c>
-      <c r="P1955" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="1956" spans="1:16">
-      <c r="A1956" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1956" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1956">
-        <v>3.6816515085562</v>
-      </c>
-      <c r="D1956" t="s">
-        <v>393</v>
-      </c>
-      <c r="E1956">
-        <v>3.379110443408507</v>
-      </c>
-      <c r="F1956">
-        <v>-1</v>
-      </c>
-      <c r="G1956">
-        <v>0.0320583484914438</v>
-      </c>
-      <c r="H1956">
-        <v>0.0309008895565915</v>
-      </c>
-      <c r="I1956">
-        <v>0.3025410651476932</v>
-      </c>
-      <c r="J1956">
-        <v>0.8220364131775086</v>
-      </c>
-      <c r="K1956">
-        <v>17.26</v>
-      </c>
-      <c r="L1956">
-        <v>17.87</v>
-      </c>
-      <c r="M1956">
-        <v>16.74</v>
-      </c>
-      <c r="N1956">
-        <v>17.14</v>
-      </c>
-      <c r="O1956">
-        <v>1</v>
-      </c>
-      <c r="P1956" t="s">
         <v>387</v>
-      </c>
-    </row>
-    <row r="1957" spans="1:16">
-      <c r="A1957" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1957" t="s">
-        <v>256</v>
-      </c>
-      <c r="C1957">
-        <v>3.384195541253357</v>
-      </c>
-      <c r="D1957" t="s">
-        <v>388</v>
-      </c>
-      <c r="E1957">
-        <v>3.475721367361755</v>
-      </c>
-      <c r="F1957">
-        <v>1</v>
-      </c>
-      <c r="G1957">
-        <v>0.03067580445874665</v>
-      </c>
-      <c r="H1957">
-        <v>0.03050427863263824</v>
-      </c>
-      <c r="I1957">
-        <v>0.09152582610839843</v>
-      </c>
-      <c r="J1957">
-        <v>0.8220364131775086</v>
-      </c>
-      <c r="K1957">
-        <v>16.6</v>
-      </c>
-      <c r="L1957">
-        <v>17.03</v>
-      </c>
-      <c r="M1957">
-        <v>16.44</v>
-      </c>
-      <c r="N1957">
-        <v>16.99</v>
-      </c>
-      <c r="O1957">
-        <v>1</v>
-      </c>
-      <c r="P1957" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="1958" spans="1:16">
-      <c r="A1958" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1958" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1958">
-        <v>3.702122621543655</v>
-      </c>
-      <c r="D1958" t="s">
-        <v>393</v>
-      </c>
-      <c r="E1958">
-        <v>3.398964813710361</v>
-      </c>
-      <c r="F1958">
-        <v>-1</v>
-      </c>
-      <c r="G1958">
-        <v>0.03203787737845634</v>
-      </c>
-      <c r="H1958">
-        <v>0.03088103518628964</v>
-      </c>
-      <c r="I1958">
-        <v>0.3031578078332942</v>
-      </c>
-      <c r="J1958">
-        <v>0.8208503695513525</v>
-      </c>
-      <c r="K1958">
-        <v>17.26</v>
-      </c>
-      <c r="L1958">
-        <v>17.87</v>
-      </c>
-      <c r="M1958">
-        <v>16.74</v>
-      </c>
-      <c r="N1958">
-        <v>17.14</v>
-      </c>
-      <c r="O1958">
-        <v>1</v>
-      </c>
-      <c r="P1958" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="1959" spans="1:16">
-      <c r="A1959" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1959" t="s">
-        <v>256</v>
-      </c>
-      <c r="C1959">
-        <v>3.403883865447549</v>
-      </c>
-      <c r="D1959" t="s">
-        <v>388</v>
-      </c>
-      <c r="E1959">
-        <v>3.495219924575762</v>
-      </c>
-      <c r="F1959">
-        <v>1</v>
-      </c>
-      <c r="G1959">
-        <v>0.03065611613455246</v>
-      </c>
-      <c r="H1959">
-        <v>0.03048478007542423</v>
-      </c>
-      <c r="I1959">
-        <v>0.09133605912821352</v>
-      </c>
-      <c r="J1959">
-        <v>0.8208503695513525</v>
-      </c>
-      <c r="K1959">
-        <v>16.6</v>
-      </c>
-      <c r="L1959">
-        <v>17.03</v>
-      </c>
-      <c r="M1959">
-        <v>16.44</v>
-      </c>
-      <c r="N1959">
-        <v>16.99</v>
-      </c>
-      <c r="O1959">
-        <v>1</v>
-      </c>
-      <c r="P1959" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="1960" spans="1:16">
-      <c r="A1960" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1960" t="s">
-        <v>256</v>
-      </c>
-      <c r="C1960">
-        <v>3.435227486984648</v>
-      </c>
-      <c r="D1960" t="s">
-        <v>388</v>
-      </c>
-      <c r="E1960">
-        <v>3.526261438917324</v>
-      </c>
-      <c r="F1960">
-        <v>1</v>
-      </c>
-      <c r="G1960">
-        <v>0.03062477251301535</v>
-      </c>
-      <c r="H1960">
-        <v>0.03045373856108267</v>
-      </c>
-      <c r="I1960">
-        <v>0.09103395193267616</v>
-      </c>
-      <c r="J1960">
-        <v>0.8189621995792381</v>
-      </c>
-      <c r="K1960">
-        <v>16.6</v>
-      </c>
-      <c r="L1960">
-        <v>17.03</v>
-      </c>
-      <c r="M1960">
-        <v>16.44</v>
-      </c>
-      <c r="N1960">
-        <v>16.99</v>
-      </c>
-      <c r="O1960">
-        <v>1</v>
-      </c>
-      <c r="P1960" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-02338-000338.xlsx
+++ b/s60_signal/position-02338-000338.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5943" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5937" uniqueCount="501">
   <si>
     <t>trade_time</t>
   </si>
@@ -1207,6 +1207,9 @@
     <t>2021-04-19</t>
   </si>
   <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
     <t>2021-02-10</t>
   </si>
   <si>
@@ -1220,9 +1223,6 @@
   </si>
   <si>
     <t>2021-07-02</t>
-  </si>
-  <si>
-    <t>2021-06-11</t>
   </si>
   <si>
     <t>2016-09-07</t>
@@ -1495,13 +1495,13 @@
     <t>2021-06-10</t>
   </si>
   <si>
+    <t>2021-06-11</t>
+  </si>
+  <si>
     <t>2021-06-16</t>
   </si>
   <si>
     <t>2021-06-23</t>
-  </si>
-  <si>
-    <t>2021-06-24</t>
   </si>
   <si>
     <t>2021-06-29</t>
@@ -1517,9 +1517,6 @@
   </si>
   <si>
     <t>2021-07-09</t>
-  </si>
-  <si>
-    <t>2021-07-14</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +1874,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1977"/>
+  <dimension ref="A1:P1975"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -95541,10 +95538,10 @@
         <v>3.420624013239236</v>
       </c>
       <c r="D1874" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1874">
-        <v>2.912466378802002</v>
+        <v>3.111301002453827</v>
       </c>
       <c r="F1874">
         <v>-1</v>
@@ -95553,10 +95550,10 @@
         <v>0.03087937598676076</v>
       </c>
       <c r="H1874">
-        <v>0.031087533621198</v>
+        <v>0.03138869899754617</v>
       </c>
       <c r="I1874">
-        <v>0.5081576344372341</v>
+        <v>0.309323010785409</v>
       </c>
       <c r="J1874">
         <v>0.8527562724696125</v>
@@ -95568,10 +95565,10 @@
         <v>17.15</v>
       </c>
       <c r="M1874">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1874">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1874">
         <v>1</v>
@@ -95591,10 +95588,10 @@
         <v>3.304734264138025</v>
       </c>
       <c r="D1875" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1875">
-        <v>2.912466378802002</v>
+        <v>3.111301002453827</v>
       </c>
       <c r="F1875">
         <v>-1</v>
@@ -95603,10 +95600,10 @@
         <v>0.03069526573586197</v>
       </c>
       <c r="H1875">
-        <v>0.031087533621198</v>
+        <v>0.03138869899754617</v>
       </c>
       <c r="I1875">
-        <v>0.3922678853360235</v>
+        <v>0.1934332616841985</v>
       </c>
       <c r="J1875">
         <v>0.8527562724696125</v>
@@ -95618,10 +95615,10 @@
         <v>17</v>
       </c>
       <c r="M1875">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1875">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1875">
         <v>1</v>
@@ -96191,10 +96188,10 @@
         <v>3.389323293090332</v>
       </c>
       <c r="D1887" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1887">
-        <v>2.880349118127473</v>
+        <v>3.07906709313278</v>
       </c>
       <c r="F1887">
         <v>-1</v>
@@ -96203,10 +96200,10 @@
         <v>0.03091067670690967</v>
       </c>
       <c r="H1887">
-        <v>0.03111965088187253</v>
+        <v>0.03142093290686723</v>
       </c>
       <c r="I1887">
-        <v>0.5089741749628587</v>
+        <v>0.3102561999575517</v>
       </c>
       <c r="J1887">
         <v>0.8547004165782401</v>
@@ -96218,10 +96215,10 @@
         <v>17.15</v>
       </c>
       <c r="M1887">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1887">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1887">
         <v>1</v>
@@ -96241,10 +96238,10 @@
         <v>3.273511309753465</v>
       </c>
       <c r="D1888" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1888">
-        <v>2.880349118127473</v>
+        <v>3.07906709313278</v>
       </c>
       <c r="F1888">
         <v>-1</v>
@@ -96253,10 +96250,10 @@
         <v>0.03072648869024653</v>
       </c>
       <c r="H1888">
-        <v>0.03111965088187253</v>
+        <v>0.03142093290686723</v>
       </c>
       <c r="I1888">
-        <v>0.3931621916259918</v>
+        <v>0.1944442166206848</v>
       </c>
       <c r="J1888">
         <v>0.8547004165782401</v>
@@ -96268,10 +96265,10 @@
         <v>17</v>
       </c>
       <c r="M1888">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1888">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1888">
         <v>1</v>
@@ -96691,7 +96688,7 @@
         <v>2.037920250185717</v>
       </c>
       <c r="D1897" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E1897">
         <v>2.362243625936888</v>
@@ -96991,10 +96988,10 @@
         <v>1.665229006558508</v>
       </c>
       <c r="D1903" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1903">
-        <v>1.422617405757267</v>
+        <v>1.616040955657114</v>
       </c>
       <c r="F1903">
         <v>-1</v>
@@ -97003,10 +97000,10 @@
         <v>0.03191477099344149</v>
       </c>
       <c r="H1903">
-        <v>0.03257738259424273</v>
+        <v>0.03288395904434289</v>
       </c>
       <c r="I1903">
-        <v>0.2426116008012418</v>
+        <v>0.04918805090139422</v>
       </c>
       <c r="J1903">
         <v>0.9429408350025867</v>
@@ -97018,10 +97015,10 @@
         <v>16.79</v>
       </c>
       <c r="M1903">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1903">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1903">
         <v>1</v>
@@ -97335,43 +97332,43 @@
         <v>6</v>
       </c>
       <c r="B1910" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="C1910">
-        <v>-0.6415214998997314</v>
+        <v>0.0299992581655637</v>
       </c>
       <c r="D1910" t="s">
-        <v>386</v>
+        <v>225</v>
       </c>
       <c r="E1910">
-        <v>1.239868273020779</v>
+        <v>-0.9892052116988808</v>
       </c>
       <c r="F1910">
         <v>1</v>
       </c>
       <c r="G1910">
-        <v>0.04292152149989974</v>
+        <v>0.03781000074183444</v>
       </c>
       <c r="H1910">
-        <v>0.04252013172697922</v>
+        <v>0.03876920521169888</v>
       </c>
       <c r="I1910">
-        <v>1.88138977292051</v>
+        <v>-1.019204469864444</v>
       </c>
       <c r="J1910">
         <v>0.951158144100425</v>
       </c>
       <c r="K1910">
-        <v>22.9</v>
+        <v>19.86</v>
       </c>
       <c r="L1910">
-        <v>21.14</v>
+        <v>18.92</v>
       </c>
       <c r="M1910">
-        <v>21.7</v>
+        <v>20.9</v>
       </c>
       <c r="N1910">
-        <v>21.88</v>
+        <v>18.89</v>
       </c>
       <c r="O1910">
         <v>1</v>
@@ -97385,43 +97382,43 @@
         <v>7</v>
       </c>
       <c r="B1911" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="C1911">
-        <v>1.833720119104438</v>
+        <v>-0.6415214998997314</v>
       </c>
       <c r="D1911" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E1911">
-        <v>0.4815096551295426</v>
+        <v>1.239868273020779</v>
       </c>
       <c r="F1911">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1911">
-        <v>0.04910627988089556</v>
+        <v>0.04292152149989974</v>
       </c>
       <c r="H1911">
-        <v>0.04727849034487046</v>
+        <v>0.04252013172697922</v>
       </c>
       <c r="I1911">
-        <v>1.352210463974895</v>
+        <v>1.88138977292051</v>
       </c>
       <c r="J1911">
         <v>0.951158144100425</v>
       </c>
       <c r="K1911">
-        <v>24.85</v>
+        <v>22.9</v>
       </c>
       <c r="L1911">
-        <v>25.47</v>
+        <v>21.14</v>
       </c>
       <c r="M1911">
-        <v>24.6</v>
+        <v>21.7</v>
       </c>
       <c r="N1911">
-        <v>23.88</v>
+        <v>21.88</v>
       </c>
       <c r="O1911">
         <v>1</v>
@@ -97435,43 +97432,43 @@
         <v>8</v>
       </c>
       <c r="B1912" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C1912">
-        <v>-0.02408939728884008</v>
+        <v>1.833720119104438</v>
       </c>
       <c r="D1912" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="E1912">
-        <v>0.977763633271838</v>
+        <v>0.4815096551295426</v>
       </c>
       <c r="F1912">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1912">
-        <v>0.03954408939728885</v>
+        <v>0.04910627988089556</v>
       </c>
       <c r="H1912">
-        <v>0.03750223636672816</v>
+        <v>0.04727849034487046</v>
       </c>
       <c r="I1912">
-        <v>1.001853030560678</v>
+        <v>1.352210463974895</v>
       </c>
       <c r="J1912">
         <v>0.951158144100425</v>
       </c>
       <c r="K1912">
-        <v>20.8</v>
+        <v>24.85</v>
       </c>
       <c r="L1912">
-        <v>19.76</v>
+        <v>25.47</v>
       </c>
       <c r="M1912">
-        <v>19.2</v>
+        <v>24.6</v>
       </c>
       <c r="N1912">
-        <v>19.24</v>
+        <v>23.88</v>
       </c>
       <c r="O1912">
         <v>1</v>
@@ -97485,10 +97482,10 @@
         <v>9</v>
       </c>
       <c r="B1913" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C1913">
-        <v>-0.06141567567377493</v>
+        <v>-0.02408939728884008</v>
       </c>
       <c r="D1913" t="s">
         <v>388</v>
@@ -97500,22 +97497,22 @@
         <v>1</v>
       </c>
       <c r="G1913">
-        <v>0.03922141567567377</v>
+        <v>0.03954408939728885</v>
       </c>
       <c r="H1913">
         <v>0.03750223636672816</v>
       </c>
       <c r="I1913">
-        <v>1.039179308945613</v>
+        <v>1.001853030560678</v>
       </c>
       <c r="J1913">
         <v>0.951158144100425</v>
       </c>
       <c r="K1913">
-        <v>20.65</v>
+        <v>20.8</v>
       </c>
       <c r="L1913">
-        <v>19.58</v>
+        <v>19.76</v>
       </c>
       <c r="M1913">
         <v>19.2</v>
@@ -97535,10 +97532,10 @@
         <v>10</v>
       </c>
       <c r="B1914" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="C1914">
-        <v>-0.4240893972888422</v>
+        <v>-0.06141567567377493</v>
       </c>
       <c r="D1914" t="s">
         <v>388</v>
@@ -97550,22 +97547,22 @@
         <v>1</v>
       </c>
       <c r="G1914">
-        <v>0.03914408939728884</v>
+        <v>0.03922141567567377</v>
       </c>
       <c r="H1914">
         <v>0.03750223636672816</v>
       </c>
       <c r="I1914">
-        <v>1.40185303056068</v>
+        <v>1.039179308945613</v>
       </c>
       <c r="J1914">
         <v>0.951158144100425</v>
       </c>
       <c r="K1914">
-        <v>20.8</v>
+        <v>20.65</v>
       </c>
       <c r="L1914">
-        <v>19.36</v>
+        <v>19.58</v>
       </c>
       <c r="M1914">
         <v>19.2</v>
@@ -97585,43 +97582,43 @@
         <v>11</v>
       </c>
       <c r="B1915" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C1915">
-        <v>0.02195293240154328</v>
+        <v>-0.4240893972888422</v>
       </c>
       <c r="D1915" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E1915">
-        <v>0.9117213035814586</v>
+        <v>0.977763633271838</v>
       </c>
       <c r="F1915">
         <v>1</v>
       </c>
       <c r="G1915">
-        <v>0.03787804706759846</v>
+        <v>0.03914408939728884</v>
       </c>
       <c r="H1915">
-        <v>0.03914827869641854</v>
+        <v>0.03750223636672816</v>
       </c>
       <c r="I1915">
-        <v>0.8897683711799154</v>
+        <v>1.40185303056068</v>
       </c>
       <c r="J1915">
         <v>0.951158144100425</v>
       </c>
       <c r="K1915">
-        <v>19.9</v>
+        <v>20.8</v>
       </c>
       <c r="L1915">
-        <v>18.95</v>
+        <v>19.36</v>
       </c>
       <c r="M1915">
-        <v>20.1</v>
+        <v>19.2</v>
       </c>
       <c r="N1915">
-        <v>20.03</v>
+        <v>19.24</v>
       </c>
       <c r="O1915">
         <v>1</v>
@@ -97635,43 +97632,43 @@
         <v>12</v>
       </c>
       <c r="B1916" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C1916">
-        <v>1.710774807932944</v>
+        <v>0.02195293240154328</v>
       </c>
       <c r="D1916" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="E1916">
-        <v>0.6149641070626473</v>
+        <v>0.9117213035814586</v>
       </c>
       <c r="F1916">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1916">
-        <v>0.03328922519206706</v>
+        <v>0.03787804706759846</v>
       </c>
       <c r="H1916">
-        <v>0.03352503589293735</v>
+        <v>0.03914827869641854</v>
       </c>
       <c r="I1916">
-        <v>1.095810700870297</v>
+        <v>0.8897683711799154</v>
       </c>
       <c r="J1916">
         <v>0.951158144100425</v>
       </c>
       <c r="K1916">
-        <v>16.6</v>
+        <v>19.9</v>
       </c>
       <c r="L1916">
-        <v>17.5</v>
+        <v>18.95</v>
       </c>
       <c r="M1916">
-        <v>17.3</v>
+        <v>20.1</v>
       </c>
       <c r="N1916">
-        <v>17.07</v>
+        <v>20.03</v>
       </c>
       <c r="O1916">
         <v>1</v>
@@ -97685,43 +97682,43 @@
         <v>13</v>
       </c>
       <c r="B1917" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C1917">
-        <v>1.533423368629183</v>
+        <v>1.710774807932944</v>
       </c>
       <c r="D1917" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E1917">
-        <v>1.28686745946098</v>
+        <v>0.6149641070626473</v>
       </c>
       <c r="F1917">
         <v>-1</v>
       </c>
       <c r="G1917">
-        <v>0.03204657663137081</v>
+        <v>0.03328922519206706</v>
       </c>
       <c r="H1917">
-        <v>0.03271313254053902</v>
+        <v>0.03352503589293735</v>
       </c>
       <c r="I1917">
-        <v>0.2465559091682028</v>
+        <v>1.095810700870297</v>
       </c>
       <c r="J1917">
         <v>0.951158144100425</v>
       </c>
       <c r="K1917">
-        <v>16.04</v>
+        <v>16.6</v>
       </c>
       <c r="L1917">
-        <v>16.79</v>
+        <v>17.5</v>
       </c>
       <c r="M1917">
-        <v>16.52</v>
+        <v>17.3</v>
       </c>
       <c r="N1917">
-        <v>17</v>
+        <v>17.07</v>
       </c>
       <c r="O1917">
         <v>1</v>
@@ -97732,96 +97729,96 @@
     </row>
     <row r="1918" spans="1:16">
       <c r="A1918" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1918" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="C1918">
-        <v>2.895910618110747</v>
+        <v>1.533423368629183</v>
       </c>
       <c r="D1918" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E1918">
-        <v>2.300456677341392</v>
+        <v>1.479797970814955</v>
       </c>
       <c r="F1918">
         <v>-1</v>
       </c>
       <c r="G1918">
-        <v>0.03210408938188925</v>
+        <v>0.03204657663137081</v>
       </c>
       <c r="H1918">
-        <v>0.0325995433226586</v>
+        <v>0.03302020202918504</v>
       </c>
       <c r="I1918">
-        <v>0.5954539407693549</v>
+        <v>0.05362539781422804</v>
       </c>
       <c r="J1918">
-        <v>0.879764420595738</v>
+        <v>0.951158144100425</v>
       </c>
       <c r="K1918">
-        <v>16.6</v>
+        <v>16.04</v>
       </c>
       <c r="L1918">
-        <v>17.5</v>
+        <v>16.79</v>
       </c>
       <c r="M1918">
-        <v>17.22</v>
+        <v>16.58</v>
       </c>
       <c r="N1918">
-        <v>17.45</v>
+        <v>17.25</v>
       </c>
       <c r="O1918">
         <v>1</v>
       </c>
       <c r="P1918" t="s">
-        <v>481</v>
+        <v>385</v>
       </c>
     </row>
     <row r="1919" spans="1:16">
       <c r="A1919" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1919" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C1919">
-        <v>2.045002736572032</v>
+        <v>2.895910618110747</v>
       </c>
       <c r="D1919" t="s">
         <v>400</v>
       </c>
       <c r="E1919">
-        <v>2.57640956146054</v>
+        <v>2.300456677341392</v>
       </c>
       <c r="F1919">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1919">
-        <v>0.03343499726342797</v>
+        <v>0.03210408938188925</v>
       </c>
       <c r="H1919">
-        <v>0.03252359043853946</v>
+        <v>0.0325995433226586</v>
       </c>
       <c r="I1919">
-        <v>0.5314068248885082</v>
+        <v>0.5954539407693549</v>
       </c>
       <c r="J1919">
         <v>0.879764420595738</v>
       </c>
       <c r="K1919">
-        <v>17.84</v>
+        <v>16.6</v>
       </c>
       <c r="L1919">
-        <v>17.74</v>
+        <v>17.5</v>
       </c>
       <c r="M1919">
-        <v>17.02</v>
+        <v>17.22</v>
       </c>
       <c r="N1919">
-        <v>17.55</v>
+        <v>17.45</v>
       </c>
       <c r="O1919">
         <v>1</v>
@@ -97832,46 +97829,46 @@
     </row>
     <row r="1920" spans="1:16">
       <c r="A1920" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1920" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C1920">
-        <v>2.167553022403515</v>
+        <v>2.045002736572032</v>
       </c>
       <c r="D1920" t="s">
-        <v>255</v>
+        <v>401</v>
       </c>
       <c r="E1920">
-        <v>2.678578693644361</v>
+        <v>2.57640956146054</v>
       </c>
       <c r="F1920">
         <v>1</v>
       </c>
       <c r="G1920">
-        <v>0.03169244697759648</v>
+        <v>0.03343499726342797</v>
       </c>
       <c r="H1920">
-        <v>0.03090142130635564</v>
+        <v>0.03252359043853946</v>
       </c>
       <c r="I1920">
-        <v>0.5110256712408461</v>
+        <v>0.5314068248885082</v>
       </c>
       <c r="J1920">
         <v>0.879764420595738</v>
       </c>
       <c r="K1920">
-        <v>16.78</v>
+        <v>17.84</v>
       </c>
       <c r="L1920">
-        <v>16.93</v>
+        <v>17.74</v>
       </c>
       <c r="M1920">
-        <v>16.04</v>
+        <v>17.02</v>
       </c>
       <c r="N1920">
-        <v>16.79</v>
+        <v>17.55</v>
       </c>
       <c r="O1920">
         <v>1</v>
@@ -97882,96 +97879,96 @@
     </row>
     <row r="1921" spans="1:16">
       <c r="A1921" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1921" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="C1921">
-        <v>2.930787875067525</v>
+        <v>2.167553022403515</v>
       </c>
       <c r="D1921" t="s">
-        <v>399</v>
+        <v>255</v>
       </c>
       <c r="E1921">
-        <v>2.336636578835108</v>
+        <v>2.678578693644361</v>
       </c>
       <c r="F1921">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1921">
-        <v>0.03206921212493248</v>
+        <v>0.03169244697759648</v>
       </c>
       <c r="H1921">
-        <v>0.03256336342116489</v>
+        <v>0.03090142130635564</v>
       </c>
       <c r="I1921">
-        <v>0.5941512962324165</v>
+        <v>0.5110256712408461</v>
       </c>
       <c r="J1921">
-        <v>0.8776633810200286</v>
+        <v>0.879764420595738</v>
       </c>
       <c r="K1921">
-        <v>16.6</v>
+        <v>16.78</v>
       </c>
       <c r="L1921">
-        <v>17.5</v>
+        <v>16.93</v>
       </c>
       <c r="M1921">
-        <v>17.22</v>
+        <v>16.04</v>
       </c>
       <c r="N1921">
-        <v>17.45</v>
+        <v>16.79</v>
       </c>
       <c r="O1921">
         <v>1</v>
       </c>
       <c r="P1921" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1922" spans="1:16">
       <c r="A1922" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1922" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C1922">
-        <v>2.082485282602688</v>
+        <v>2.930787875067525</v>
       </c>
       <c r="D1922" t="s">
         <v>400</v>
       </c>
       <c r="E1922">
-        <v>2.612169255039115</v>
+        <v>2.336636578835108</v>
       </c>
       <c r="F1922">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1922">
-        <v>0.0333975147173973</v>
+        <v>0.03206921212493248</v>
       </c>
       <c r="H1922">
-        <v>0.03248783074496089</v>
+        <v>0.03256336342116489</v>
       </c>
       <c r="I1922">
-        <v>0.5296839724364268</v>
+        <v>0.5941512962324165</v>
       </c>
       <c r="J1922">
         <v>0.8776633810200286</v>
       </c>
       <c r="K1922">
-        <v>17.84</v>
+        <v>16.6</v>
       </c>
       <c r="L1922">
-        <v>17.74</v>
+        <v>17.5</v>
       </c>
       <c r="M1922">
-        <v>17.02</v>
+        <v>17.22</v>
       </c>
       <c r="N1922">
-        <v>17.55</v>
+        <v>17.45</v>
       </c>
       <c r="O1922">
         <v>1</v>
@@ -97982,46 +97979,46 @@
     </row>
     <row r="1923" spans="1:16">
       <c r="A1923" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1923" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C1923">
-        <v>2.202808466483919</v>
+        <v>2.082485282602688</v>
       </c>
       <c r="D1923" t="s">
-        <v>255</v>
+        <v>401</v>
       </c>
       <c r="E1923">
-        <v>2.712279368438741</v>
+        <v>2.612169255039115</v>
       </c>
       <c r="F1923">
         <v>1</v>
       </c>
       <c r="G1923">
-        <v>0.03165719153351608</v>
+        <v>0.0333975147173973</v>
       </c>
       <c r="H1923">
-        <v>0.03086772063156126</v>
+        <v>0.03248783074496089</v>
       </c>
       <c r="I1923">
-        <v>0.5094709019548223</v>
+        <v>0.5296839724364268</v>
       </c>
       <c r="J1923">
         <v>0.8776633810200286</v>
       </c>
       <c r="K1923">
-        <v>16.78</v>
+        <v>17.84</v>
       </c>
       <c r="L1923">
-        <v>16.93</v>
+        <v>17.74</v>
       </c>
       <c r="M1923">
-        <v>16.04</v>
+        <v>17.02</v>
       </c>
       <c r="N1923">
-        <v>16.79</v>
+        <v>17.55</v>
       </c>
       <c r="O1923">
         <v>1</v>
@@ -98032,96 +98029,96 @@
     </row>
     <row r="1924" spans="1:16">
       <c r="A1924" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1924" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C1924">
-        <v>2.29339439374928</v>
+        <v>2.202808466483919</v>
       </c>
       <c r="D1924" t="s">
-        <v>400</v>
+        <v>255</v>
       </c>
       <c r="E1924">
-        <v>2.813384113319101</v>
+        <v>2.712279368438741</v>
       </c>
       <c r="F1924">
         <v>1</v>
       </c>
       <c r="G1924">
-        <v>0.03318660560625072</v>
+        <v>0.03165719153351608</v>
       </c>
       <c r="H1924">
-        <v>0.0322866158866809</v>
+        <v>0.03086772063156126</v>
       </c>
       <c r="I1924">
-        <v>0.5199897195698213</v>
+        <v>0.5094709019548223</v>
       </c>
       <c r="J1924">
-        <v>0.8658411214266098</v>
+        <v>0.8776633810200286</v>
       </c>
       <c r="K1924">
-        <v>17.84</v>
+        <v>16.78</v>
       </c>
       <c r="L1924">
-        <v>17.74</v>
+        <v>16.93</v>
       </c>
       <c r="M1924">
-        <v>17.02</v>
+        <v>16.04</v>
       </c>
       <c r="N1924">
-        <v>17.55</v>
+        <v>16.79</v>
       </c>
       <c r="O1924">
         <v>1</v>
       </c>
       <c r="P1924" t="s">
-        <v>389</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1925" spans="1:16">
       <c r="A1925" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1925" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C1925">
-        <v>2.925582244176713</v>
+        <v>2.29339439374928</v>
       </c>
       <c r="D1925" t="s">
         <v>401</v>
       </c>
       <c r="E1925">
-        <v>2.645819627318554</v>
+        <v>2.813384113319101</v>
       </c>
       <c r="F1925">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1925">
-        <v>0.03281441775582328</v>
+        <v>0.03318660560625072</v>
       </c>
       <c r="H1925">
-        <v>0.03163418037268145</v>
+        <v>0.0322866158866809</v>
       </c>
       <c r="I1925">
-        <v>0.2797626168581591</v>
+        <v>0.5199897195698213</v>
       </c>
       <c r="J1925">
         <v>0.8658411214266098</v>
       </c>
       <c r="K1925">
-        <v>17.26</v>
+        <v>17.84</v>
       </c>
       <c r="L1925">
-        <v>17.87</v>
+        <v>17.74</v>
       </c>
       <c r="M1925">
-        <v>16.74</v>
+        <v>17.02</v>
       </c>
       <c r="N1925">
-        <v>17.14</v>
+        <v>17.55</v>
       </c>
       <c r="O1925">
         <v>1</v>
@@ -98132,146 +98129,146 @@
     </row>
     <row r="1926" spans="1:16">
       <c r="A1926" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1926" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C1926">
-        <v>2.317276192711919</v>
+        <v>2.401185982461486</v>
       </c>
       <c r="D1926" t="s">
-        <v>400</v>
+        <v>255</v>
       </c>
       <c r="E1926">
-        <v>2.836168206275611</v>
+        <v>2.901908412317178</v>
       </c>
       <c r="F1926">
         <v>1</v>
       </c>
       <c r="G1926">
-        <v>0.03316272380728807</v>
+        <v>0.03145881401753851</v>
       </c>
       <c r="H1926">
-        <v>0.03226383179372439</v>
+        <v>0.03067809158768282</v>
       </c>
       <c r="I1926">
-        <v>0.5188920135636916</v>
+        <v>0.500722429855692</v>
       </c>
       <c r="J1926">
-        <v>0.8645024555654753</v>
+        <v>0.8658411214266098</v>
       </c>
       <c r="K1926">
-        <v>17.84</v>
+        <v>16.78</v>
       </c>
       <c r="L1926">
-        <v>17.74</v>
+        <v>16.93</v>
       </c>
       <c r="M1926">
-        <v>17.02</v>
+        <v>16.04</v>
       </c>
       <c r="N1926">
-        <v>17.55</v>
+        <v>16.79</v>
       </c>
       <c r="O1926">
         <v>1</v>
       </c>
       <c r="P1926" t="s">
-        <v>483</v>
+        <v>389</v>
       </c>
     </row>
     <row r="1927" spans="1:16">
       <c r="A1927" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1927" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C1927">
-        <v>2.423648795611323</v>
+        <v>2.925582244176713</v>
       </c>
       <c r="D1927" t="s">
-        <v>255</v>
+        <v>402</v>
       </c>
       <c r="E1927">
-        <v>2.923380612729776</v>
+        <v>2.645819627318554</v>
       </c>
       <c r="F1927">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1927">
-        <v>0.03143635120438868</v>
+        <v>0.03281441775582328</v>
       </c>
       <c r="H1927">
-        <v>0.03065661938727022</v>
+        <v>0.03163418037268145</v>
       </c>
       <c r="I1927">
-        <v>0.4997318171184535</v>
+        <v>0.2797626168581591</v>
       </c>
       <c r="J1927">
-        <v>0.8645024555654753</v>
+        <v>0.8658411214266098</v>
       </c>
       <c r="K1927">
-        <v>16.78</v>
+        <v>17.26</v>
       </c>
       <c r="L1927">
-        <v>16.93</v>
+        <v>17.87</v>
       </c>
       <c r="M1927">
-        <v>16.04</v>
+        <v>16.74</v>
       </c>
       <c r="N1927">
-        <v>16.79</v>
+        <v>17.14</v>
       </c>
       <c r="O1927">
         <v>1</v>
       </c>
       <c r="P1927" t="s">
-        <v>483</v>
+        <v>389</v>
       </c>
     </row>
     <row r="1928" spans="1:16">
       <c r="A1928" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1928" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C1928">
-        <v>2.948687616939896</v>
+        <v>2.317276192711919</v>
       </c>
       <c r="D1928" t="s">
         <v>401</v>
       </c>
       <c r="E1928">
-        <v>2.668228893833945</v>
+        <v>2.836168206275611</v>
       </c>
       <c r="F1928">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1928">
-        <v>0.0327913123830601</v>
+        <v>0.03316272380728807</v>
       </c>
       <c r="H1928">
-        <v>0.03161177110616606</v>
+        <v>0.03226383179372439</v>
       </c>
       <c r="I1928">
-        <v>0.2804587231059514</v>
+        <v>0.5188920135636916</v>
       </c>
       <c r="J1928">
         <v>0.8645024555654753</v>
       </c>
       <c r="K1928">
-        <v>17.26</v>
+        <v>17.84</v>
       </c>
       <c r="L1928">
-        <v>17.87</v>
+        <v>17.74</v>
       </c>
       <c r="M1928">
-        <v>16.74</v>
+        <v>17.02</v>
       </c>
       <c r="N1928">
-        <v>17.14</v>
+        <v>17.55</v>
       </c>
       <c r="O1928">
         <v>1</v>
@@ -98282,146 +98279,146 @@
     </row>
     <row r="1929" spans="1:16">
       <c r="A1929" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1929" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="C1929">
-        <v>2.970236396971623</v>
+        <v>2.423648795611323</v>
       </c>
       <c r="D1929" t="s">
-        <v>402</v>
+        <v>255</v>
       </c>
       <c r="E1929">
-        <v>2.517706508707313</v>
+        <v>2.923380612729776</v>
       </c>
       <c r="F1929">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1929">
-        <v>0.03198976360302838</v>
+        <v>0.03143635120438868</v>
       </c>
       <c r="H1929">
-        <v>0.03188229349129269</v>
+        <v>0.03065661938727022</v>
       </c>
       <c r="I1929">
-        <v>0.4525298882643103</v>
+        <v>0.4997318171184535</v>
       </c>
       <c r="J1929">
-        <v>0.8626494413215444</v>
+        <v>0.8645024555654753</v>
       </c>
       <c r="K1929">
-        <v>16.82</v>
+        <v>16.78</v>
       </c>
       <c r="L1929">
-        <v>17.48</v>
+        <v>16.93</v>
       </c>
       <c r="M1929">
-        <v>17.02</v>
+        <v>16.04</v>
       </c>
       <c r="N1929">
-        <v>17.2</v>
+        <v>16.79</v>
       </c>
       <c r="O1929">
         <v>1</v>
       </c>
       <c r="P1929" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="1930" spans="1:16">
       <c r="A1930" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1930" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C1930">
-        <v>2.454742374624484</v>
+        <v>2.948687616939896</v>
       </c>
       <c r="D1930" t="s">
-        <v>255</v>
+        <v>402</v>
       </c>
       <c r="E1930">
-        <v>2.953102961202427</v>
+        <v>2.668228893833945</v>
       </c>
       <c r="F1930">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1930">
-        <v>0.03140525762537551</v>
+        <v>0.0327913123830601</v>
       </c>
       <c r="H1930">
-        <v>0.03062689703879757</v>
+        <v>0.03161177110616606</v>
       </c>
       <c r="I1930">
-        <v>0.4983605865779435</v>
+        <v>0.2804587231059514</v>
       </c>
       <c r="J1930">
-        <v>0.8626494413215444</v>
+        <v>0.8645024555654753</v>
       </c>
       <c r="K1930">
-        <v>16.78</v>
+        <v>17.26</v>
       </c>
       <c r="L1930">
-        <v>16.93</v>
+        <v>17.87</v>
       </c>
       <c r="M1930">
-        <v>16.04</v>
+        <v>16.74</v>
       </c>
       <c r="N1930">
-        <v>16.79</v>
+        <v>17.14</v>
       </c>
       <c r="O1930">
         <v>1</v>
       </c>
       <c r="P1930" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="1931" spans="1:16">
       <c r="A1931" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1931" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C1931">
-        <v>2.980670642790143</v>
+        <v>2.454742374624484</v>
       </c>
       <c r="D1931" t="s">
-        <v>401</v>
+        <v>255</v>
       </c>
       <c r="E1931">
-        <v>2.699248352277348</v>
+        <v>2.953102961202427</v>
       </c>
       <c r="F1931">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1931">
-        <v>0.03275932935720986</v>
+        <v>0.03140525762537551</v>
       </c>
       <c r="H1931">
-        <v>0.03158075164772266</v>
+        <v>0.03062689703879757</v>
       </c>
       <c r="I1931">
-        <v>0.2814222905127952</v>
+        <v>0.4983605865779435</v>
       </c>
       <c r="J1931">
         <v>0.8626494413215444</v>
       </c>
       <c r="K1931">
-        <v>17.26</v>
+        <v>16.78</v>
       </c>
       <c r="L1931">
-        <v>17.87</v>
+        <v>16.93</v>
       </c>
       <c r="M1931">
-        <v>16.74</v>
+        <v>16.04</v>
       </c>
       <c r="N1931">
-        <v>17.14</v>
+        <v>16.79</v>
       </c>
       <c r="O1931">
         <v>1</v>
@@ -98432,96 +98429,96 @@
     </row>
     <row r="1932" spans="1:16">
       <c r="A1932" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1932" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C1932">
-        <v>2.532435106884185</v>
+        <v>2.980670642790143</v>
       </c>
       <c r="D1932" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E1932">
-        <v>2.908289517195152</v>
+        <v>2.699248352277348</v>
       </c>
       <c r="F1932">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1932">
-        <v>0.03346756489311582</v>
+        <v>0.03275932935720986</v>
       </c>
       <c r="H1932">
-        <v>0.03219171048280485</v>
+        <v>0.03158075164772266</v>
       </c>
       <c r="I1932">
-        <v>0.3758544103109678</v>
+        <v>0.2814222905127952</v>
       </c>
       <c r="J1932">
-        <v>0.8602650107405904</v>
+        <v>0.8626494413215444</v>
       </c>
       <c r="K1932">
-        <v>17.98</v>
+        <v>17.26</v>
       </c>
       <c r="L1932">
-        <v>18</v>
+        <v>17.87</v>
       </c>
       <c r="M1932">
-        <v>17.02</v>
+        <v>16.74</v>
       </c>
       <c r="N1932">
-        <v>17.55</v>
+        <v>17.14</v>
       </c>
       <c r="O1932">
         <v>1</v>
       </c>
       <c r="P1932" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1933" spans="1:16">
       <c r="A1933" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1933" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C1933">
-        <v>3.021825914617409</v>
+        <v>2.532435106884185</v>
       </c>
       <c r="D1933" t="s">
         <v>401</v>
       </c>
       <c r="E1933">
-        <v>2.739163720202519</v>
+        <v>2.908289517195152</v>
       </c>
       <c r="F1933">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1933">
-        <v>0.03271817408538259</v>
+        <v>0.03346756489311582</v>
       </c>
       <c r="H1933">
-        <v>0.03154083627979748</v>
+        <v>0.03219171048280485</v>
       </c>
       <c r="I1933">
-        <v>0.2826621944148897</v>
+        <v>0.3758544103109678</v>
       </c>
       <c r="J1933">
         <v>0.8602650107405904</v>
       </c>
       <c r="K1933">
-        <v>17.26</v>
+        <v>17.98</v>
       </c>
       <c r="L1933">
-        <v>17.87</v>
+        <v>18</v>
       </c>
       <c r="M1933">
-        <v>16.74</v>
+        <v>17.02</v>
       </c>
       <c r="N1933">
-        <v>17.14</v>
+        <v>17.55</v>
       </c>
       <c r="O1933">
         <v>1</v>
@@ -98532,96 +98529,96 @@
     </row>
     <row r="1934" spans="1:16">
       <c r="A1934" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1934" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C1934">
-        <v>2.571187348615313</v>
+        <v>3.021825914617409</v>
       </c>
       <c r="D1934" t="s">
-        <v>256</v>
+        <v>402</v>
       </c>
       <c r="E1934">
-        <v>2.431322708525983</v>
+        <v>2.739163720202519</v>
       </c>
       <c r="F1934">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1934">
-        <v>0.03342881265138469</v>
+        <v>0.03271817408538259</v>
       </c>
       <c r="H1934">
-        <v>0.03304867729147402</v>
+        <v>0.03154083627979748</v>
       </c>
       <c r="I1934">
-        <v>-0.1398646400893302</v>
+        <v>0.2826621944148897</v>
       </c>
       <c r="J1934">
-        <v>0.8581097136476467</v>
+        <v>0.8602650107405904</v>
       </c>
       <c r="K1934">
-        <v>17.98</v>
+        <v>17.26</v>
       </c>
       <c r="L1934">
-        <v>18</v>
+        <v>17.87</v>
       </c>
       <c r="M1934">
-        <v>17.84</v>
+        <v>16.74</v>
       </c>
       <c r="N1934">
-        <v>17.74</v>
+        <v>17.14</v>
       </c>
       <c r="O1934">
         <v>1</v>
       </c>
       <c r="P1934" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1935" spans="1:16">
       <c r="A1935" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1935" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C1935">
-        <v>3.059026342441618</v>
+        <v>2.571187348615313</v>
       </c>
       <c r="D1935" t="s">
-        <v>401</v>
+        <v>256</v>
       </c>
       <c r="E1935">
-        <v>2.775243393538396</v>
+        <v>2.431322708525983</v>
       </c>
       <c r="F1935">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1935">
-        <v>0.03268097365755838</v>
+        <v>0.03342881265138469</v>
       </c>
       <c r="H1935">
-        <v>0.0315047566064616</v>
+        <v>0.03304867729147402</v>
       </c>
       <c r="I1935">
-        <v>0.2837829489032213</v>
+        <v>-0.1398646400893302</v>
       </c>
       <c r="J1935">
         <v>0.8581097136476467</v>
       </c>
       <c r="K1935">
-        <v>17.26</v>
+        <v>17.98</v>
       </c>
       <c r="L1935">
-        <v>17.87</v>
+        <v>18</v>
       </c>
       <c r="M1935">
-        <v>16.74</v>
+        <v>17.84</v>
       </c>
       <c r="N1935">
-        <v>17.14</v>
+        <v>17.74</v>
       </c>
       <c r="O1935">
         <v>1</v>
@@ -98632,96 +98629,96 @@
     </row>
     <row r="1936" spans="1:16">
       <c r="A1936" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1936" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C1936">
-        <v>2.606587905471129</v>
+        <v>3.059026342441618</v>
       </c>
       <c r="D1936" t="s">
-        <v>256</v>
+        <v>402</v>
       </c>
       <c r="E1936">
-        <v>2.466447621446326</v>
+        <v>2.775243393538396</v>
       </c>
       <c r="F1936">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1936">
-        <v>0.03339341209452887</v>
+        <v>0.03268097365755838</v>
       </c>
       <c r="H1936">
-        <v>0.03301355237855367</v>
+        <v>0.0315047566064616</v>
       </c>
       <c r="I1936">
-        <v>-0.1401402840248025</v>
+        <v>0.2837829489032213</v>
       </c>
       <c r="J1936">
-        <v>0.8561408283942642</v>
+        <v>0.8581097136476467</v>
       </c>
       <c r="K1936">
-        <v>17.98</v>
+        <v>17.26</v>
       </c>
       <c r="L1936">
-        <v>18</v>
+        <v>17.87</v>
       </c>
       <c r="M1936">
-        <v>17.84</v>
+        <v>16.74</v>
       </c>
       <c r="N1936">
-        <v>17.74</v>
+        <v>17.14</v>
       </c>
       <c r="O1936">
         <v>1</v>
       </c>
       <c r="P1936" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1937" spans="1:16">
       <c r="A1937" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1937" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C1937">
-        <v>3.093009301915</v>
+        <v>2.606587905471129</v>
       </c>
       <c r="D1937" t="s">
-        <v>401</v>
+        <v>256</v>
       </c>
       <c r="E1937">
-        <v>2.808202532680019</v>
+        <v>2.466447621446326</v>
       </c>
       <c r="F1937">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1937">
-        <v>0.03264699069808501</v>
+        <v>0.03339341209452887</v>
       </c>
       <c r="H1937">
-        <v>0.03147179746731998</v>
+        <v>0.03301355237855367</v>
       </c>
       <c r="I1937">
-        <v>0.2848067692349812</v>
+        <v>-0.1401402840248025</v>
       </c>
       <c r="J1937">
         <v>0.8561408283942642</v>
       </c>
       <c r="K1937">
-        <v>17.26</v>
+        <v>17.98</v>
       </c>
       <c r="L1937">
-        <v>17.87</v>
+        <v>18</v>
       </c>
       <c r="M1937">
-        <v>16.74</v>
+        <v>17.84</v>
       </c>
       <c r="N1937">
-        <v>17.14</v>
+        <v>17.74</v>
       </c>
       <c r="O1937">
         <v>1</v>
@@ -98732,96 +98729,96 @@
     </row>
     <row r="1938" spans="1:16">
       <c r="A1938" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1938" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C1938">
-        <v>2.643647492073137</v>
+        <v>3.093009301915</v>
       </c>
       <c r="D1938" t="s">
-        <v>256</v>
+        <v>402</v>
       </c>
       <c r="E1938">
-        <v>2.503218646194926</v>
+        <v>2.808202532680019</v>
       </c>
       <c r="F1938">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1938">
-        <v>0.03335635250792687</v>
+        <v>0.03264699069808501</v>
       </c>
       <c r="H1938">
-        <v>0.03297678135380507</v>
+        <v>0.03147179746731998</v>
       </c>
       <c r="I1938">
-        <v>-0.1404288458782119</v>
+        <v>0.2848067692349812</v>
       </c>
       <c r="J1938">
-        <v>0.8540796722984907</v>
+        <v>0.8561408283942642</v>
       </c>
       <c r="K1938">
-        <v>17.98</v>
+        <v>17.26</v>
       </c>
       <c r="L1938">
-        <v>18</v>
+        <v>17.87</v>
       </c>
       <c r="M1938">
-        <v>17.84</v>
+        <v>16.74</v>
       </c>
       <c r="N1938">
-        <v>17.74</v>
+        <v>17.14</v>
       </c>
       <c r="O1938">
         <v>1</v>
       </c>
       <c r="P1938" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="1939" spans="1:16">
       <c r="A1939" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1939" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C1939">
-        <v>3.12858485612805</v>
+        <v>2.643647492073137</v>
       </c>
       <c r="D1939" t="s">
-        <v>401</v>
+        <v>256</v>
       </c>
       <c r="E1939">
-        <v>2.842706285723267</v>
+        <v>2.503218646194926</v>
       </c>
       <c r="F1939">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1939">
-        <v>0.03261141514387195</v>
+        <v>0.03335635250792687</v>
       </c>
       <c r="H1939">
-        <v>0.03143729371427673</v>
+        <v>0.03297678135380507</v>
       </c>
       <c r="I1939">
-        <v>0.2858785704047833</v>
+        <v>-0.1404288458782119</v>
       </c>
       <c r="J1939">
         <v>0.8540796722984907</v>
       </c>
       <c r="K1939">
-        <v>17.26</v>
+        <v>17.98</v>
       </c>
       <c r="L1939">
-        <v>17.87</v>
+        <v>18</v>
       </c>
       <c r="M1939">
-        <v>16.74</v>
+        <v>17.84</v>
       </c>
       <c r="N1939">
-        <v>17.14</v>
+        <v>17.74</v>
       </c>
       <c r="O1939">
         <v>1</v>
@@ -98832,96 +98829,96 @@
     </row>
     <row r="1940" spans="1:16">
       <c r="A1940" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1940" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C1940">
-        <v>2.675699438811932</v>
+        <v>3.12858485612805</v>
       </c>
       <c r="D1940" t="s">
-        <v>256</v>
+        <v>402</v>
       </c>
       <c r="E1940">
-        <v>2.535021022714396</v>
+        <v>2.842706285723267</v>
       </c>
       <c r="F1940">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1940">
-        <v>0.03332430056118807</v>
+        <v>0.03261141514387195</v>
       </c>
       <c r="H1940">
-        <v>0.0329449789772856</v>
+        <v>0.03143729371427673</v>
       </c>
       <c r="I1940">
-        <v>-0.1406784160975363</v>
+        <v>0.2858785704047833</v>
       </c>
       <c r="J1940">
-        <v>0.8522970278747535</v>
+        <v>0.8540796722984907</v>
       </c>
       <c r="K1940">
-        <v>17.98</v>
+        <v>17.26</v>
       </c>
       <c r="L1940">
-        <v>18</v>
+        <v>17.87</v>
       </c>
       <c r="M1940">
-        <v>17.84</v>
+        <v>16.74</v>
       </c>
       <c r="N1940">
-        <v>17.74</v>
+        <v>17.14</v>
       </c>
       <c r="O1940">
         <v>1</v>
       </c>
       <c r="P1940" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="1941" spans="1:16">
       <c r="A1941" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1941" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C1941">
-        <v>3.159353298881754</v>
+        <v>2.675699438811932</v>
       </c>
       <c r="D1941" t="s">
-        <v>401</v>
+        <v>256</v>
       </c>
       <c r="E1941">
-        <v>2.872547753376629</v>
+        <v>2.535021022714396</v>
       </c>
       <c r="F1941">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1941">
-        <v>0.03258064670111825</v>
+        <v>0.03332430056118807</v>
       </c>
       <c r="H1941">
-        <v>0.03140745224662337</v>
+        <v>0.0329449789772856</v>
       </c>
       <c r="I1941">
-        <v>0.2868055455051248</v>
+        <v>-0.1406784160975363</v>
       </c>
       <c r="J1941">
         <v>0.8522970278747535</v>
       </c>
       <c r="K1941">
-        <v>17.26</v>
+        <v>17.98</v>
       </c>
       <c r="L1941">
-        <v>17.87</v>
+        <v>18</v>
       </c>
       <c r="M1941">
-        <v>16.74</v>
+        <v>17.84</v>
       </c>
       <c r="N1941">
-        <v>17.14</v>
+        <v>17.74</v>
       </c>
       <c r="O1941">
         <v>1</v>
@@ -98941,10 +98938,10 @@
         <v>2.817393355190555</v>
       </c>
       <c r="D1942" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1942">
-        <v>2.94649089002089</v>
+        <v>3.145449089379319</v>
       </c>
       <c r="F1942">
         <v>1</v>
@@ -98953,10 +98950,10 @@
         <v>0.03116260664480944</v>
       </c>
       <c r="H1942">
-        <v>0.03105350910997911</v>
+        <v>0.03135455091062068</v>
       </c>
       <c r="I1942">
-        <v>0.1290975348303345</v>
+        <v>0.328055734188764</v>
       </c>
       <c r="J1942">
         <v>0.8506966773595104</v>
@@ -98968,10 +98965,10 @@
         <v>16.99</v>
       </c>
       <c r="M1942">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1942">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1942">
         <v>1</v>
@@ -98991,10 +98988,10 @@
         <v>2.86131395239781</v>
       </c>
       <c r="D1943" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1943">
-        <v>2.965041170956399</v>
+        <v>3.164066744216532</v>
       </c>
       <c r="F1943">
         <v>1</v>
@@ -99003,10 +99000,10 @@
         <v>0.0320186860476022</v>
       </c>
       <c r="H1943">
-        <v>0.0310349588290436</v>
+        <v>0.03133593325578347</v>
       </c>
       <c r="I1943">
-        <v>0.1037272185585891</v>
+        <v>0.3027527918187225</v>
       </c>
       <c r="J1943">
         <v>0.8495737789977967</v>
@@ -99018,16 +99015,16 @@
         <v>17.44</v>
       </c>
       <c r="M1943">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1943">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1943">
         <v>1</v>
       </c>
       <c r="P1943" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="1944" spans="1:16">
@@ -99041,10 +99038,10 @@
         <v>2.836100841896705</v>
       </c>
       <c r="D1944" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1944">
-        <v>2.965041170956399</v>
+        <v>3.164066744216532</v>
       </c>
       <c r="F1944">
         <v>1</v>
@@ -99053,10 +99050,10 @@
         <v>0.03114389915810329</v>
       </c>
       <c r="H1944">
-        <v>0.0310349588290436</v>
+        <v>0.03133593325578347</v>
       </c>
       <c r="I1944">
-        <v>0.1289403290596933</v>
+        <v>0.3279659023198267</v>
       </c>
       <c r="J1944">
         <v>0.8495737789977967</v>
@@ -99068,16 +99065,16 @@
         <v>16.99</v>
       </c>
       <c r="M1944">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1944">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1944">
         <v>1</v>
       </c>
       <c r="P1944" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="1945" spans="1:16">
@@ -99085,43 +99082,43 @@
         <v>0</v>
       </c>
       <c r="B1945" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C1945">
-        <v>2.859882890502153</v>
+        <v>2.885809747960202</v>
       </c>
       <c r="D1945" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1945">
-        <v>2.988623370413901</v>
+        <v>3.187734593308868</v>
       </c>
       <c r="F1945">
         <v>1</v>
       </c>
       <c r="G1945">
-        <v>0.03112011710949784</v>
+        <v>0.0319941902520398</v>
       </c>
       <c r="H1945">
-        <v>0.0310113766295861</v>
+        <v>0.03131226540669113</v>
       </c>
       <c r="I1945">
-        <v>0.1287404799117482</v>
+        <v>0.3019248453486654</v>
       </c>
       <c r="J1945">
         <v>0.8481462850839043</v>
       </c>
       <c r="K1945">
-        <v>16.66</v>
+        <v>17.16</v>
       </c>
       <c r="L1945">
-        <v>16.99</v>
+        <v>17.44</v>
       </c>
       <c r="M1945">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1945">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1945">
         <v>1</v>
@@ -99132,34 +99129,34 @@
     </row>
     <row r="1946" spans="1:16">
       <c r="A1946" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1946" t="s">
         <v>260</v>
       </c>
       <c r="C1946">
-        <v>2.888000830324106</v>
+        <v>2.859882890502153</v>
       </c>
       <c r="D1946" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1946">
-        <v>3.016505025027266</v>
+        <v>3.187734593308868</v>
       </c>
       <c r="F1946">
         <v>1</v>
       </c>
       <c r="G1946">
-        <v>0.03109199916967589</v>
+        <v>0.03112011710949784</v>
       </c>
       <c r="H1946">
-        <v>0.03098349497497273</v>
+        <v>0.03131226540669113</v>
       </c>
       <c r="I1946">
-        <v>0.1285041947031598</v>
+        <v>0.3278517028067149</v>
       </c>
       <c r="J1946">
-        <v>0.8464585335939911</v>
+        <v>0.8481462850839043</v>
       </c>
       <c r="K1946">
         <v>16.66</v>
@@ -99168,16 +99165,16 @@
         <v>16.99</v>
       </c>
       <c r="M1946">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1946">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1946">
         <v>1</v>
       </c>
       <c r="P1946" t="s">
-        <v>491</v>
+        <v>236</v>
       </c>
     </row>
     <row r="1947" spans="1:16">
@@ -99188,28 +99185,28 @@
         <v>260</v>
       </c>
       <c r="C1947">
-        <v>2.908617149734795</v>
+        <v>2.888000830324106</v>
       </c>
       <c r="D1947" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1947">
-        <v>3.036948098056353</v>
+        <v>3.215717513011628</v>
       </c>
       <c r="F1947">
         <v>1</v>
       </c>
       <c r="G1947">
-        <v>0.0310713828502652</v>
+        <v>0.03109199916967589</v>
       </c>
       <c r="H1947">
-        <v>0.03096305190194365</v>
+        <v>0.03128428248698838</v>
       </c>
       <c r="I1947">
-        <v>0.1283309483215582</v>
+        <v>0.3277166826875213</v>
       </c>
       <c r="J1947">
-        <v>0.8452210594396881</v>
+        <v>0.8464585335939911</v>
       </c>
       <c r="K1947">
         <v>16.66</v>
@@ -99218,16 +99215,16 @@
         <v>16.99</v>
       </c>
       <c r="M1947">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1947">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1947">
         <v>1</v>
       </c>
       <c r="P1947" t="s">
-        <v>237</v>
+        <v>491</v>
       </c>
     </row>
     <row r="1948" spans="1:16">
@@ -99238,28 +99235,28 @@
         <v>260</v>
       </c>
       <c r="C1948">
-        <v>2.941843670703168</v>
+        <v>2.908617149734795</v>
       </c>
       <c r="D1948" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1948">
-        <v>3.069895404562807</v>
+        <v>3.236234834489974</v>
       </c>
       <c r="F1948">
         <v>1</v>
       </c>
       <c r="G1948">
-        <v>0.03103815632929683</v>
+        <v>0.0310713828502652</v>
       </c>
       <c r="H1948">
-        <v>0.03093010459543719</v>
+        <v>0.03126376516551003</v>
       </c>
       <c r="I1948">
-        <v>0.128051733859639</v>
+        <v>0.3276176847551788</v>
       </c>
       <c r="J1948">
-        <v>0.8432266704259802</v>
+        <v>0.8452210594396881</v>
       </c>
       <c r="K1948">
         <v>16.66</v>
@@ -99268,16 +99265,16 @@
         <v>16.99</v>
       </c>
       <c r="M1948">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1948">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1948">
         <v>1</v>
       </c>
       <c r="P1948" t="s">
-        <v>492</v>
+        <v>237</v>
       </c>
     </row>
     <row r="1949" spans="1:16">
@@ -99285,54 +99282,54 @@
         <v>0</v>
       </c>
       <c r="B1949" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C1949">
-        <v>3.348152158971594</v>
+        <v>2.941843670703168</v>
       </c>
       <c r="D1949" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E1949">
-        <v>3.055658582919149</v>
+        <v>3.26930180433725</v>
       </c>
       <c r="F1949">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1949">
-        <v>0.03239184784102841</v>
+        <v>0.03103815632929683</v>
       </c>
       <c r="H1949">
-        <v>0.03122434141708085</v>
+        <v>0.03123069819566275</v>
       </c>
       <c r="I1949">
-        <v>0.2924935760524452</v>
+        <v>0.3274581336340816</v>
       </c>
       <c r="J1949">
-        <v>0.8413585075914488</v>
+        <v>0.8432266704259802</v>
       </c>
       <c r="K1949">
-        <v>17.26</v>
+        <v>16.66</v>
       </c>
       <c r="L1949">
-        <v>17.87</v>
+        <v>16.99</v>
       </c>
       <c r="M1949">
-        <v>16.74</v>
+        <v>16.58</v>
       </c>
       <c r="N1949">
-        <v>17.14</v>
+        <v>17.25</v>
       </c>
       <c r="O1949">
         <v>1</v>
       </c>
       <c r="P1949" t="s">
-        <v>402</v>
+        <v>492</v>
       </c>
     </row>
     <row r="1950" spans="1:16">
       <c r="A1950" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1950" t="s">
         <v>260</v>
@@ -99341,10 +99338,10 @@
         <v>2.972967263526462</v>
       </c>
       <c r="D1950" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1950">
-        <v>3.100757454589266</v>
+        <v>3.30027594413378</v>
       </c>
       <c r="F1950">
         <v>1</v>
@@ -99353,10 +99350,10 @@
         <v>0.03100703273647354</v>
       </c>
       <c r="H1950">
-        <v>0.03089924254541074</v>
+        <v>0.03119972405586622</v>
       </c>
       <c r="I1950">
-        <v>0.1277901910628039</v>
+        <v>0.3273086806073184</v>
       </c>
       <c r="J1950">
         <v>0.8413585075914488</v>
@@ -99368,16 +99365,16 @@
         <v>16.99</v>
       </c>
       <c r="M1950">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1950">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1950">
         <v>1</v>
       </c>
       <c r="P1950" t="s">
-        <v>402</v>
+        <v>493</v>
       </c>
     </row>
     <row r="1951" spans="1:16">
@@ -99385,43 +99382,43 @@
         <v>0</v>
       </c>
       <c r="B1951" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C1951">
-        <v>3.004332683024431</v>
+        <v>3.518018180634598</v>
       </c>
       <c r="D1951" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E1951">
-        <v>3.131859299133472</v>
+        <v>3.074594768349296</v>
       </c>
       <c r="F1951">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1951">
-        <v>0.03097566731697557</v>
+        <v>0.0304819818193654</v>
       </c>
       <c r="H1951">
-        <v>0.03086814070086653</v>
+        <v>0.0318854052316507</v>
       </c>
       <c r="I1951">
-        <v>0.1275266161090407</v>
+        <v>0.443423412285302</v>
       </c>
       <c r="J1951">
         <v>0.8394758293502741</v>
       </c>
       <c r="K1951">
-        <v>16.66</v>
+        <v>16.06</v>
       </c>
       <c r="L1951">
-        <v>16.99</v>
+        <v>17</v>
       </c>
       <c r="M1951">
-        <v>16.52</v>
+        <v>17.16</v>
       </c>
       <c r="N1951">
-        <v>17</v>
+        <v>17.48</v>
       </c>
       <c r="O1951">
         <v>1</v>
@@ -99432,102 +99429,102 @@
     </row>
     <row r="1952" spans="1:16">
       <c r="A1952" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1952" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="C1952">
-        <v>3.538742775840452</v>
+        <v>3.034594768349297</v>
       </c>
       <c r="D1952" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="E1952">
-        <v>3.096738856377469</v>
+        <v>3.331490749372456</v>
       </c>
       <c r="F1952">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1952">
-        <v>0.03046125722415955</v>
+        <v>0.03184540523165071</v>
       </c>
       <c r="H1952">
-        <v>0.03186326114362253</v>
+        <v>0.03116850925062754</v>
       </c>
       <c r="I1952">
-        <v>0.4420039194629837</v>
+        <v>0.2968959810231588</v>
       </c>
       <c r="J1952">
-        <v>0.8381853813299843</v>
+        <v>0.8394758293502741</v>
       </c>
       <c r="K1952">
-        <v>16.06</v>
+        <v>17.16</v>
       </c>
       <c r="L1952">
-        <v>17</v>
+        <v>17.44</v>
       </c>
       <c r="M1952">
-        <v>17.16</v>
+        <v>16.58</v>
       </c>
       <c r="N1952">
-        <v>17.48</v>
+        <v>17.25</v>
       </c>
       <c r="O1952">
         <v>1</v>
       </c>
       <c r="P1952" t="s">
-        <v>493</v>
+        <v>257</v>
       </c>
     </row>
     <row r="1953" spans="1:16">
       <c r="A1953" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1953" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C1953">
-        <v>3.077903347896665</v>
+        <v>3.004332683024431</v>
       </c>
       <c r="D1953" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1953">
-        <v>3.15317750042866</v>
+        <v>3.331490749372456</v>
       </c>
       <c r="F1953">
         <v>1</v>
       </c>
       <c r="G1953">
-        <v>0.03144209665210334</v>
+        <v>0.03097566731697557</v>
       </c>
       <c r="H1953">
-        <v>0.03084682249957134</v>
+        <v>0.03116850925062754</v>
       </c>
       <c r="I1953">
-        <v>0.07527415253199443</v>
+        <v>0.3271580663480247</v>
       </c>
       <c r="J1953">
-        <v>0.8381853813299843</v>
+        <v>0.8394758293502741</v>
       </c>
       <c r="K1953">
-        <v>16.92</v>
+        <v>16.66</v>
       </c>
       <c r="L1953">
-        <v>17.26</v>
+        <v>16.99</v>
       </c>
       <c r="M1953">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1953">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1953">
         <v>1</v>
       </c>
       <c r="P1953" t="s">
-        <v>493</v>
+        <v>257</v>
       </c>
     </row>
     <row r="1954" spans="1:16">
@@ -99538,28 +99535,28 @@
         <v>245</v>
       </c>
       <c r="C1954">
-        <v>3.566106779784686</v>
+        <v>3.538742775840452</v>
       </c>
       <c r="D1954" t="s">
         <v>391</v>
       </c>
       <c r="E1954">
-        <v>3.125977107167197</v>
+        <v>3.096738856377469</v>
       </c>
       <c r="F1954">
         <v>-1</v>
       </c>
       <c r="G1954">
-        <v>0.03043389322021531</v>
+        <v>0.03046125722415955</v>
       </c>
       <c r="H1954">
-        <v>0.0318340228928328</v>
+        <v>0.03186326114362253</v>
       </c>
       <c r="I1954">
-        <v>0.4401296726174895</v>
+        <v>0.4420039194629837</v>
       </c>
       <c r="J1954">
-        <v>0.8364815205613522</v>
+        <v>0.8381853813299843</v>
       </c>
       <c r="K1954">
         <v>16.06</v>
@@ -99577,7 +99574,7 @@
         <v>1</v>
       </c>
       <c r="P1954" t="s">
-        <v>255</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1955" spans="1:16">
@@ -99588,28 +99585,28 @@
         <v>262</v>
       </c>
       <c r="C1955">
-        <v>3.106732672101922</v>
+        <v>3.077903347896665</v>
       </c>
       <c r="D1955" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1955">
-        <v>3.181325280326462</v>
+        <v>3.352886377548861</v>
       </c>
       <c r="F1955">
         <v>1</v>
       </c>
       <c r="G1955">
-        <v>0.03141326732789809</v>
+        <v>0.03144209665210334</v>
       </c>
       <c r="H1955">
-        <v>0.03081867471967354</v>
+        <v>0.03114711362245114</v>
       </c>
       <c r="I1955">
-        <v>0.07459260822454006</v>
+        <v>0.274983029652196</v>
       </c>
       <c r="J1955">
-        <v>0.8364815205613522</v>
+        <v>0.8381853813299843</v>
       </c>
       <c r="K1955">
         <v>16.92</v>
@@ -99618,16 +99615,16 @@
         <v>17.26</v>
       </c>
       <c r="M1955">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1955">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1955">
         <v>1</v>
       </c>
       <c r="P1955" t="s">
-        <v>255</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1956" spans="1:16">
@@ -99638,28 +99635,28 @@
         <v>245</v>
       </c>
       <c r="C1956">
-        <v>3.600255874267948</v>
+        <v>3.566106779784686</v>
       </c>
       <c r="D1956" t="s">
         <v>391</v>
       </c>
       <c r="E1956">
-        <v>3.162465180724656</v>
+        <v>3.125977107167197</v>
       </c>
       <c r="F1956">
         <v>-1</v>
       </c>
       <c r="G1956">
-        <v>0.03039974412573205</v>
+        <v>0.03043389322021531</v>
       </c>
       <c r="H1956">
-        <v>0.03179753481927534</v>
+        <v>0.0318340228928328</v>
       </c>
       <c r="I1956">
-        <v>0.4377906935432918</v>
+        <v>0.4401296726174895</v>
       </c>
       <c r="J1956">
-        <v>0.8343551759484467</v>
+        <v>0.8364815205613522</v>
       </c>
       <c r="K1956">
         <v>16.06</v>
@@ -99677,7 +99674,7 @@
         <v>1</v>
       </c>
       <c r="P1956" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="1957" spans="1:16">
@@ -99688,28 +99685,28 @@
         <v>262</v>
       </c>
       <c r="C1957">
-        <v>3.142710422952282</v>
+        <v>3.106732672101922</v>
       </c>
       <c r="D1957" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1957">
-        <v>3.216452493331662</v>
+        <v>3.381136389092783</v>
       </c>
       <c r="F1957">
         <v>1</v>
       </c>
       <c r="G1957">
-        <v>0.03137728957704772</v>
+        <v>0.03141326732789809</v>
       </c>
       <c r="H1957">
-        <v>0.03078354750666834</v>
+        <v>0.03111886361090722</v>
       </c>
       <c r="I1957">
-        <v>0.07374207037937985</v>
+        <v>0.2744037169908609</v>
       </c>
       <c r="J1957">
-        <v>0.8343551759484467</v>
+        <v>0.8364815205613522</v>
       </c>
       <c r="K1957">
         <v>16.92</v>
@@ -99718,16 +99715,16 @@
         <v>17.26</v>
       </c>
       <c r="M1957">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1957">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1957">
         <v>1</v>
       </c>
       <c r="P1957" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="1958" spans="1:16">
@@ -99735,49 +99732,49 @@
         <v>0</v>
       </c>
       <c r="B1958" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C1958">
-        <v>3.510508650911319</v>
+        <v>3.600255874267948</v>
       </c>
       <c r="D1958" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="E1958">
-        <v>3.213123685762197</v>
+        <v>3.162465180724656</v>
       </c>
       <c r="F1958">
         <v>-1</v>
       </c>
       <c r="G1958">
-        <v>0.03222949134908868</v>
+        <v>0.03039974412573205</v>
       </c>
       <c r="H1958">
-        <v>0.0310668763142378</v>
+        <v>0.03179753481927534</v>
       </c>
       <c r="I1958">
-        <v>0.2973849651491225</v>
+        <v>0.4377906935432918</v>
       </c>
       <c r="J1958">
-        <v>0.8319519900978378</v>
+        <v>0.8343551759484467</v>
       </c>
       <c r="K1958">
-        <v>17.26</v>
+        <v>16.06</v>
       </c>
       <c r="L1958">
-        <v>17.87</v>
+        <v>17</v>
       </c>
       <c r="M1958">
-        <v>16.74</v>
+        <v>17.16</v>
       </c>
       <c r="N1958">
-        <v>17.14</v>
+        <v>17.48</v>
       </c>
       <c r="O1958">
         <v>1</v>
       </c>
       <c r="P1958" t="s">
-        <v>390</v>
+        <v>239</v>
       </c>
     </row>
     <row r="1959" spans="1:16">
@@ -99788,28 +99785,28 @@
         <v>262</v>
       </c>
       <c r="C1959">
-        <v>3.183372327544584</v>
+        <v>3.142710422952282</v>
       </c>
       <c r="D1959" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1959">
-        <v>3.256153123583719</v>
+        <v>3.416391182774756</v>
       </c>
       <c r="F1959">
         <v>1</v>
       </c>
       <c r="G1959">
-        <v>0.03133662767245542</v>
+        <v>0.03137728957704772</v>
       </c>
       <c r="H1959">
-        <v>0.03074384687641628</v>
+        <v>0.03108360881722524</v>
       </c>
       <c r="I1959">
-        <v>0.0727807960391349</v>
+        <v>0.273680759822474</v>
       </c>
       <c r="J1959">
-        <v>0.8319519900978378</v>
+        <v>0.8343551759484467</v>
       </c>
       <c r="K1959">
         <v>16.92</v>
@@ -99818,16 +99815,16 @@
         <v>17.26</v>
       </c>
       <c r="M1959">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1959">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1959">
         <v>1</v>
       </c>
       <c r="P1959" t="s">
-        <v>390</v>
+        <v>239</v>
       </c>
     </row>
     <row r="1960" spans="1:16">
@@ -99838,28 +99835,28 @@
         <v>258</v>
       </c>
       <c r="C1960">
-        <v>3.544663022046812</v>
+        <v>3.510508650911319</v>
       </c>
       <c r="D1960" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E1960">
-        <v>3.246249072367535</v>
+        <v>3.213123685762197</v>
       </c>
       <c r="F1960">
         <v>-1</v>
       </c>
       <c r="G1960">
-        <v>0.03219533697795319</v>
+        <v>0.03222949134908868</v>
       </c>
       <c r="H1960">
-        <v>0.03103375092763247</v>
+        <v>0.0310668763142378</v>
       </c>
       <c r="I1960">
-        <v>0.2984139496792775</v>
+        <v>0.2973849651491225</v>
       </c>
       <c r="J1960">
-        <v>0.8299731736936957</v>
+        <v>0.8319519900978378</v>
       </c>
       <c r="K1960">
         <v>17.26</v>
@@ -99877,7 +99874,7 @@
         <v>1</v>
       </c>
       <c r="P1960" t="s">
-        <v>245</v>
+        <v>390</v>
       </c>
     </row>
     <row r="1961" spans="1:16">
@@ -99885,49 +99882,49 @@
         <v>1</v>
       </c>
       <c r="B1961" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C1961">
-        <v>3.197660339416183</v>
+        <v>3.183372327544584</v>
       </c>
       <c r="D1961" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1961">
-        <v>3.288843170580147</v>
+        <v>3.45623600417785</v>
       </c>
       <c r="F1961">
         <v>1</v>
       </c>
       <c r="G1961">
-        <v>0.03168233966058382</v>
+        <v>0.03133662767245542</v>
       </c>
       <c r="H1961">
-        <v>0.03071115682941985</v>
+        <v>0.03104376399582215</v>
       </c>
       <c r="I1961">
-        <v>0.0911828311639642</v>
+        <v>0.2728636766332659</v>
       </c>
       <c r="J1961">
-        <v>0.8299731736936957</v>
+        <v>0.8319519900978378</v>
       </c>
       <c r="K1961">
-        <v>17.16</v>
+        <v>16.92</v>
       </c>
       <c r="L1961">
-        <v>17.44</v>
+        <v>17.26</v>
       </c>
       <c r="M1961">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1961">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1961">
         <v>1</v>
       </c>
       <c r="P1961" t="s">
-        <v>245</v>
+        <v>390</v>
       </c>
     </row>
     <row r="1962" spans="1:16">
@@ -99938,28 +99935,28 @@
         <v>258</v>
       </c>
       <c r="C1962">
-        <v>3.588152949314306</v>
+        <v>3.544663022046812</v>
       </c>
       <c r="D1962" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E1962">
-        <v>3.288428758489079</v>
+        <v>3.246249072367535</v>
       </c>
       <c r="F1962">
         <v>-1</v>
       </c>
       <c r="G1962">
-        <v>0.0321518470506857</v>
+        <v>0.03219533697795319</v>
       </c>
       <c r="H1962">
-        <v>0.03099157124151092</v>
+        <v>0.03103375092763247</v>
       </c>
       <c r="I1962">
-        <v>0.2997241908252271</v>
+        <v>0.2984139496792775</v>
       </c>
       <c r="J1962">
-        <v>0.8274534791822534</v>
+        <v>0.8299731736936957</v>
       </c>
       <c r="K1962">
         <v>17.26</v>
@@ -99977,57 +99974,57 @@
         <v>1</v>
       </c>
       <c r="P1962" t="s">
-        <v>494</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1963" spans="1:16">
       <c r="A1963" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1963" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C1963">
-        <v>3.272596411694732</v>
+        <v>3.216853901102668</v>
       </c>
       <c r="D1963" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1963">
-        <v>3.360984424312177</v>
+        <v>3.489044780158526</v>
       </c>
       <c r="F1963">
         <v>1</v>
       </c>
       <c r="G1963">
-        <v>0.03160740358830527</v>
+        <v>0.03130314609889734</v>
       </c>
       <c r="H1963">
-        <v>0.03063901557568782</v>
+        <v>0.03101095521984147</v>
       </c>
       <c r="I1963">
-        <v>0.088388012617445</v>
+        <v>0.2721908790558576</v>
       </c>
       <c r="J1963">
-        <v>0.8256062697147593</v>
+        <v>0.8299731736936957</v>
       </c>
       <c r="K1963">
-        <v>17.16</v>
+        <v>16.92</v>
       </c>
       <c r="L1963">
-        <v>17.44</v>
+        <v>17.26</v>
       </c>
       <c r="M1963">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1963">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1963">
         <v>1</v>
       </c>
       <c r="P1963" t="s">
-        <v>495</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1964" spans="1:16">
@@ -100035,93 +100032,93 @@
         <v>0</v>
       </c>
       <c r="B1964" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C1964">
-        <v>3.304570226925538</v>
+        <v>3.588152949314306</v>
       </c>
       <c r="D1964" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="E1964">
-        <v>3.391765742937638</v>
+        <v>3.288428758489079</v>
       </c>
       <c r="F1964">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1964">
-        <v>0.03157542977307447</v>
+        <v>0.0321518470506857</v>
       </c>
       <c r="H1964">
-        <v>0.03060823425706237</v>
+        <v>0.03099157124151092</v>
       </c>
       <c r="I1964">
-        <v>0.08719551601210007</v>
+        <v>0.2997241908252271</v>
       </c>
       <c r="J1964">
-        <v>0.8237429937689081</v>
+        <v>0.8274534791822534</v>
       </c>
       <c r="K1964">
-        <v>17.16</v>
+        <v>17.26</v>
       </c>
       <c r="L1964">
-        <v>17.44</v>
+        <v>17.87</v>
       </c>
       <c r="M1964">
-        <v>16.52</v>
+        <v>16.74</v>
       </c>
       <c r="N1964">
-        <v>17</v>
+        <v>17.14</v>
       </c>
       <c r="O1964">
         <v>1</v>
       </c>
       <c r="P1964" t="s">
-        <v>391</v>
+        <v>495</v>
       </c>
     </row>
     <row r="1965" spans="1:16">
       <c r="A1965" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1965" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C1965">
-        <v>3.266441723809988</v>
+        <v>3.304570226925538</v>
       </c>
       <c r="D1965" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1965">
-        <v>3.391765742937638</v>
+        <v>3.592341163311504</v>
       </c>
       <c r="F1965">
         <v>1</v>
       </c>
       <c r="G1965">
-        <v>0.03071355827619001</v>
+        <v>0.03157542977307447</v>
       </c>
       <c r="H1965">
-        <v>0.03060823425706237</v>
+        <v>0.0309076588366885</v>
       </c>
       <c r="I1965">
-        <v>0.1253240191276497</v>
+        <v>0.2877709363859662</v>
       </c>
       <c r="J1965">
         <v>0.8237429937689081</v>
       </c>
       <c r="K1965">
-        <v>16.66</v>
+        <v>17.16</v>
       </c>
       <c r="L1965">
-        <v>16.99</v>
+        <v>17.44</v>
       </c>
       <c r="M1965">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1965">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1965">
         <v>1</v>
@@ -100141,10 +100138,10 @@
         <v>3.333855149873953</v>
       </c>
       <c r="D1966" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1966">
-        <v>3.419958454307558</v>
+        <v>3.620636269516908</v>
       </c>
       <c r="F1966">
         <v>1</v>
@@ -100153,10 +100150,10 @@
         <v>0.03154614485012605</v>
       </c>
       <c r="H1966">
-        <v>0.03058004154569244</v>
+        <v>0.03087936373048309</v>
       </c>
       <c r="I1966">
-        <v>0.08610330443360503</v>
+        <v>0.2867811196429546</v>
       </c>
       <c r="J1966">
         <v>0.8220364131775086</v>
@@ -100168,10 +100165,10 @@
         <v>17.44</v>
       </c>
       <c r="M1966">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1966">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1966">
         <v>1</v>
@@ -100185,43 +100182,43 @@
         <v>0</v>
       </c>
       <c r="B1967" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C1967">
-        <v>3.314632843274467</v>
+        <v>3.354207658498792</v>
       </c>
       <c r="D1967" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1967">
-        <v>3.439551895011657</v>
+        <v>3.640300872838576</v>
       </c>
       <c r="F1967">
         <v>1</v>
       </c>
       <c r="G1967">
-        <v>0.03066536715672553</v>
+        <v>0.03152579234150121</v>
       </c>
       <c r="H1967">
-        <v>0.03056044810498834</v>
+        <v>0.03085969912716142</v>
       </c>
       <c r="I1967">
-        <v>0.1249190517371908</v>
+        <v>0.2860932143397843</v>
       </c>
       <c r="J1967">
         <v>0.8208503695513525</v>
       </c>
       <c r="K1967">
-        <v>16.66</v>
+        <v>17.16</v>
       </c>
       <c r="L1967">
-        <v>16.99</v>
+        <v>17.44</v>
       </c>
       <c r="M1967">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1967">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1967">
         <v>1</v>
@@ -100232,34 +100229,34 @@
     </row>
     <row r="1968" spans="1:16">
       <c r="A1968" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1968" t="s">
         <v>260</v>
       </c>
       <c r="C1968">
-        <v>3.346089755009892</v>
+        <v>3.314632843274467</v>
       </c>
       <c r="D1968" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1968">
-        <v>3.470744462950988</v>
+        <v>3.640300872838576</v>
       </c>
       <c r="F1968">
         <v>1</v>
       </c>
       <c r="G1968">
-        <v>0.0306339102449901</v>
+        <v>0.03066536715672553</v>
       </c>
       <c r="H1968">
-        <v>0.03052925553704901</v>
+        <v>0.03085969912716142</v>
       </c>
       <c r="I1968">
-        <v>0.1246547079410956</v>
+        <v>0.3256680295641097</v>
       </c>
       <c r="J1968">
-        <v>0.8189621995792381</v>
+        <v>0.8208503695513525</v>
       </c>
       <c r="K1968">
         <v>16.66</v>
@@ -100268,16 +100265,16 @@
         <v>16.99</v>
       </c>
       <c r="M1968">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1968">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1968">
         <v>1</v>
       </c>
       <c r="P1968" t="s">
-        <v>258</v>
+        <v>496</v>
       </c>
     </row>
     <row r="1969" spans="1:16">
@@ -100288,28 +100285,28 @@
         <v>260</v>
       </c>
       <c r="C1969">
-        <v>3.351726795261538</v>
+        <v>3.346089755009892</v>
       </c>
       <c r="D1969" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1969">
-        <v>3.476334133116485</v>
+        <v>3.671606730976233</v>
       </c>
       <c r="F1969">
         <v>1</v>
       </c>
       <c r="G1969">
-        <v>0.03062827320473846</v>
+        <v>0.0306339102449901</v>
       </c>
       <c r="H1969">
-        <v>0.03052366586688351</v>
+        <v>0.03082839326902377</v>
       </c>
       <c r="I1969">
-        <v>0.1246073378549468</v>
+        <v>0.325516975966341</v>
       </c>
       <c r="J1969">
-        <v>0.8186238418210361</v>
+        <v>0.8189621995792381</v>
       </c>
       <c r="K1969">
         <v>16.66</v>
@@ -100318,16 +100315,16 @@
         <v>16.99</v>
       </c>
       <c r="M1969">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1969">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1969">
         <v>1</v>
       </c>
       <c r="P1969" t="s">
-        <v>401</v>
+        <v>258</v>
       </c>
     </row>
     <row r="1970" spans="1:16">
@@ -100338,28 +100335,28 @@
         <v>260</v>
       </c>
       <c r="C1970">
-        <v>3.345893939909976</v>
+        <v>3.351726795261538</v>
       </c>
       <c r="D1970" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1970">
-        <v>3.470550293356114</v>
+        <v>3.677216702607224</v>
       </c>
       <c r="F1970">
         <v>1</v>
       </c>
       <c r="G1970">
-        <v>0.03063410606009002</v>
+        <v>0.03062827320473846</v>
       </c>
       <c r="H1970">
-        <v>0.03052944970664389</v>
+        <v>0.03082278329739278</v>
       </c>
       <c r="I1970">
-        <v>0.124656353446138</v>
+        <v>0.3254899073456858</v>
       </c>
       <c r="J1970">
-        <v>0.818973953186676</v>
+        <v>0.8186238418210361</v>
       </c>
       <c r="K1970">
         <v>16.66</v>
@@ -100368,16 +100365,16 @@
         <v>16.99</v>
       </c>
       <c r="M1970">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1970">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1970">
         <v>1</v>
       </c>
       <c r="P1970" t="s">
-        <v>497</v>
+        <v>402</v>
       </c>
     </row>
     <row r="1971" spans="1:16">
@@ -100388,28 +100385,28 @@
         <v>260</v>
       </c>
       <c r="C1971">
-        <v>3.360728562069458</v>
+        <v>3.345893939909976</v>
       </c>
       <c r="D1971" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1971">
-        <v>3.485260254825178</v>
+        <v>3.671411856164914</v>
       </c>
       <c r="F1971">
         <v>1</v>
       </c>
       <c r="G1971">
-        <v>0.03061927143793054</v>
+        <v>0.03063410606009002</v>
       </c>
       <c r="H1971">
-        <v>0.03051473974517482</v>
+        <v>0.03082858814383508</v>
       </c>
       <c r="I1971">
-        <v>0.1245316927557205</v>
+        <v>0.3255179162549382</v>
       </c>
       <c r="J1971">
-        <v>0.818083519683706</v>
+        <v>0.818973953186676</v>
       </c>
       <c r="K1971">
         <v>16.66</v>
@@ -100418,16 +100415,16 @@
         <v>16.99</v>
       </c>
       <c r="M1971">
-        <v>16.52</v>
+        <v>16.58</v>
       </c>
       <c r="N1971">
-        <v>17</v>
+        <v>17.25</v>
       </c>
       <c r="O1971">
         <v>1</v>
       </c>
       <c r="P1971" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="1972" spans="1:16">
@@ -100438,28 +100435,28 @@
         <v>260</v>
       </c>
       <c r="C1972">
-        <v>3.35788628073338</v>
+        <v>3.360728562069458</v>
       </c>
       <c r="D1972" t="s">
         <v>395</v>
       </c>
       <c r="E1972">
-        <v>3.482441858206212</v>
+        <v>3.485260254825178</v>
       </c>
       <c r="F1972">
         <v>1</v>
       </c>
       <c r="G1972">
-        <v>0.03062211371926661</v>
+        <v>0.03061927143793054</v>
       </c>
       <c r="H1972">
-        <v>0.03051755814179379</v>
+        <v>0.03051473974517482</v>
       </c>
       <c r="I1972">
-        <v>0.1245555774728313</v>
+        <v>0.1245316927557205</v>
       </c>
       <c r="J1972">
-        <v>0.8182541248059194</v>
+        <v>0.818083519683706</v>
       </c>
       <c r="K1972">
         <v>16.66</v>
@@ -100477,7 +100474,7 @@
         <v>1</v>
       </c>
       <c r="P1972" t="s">
-        <v>393</v>
+        <v>498</v>
       </c>
     </row>
     <row r="1973" spans="1:16">
@@ -100488,28 +100485,28 @@
         <v>260</v>
       </c>
       <c r="C1973">
-        <v>3.371711701176629</v>
+        <v>3.35788628073338</v>
       </c>
       <c r="D1973" t="s">
         <v>395</v>
       </c>
       <c r="E1973">
-        <v>3.496151098645736</v>
+        <v>3.482441858206212</v>
       </c>
       <c r="F1973">
         <v>1</v>
       </c>
       <c r="G1973">
-        <v>0.03060828829882337</v>
+        <v>0.03062211371926661</v>
       </c>
       <c r="H1973">
-        <v>0.03050384890135427</v>
+        <v>0.03051755814179379</v>
       </c>
       <c r="I1973">
-        <v>0.1244393974691071</v>
+        <v>0.1245555774728313</v>
       </c>
       <c r="J1973">
-        <v>0.8174242676364567</v>
+        <v>0.8182541248059194</v>
       </c>
       <c r="K1973">
         <v>16.66</v>
@@ -100527,7 +100524,7 @@
         <v>1</v>
       </c>
       <c r="P1973" t="s">
-        <v>499</v>
+        <v>393</v>
       </c>
     </row>
     <row r="1974" spans="1:16">
@@ -100538,28 +100535,28 @@
         <v>260</v>
       </c>
       <c r="C1974">
-        <v>3.376495258897453</v>
+        <v>3.371711701176629</v>
       </c>
       <c r="D1974" t="s">
         <v>395</v>
       </c>
       <c r="E1974">
-        <v>3.500894458402518</v>
+        <v>3.496151098645736</v>
       </c>
       <c r="F1974">
         <v>1</v>
       </c>
       <c r="G1974">
-        <v>0.03060350474110254</v>
+        <v>0.03060828829882337</v>
       </c>
       <c r="H1974">
-        <v>0.03049910554159748</v>
+        <v>0.03050384890135427</v>
       </c>
       <c r="I1974">
-        <v>0.1243991995050653</v>
+        <v>0.1244393974691071</v>
       </c>
       <c r="J1974">
-        <v>0.8171371393218815</v>
+        <v>0.8174242676364567</v>
       </c>
       <c r="K1974">
         <v>16.66</v>
@@ -100577,7 +100574,7 @@
         <v>1</v>
       </c>
       <c r="P1974" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="1975" spans="1:16">
@@ -100588,28 +100585,28 @@
         <v>260</v>
       </c>
       <c r="C1975">
-        <v>3.364119461992622</v>
+        <v>3.376495258897453</v>
       </c>
       <c r="D1975" t="s">
         <v>395</v>
       </c>
       <c r="E1975">
-        <v>3.488622659791005</v>
+        <v>3.500894458402518</v>
       </c>
       <c r="F1975">
         <v>1</v>
       </c>
       <c r="G1975">
-        <v>0.03061588053800738</v>
+        <v>0.03060350474110254</v>
       </c>
       <c r="H1975">
-        <v>0.030511377340209</v>
+        <v>0.03049910554159748</v>
       </c>
       <c r="I1975">
-        <v>0.1245031977983828</v>
+        <v>0.1243991995050653</v>
       </c>
       <c r="J1975">
-        <v>0.8178799842741522</v>
+        <v>0.8171371393218815</v>
       </c>
       <c r="K1975">
         <v>16.66</v>
@@ -100627,107 +100624,7 @@
         <v>1</v>
       </c>
       <c r="P1975" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="1976" spans="1:16">
-      <c r="A1976" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1976" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1976">
-        <v>3.367921861482916</v>
-      </c>
-      <c r="D1976" t="s">
-        <v>395</v>
-      </c>
-      <c r="E1976">
-        <v>3.492393106344405</v>
-      </c>
-      <c r="F1976">
-        <v>1</v>
-      </c>
-      <c r="G1976">
-        <v>0.03061207813851708</v>
-      </c>
-      <c r="H1976">
-        <v>0.0305076068936556</v>
-      </c>
-      <c r="I1976">
-        <v>0.1244712448614891</v>
-      </c>
-      <c r="J1976">
-        <v>0.8176517490106292</v>
-      </c>
-      <c r="K1976">
-        <v>16.66</v>
-      </c>
-      <c r="L1976">
-        <v>16.99</v>
-      </c>
-      <c r="M1976">
-        <v>16.52</v>
-      </c>
-      <c r="N1976">
-        <v>17</v>
-      </c>
-      <c r="O1976">
-        <v>1</v>
-      </c>
-      <c r="P1976" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="1977" spans="1:16">
-      <c r="A1977" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1977" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1977">
-        <v>3.378703908623784</v>
-      </c>
-      <c r="D1977" t="s">
-        <v>395</v>
-      </c>
-      <c r="E1977">
-        <v>3.503084548047115</v>
-      </c>
-      <c r="F1977">
-        <v>1</v>
-      </c>
-      <c r="G1977">
-        <v>0.03060129609137621</v>
-      </c>
-      <c r="H1977">
-        <v>0.03049691545195289</v>
-      </c>
-      <c r="I1977">
-        <v>0.1243806394233307</v>
-      </c>
-      <c r="J1977">
-        <v>0.8170045673094967</v>
-      </c>
-      <c r="K1977">
-        <v>16.66</v>
-      </c>
-      <c r="L1977">
-        <v>16.99</v>
-      </c>
-      <c r="M1977">
-        <v>16.52</v>
-      </c>
-      <c r="N1977">
-        <v>17</v>
-      </c>
-      <c r="O1977">
-        <v>1</v>
-      </c>
-      <c r="P1977" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
